--- a/Resources/Country Reconciliation.xlsx
+++ b/Resources/Country Reconciliation.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,24 +8,59 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\bootcamp\ETL---WHI-Project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0A8384AD-4A90-4205-985E-0A1869058409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191F3D11-860E-478A-B9F0-C326648CC48A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WorldHappinessIndex2018 (Kaggle" sheetId="1" r:id="rId1"/>
     <sheet name="WDI values" sheetId="2" r:id="rId2"/>
+    <sheet name="Life Expectancy" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Life Expectancy'!$H$1:$K$265</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'WDI values'!$A$1:$B$264</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WorldHappinessIndex2018 (Kaggle'!$L$1:$L$157</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="590">
   <si>
     <t>Rank</t>
   </si>
@@ -916,12 +951,891 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/North_Macedonia</t>
+  </si>
+  <si>
+    <t>Country Name</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>ABW</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>ARB</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>ATG</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>BHR</t>
+  </si>
+  <si>
+    <t>Bahamas, The</t>
+  </si>
+  <si>
+    <t>BHS</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>BMU</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>BRB</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>BRN</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CEB</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>Congo, Dem. Rep.</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>Congo, Rep.</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>CUW</t>
+  </si>
+  <si>
+    <t>CYM</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>DMA</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>DZA</t>
+  </si>
+  <si>
+    <t>EAP</t>
+  </si>
+  <si>
+    <t>EAR</t>
+  </si>
+  <si>
+    <t>EAS</t>
+  </si>
+  <si>
+    <t>ECA</t>
+  </si>
+  <si>
+    <t>ECS</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>Egypt, Arab Rep.</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>EMU</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>EUU</t>
+  </si>
+  <si>
+    <t>FCS</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>FJI</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>FRO</t>
+  </si>
+  <si>
+    <t>Micronesia, Fed. Sts.</t>
+  </si>
+  <si>
+    <t>FSM</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>GIB</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>Gambia, The</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>GRD</t>
+  </si>
+  <si>
+    <t>GRL</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>GUM</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>HIC</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>HPC</t>
+  </si>
+  <si>
+    <t>HRV</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>IBD</t>
+  </si>
+  <si>
+    <t>IBT</t>
+  </si>
+  <si>
+    <t>IDA</t>
+  </si>
+  <si>
+    <t>IDB</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>IDX</t>
+  </si>
+  <si>
+    <t>IMN</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>Not classified</t>
+  </si>
+  <si>
+    <t>INX</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Rep.</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>ISL</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>JOR</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>KIR</t>
+  </si>
+  <si>
+    <t>KNA</t>
+  </si>
+  <si>
+    <t>Korea, Rep.</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>KWT</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>LBY</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>LCN</t>
+  </si>
+  <si>
+    <t>LDC</t>
+  </si>
+  <si>
+    <t>LIC</t>
+  </si>
+  <si>
+    <t>LIE</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>LMC</t>
+  </si>
+  <si>
+    <t>LMY</t>
+  </si>
+  <si>
+    <t>LSO</t>
+  </si>
+  <si>
+    <t>LTE</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>MAF</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>MDV</t>
+  </si>
+  <si>
+    <t>MEA</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>MHL</t>
+  </si>
+  <si>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>MNA</t>
+  </si>
+  <si>
+    <t>MNE</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>MNP</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>MUS</t>
+  </si>
+  <si>
+    <t>MWI</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>NAC</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>NCL</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>NRU</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>OED</t>
+  </si>
+  <si>
+    <t>OMN</t>
+  </si>
+  <si>
+    <t>OSS</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>PLW</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>Korea, Dem. PeopleÕs Rep.</t>
+  </si>
+  <si>
+    <t>PRK</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>PSS</t>
+  </si>
+  <si>
+    <t>PST</t>
+  </si>
+  <si>
+    <t>PYF</t>
+  </si>
+  <si>
+    <t>QAT</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>SMR</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>SSA</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>SSF</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>SXM</t>
+  </si>
+  <si>
+    <t>SYC</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>TCA</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>East Asia &amp; Pacific (IDA &amp; IBRD countries)</t>
+  </si>
+  <si>
+    <t>TEA</t>
+  </si>
+  <si>
+    <t>Europe &amp; Central Asia (IDA &amp; IBRD countries)</t>
+  </si>
+  <si>
+    <t>TEC</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>TJK</t>
+  </si>
+  <si>
+    <t>TKM</t>
+  </si>
+  <si>
+    <t>Latin America &amp; the Caribbean (IDA &amp; IBRD countries)</t>
+  </si>
+  <si>
+    <t>TLA</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>Middle East &amp; North Africa (IDA &amp; IBRD countries)</t>
+  </si>
+  <si>
+    <t>TMN</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>TSA</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa (IDA &amp; IBRD countries)</t>
+  </si>
+  <si>
+    <t>TSS</t>
+  </si>
+  <si>
+    <t>TTO</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>TUV</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>UMC</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>VCT</t>
+  </si>
+  <si>
+    <t>Venezuela, RB</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>VGB</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t>VIR</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>VUT</t>
+  </si>
+  <si>
+    <t>WLD</t>
+  </si>
+  <si>
+    <t>WSM</t>
+  </si>
+  <si>
+    <t>XKX</t>
+  </si>
+  <si>
+    <t>Yemen, Rep.</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>ZMB</t>
+  </si>
+  <si>
+    <t>ZWE</t>
+  </si>
+  <si>
+    <t>In Happiness</t>
+  </si>
+  <si>
+    <t>In WDI?</t>
+  </si>
+  <si>
+    <t>WDI Name</t>
+  </si>
+  <si>
+    <t>Replace with</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1058,7 +1972,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1238,6 +2152,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1399,10 +2319,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1757,11 +2680,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6802,12 +7725,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D43" sqref="D43:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6824,6 +7747,9 @@
       <c r="B1" t="s">
         <v>289</v>
       </c>
+      <c r="D1" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7231,14 +8157,15 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <f>IFERROR(MATCH(A43,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="4" t="s">
         <v>142</v>
       </c>
       <c r="F43" t="s">
@@ -7246,14 +8173,15 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <f>IFERROR(MATCH(A44,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="4" t="s">
         <v>124</v>
       </c>
     </row>
@@ -7810,14 +8738,15 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="A96" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <f>IFERROR(MATCH(A96,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="C96" s="3"/>
+      <c r="D96" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8137,14 +9066,15 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="A128" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="3">
         <f>IFERROR(MATCH(A128,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="C128" s="3"/>
+      <c r="D128" s="4" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8437,14 +9367,15 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="A156" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="3">
         <f>IFERROR(MATCH(A156,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="C156" s="3"/>
+      <c r="D156" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E156" t="s">
@@ -9094,14 +10025,15 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+      <c r="A220" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="3">
         <f>IFERROR(MATCH(A220,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="C220" s="3"/>
+      <c r="D220" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9325,14 +10257,15 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+      <c r="A241" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="3">
         <f>IFERROR(MATCH(A241,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="C241" s="3"/>
+      <c r="D241" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9571,7 +10504,7 @@
       <c r="D1048576" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B264">
+  <autoFilter ref="A1:B264" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="0"/>
@@ -9581,4 +10514,8802 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CFAD97-29A3-4195-AC66-A91842F24590}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L265"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K256" sqref="K256"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1">
+        <v>2015</v>
+      </c>
+      <c r="D1">
+        <v>2016</v>
+      </c>
+      <c r="E1">
+        <v>2017</v>
+      </c>
+      <c r="F1">
+        <v>2018</v>
+      </c>
+      <c r="H1" t="s">
+        <v>586</v>
+      </c>
+      <c r="I1" t="s">
+        <v>587</v>
+      </c>
+      <c r="J1" t="s">
+        <v>588</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2">
+        <v>75.724999999999994</v>
+      </c>
+      <c r="D2">
+        <v>75.867999999999995</v>
+      </c>
+      <c r="E2">
+        <v>76.010000000000005</v>
+      </c>
+      <c r="F2">
+        <v>76.152000000000001</v>
+      </c>
+      <c r="H2">
+        <f>IFERROR(MATCH(A2,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>IFERROR(MATCH(A2,'WDI values'!A:A,0),0)</f>
+        <v>2</v>
+      </c>
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2">IF(I2,INDEX('WDI values'!A:A,I2),"")</f>
+        <v>Aruba</v>
+      </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2">IF(I2,INDEX('WDI values'!D:D,I2),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3">
+        <v>63.377000000000002</v>
+      </c>
+      <c r="D3">
+        <v>63.762999999999998</v>
+      </c>
+      <c r="E3">
+        <v>64.13</v>
+      </c>
+      <c r="F3">
+        <v>64.486000000000004</v>
+      </c>
+      <c r="H3">
+        <f>IFERROR(MATCH(A3,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f>IFERROR(MATCH(A3,'WDI values'!A:A,0),0)</f>
+        <v>3</v>
+      </c>
+      <c r="J3" t="str" cm="1">
+        <f t="array" ref="J3">IF(I3,INDEX('WDI values'!A:A,I3),"")</f>
+        <v>Afghanistan</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4">
+        <v>59.398000000000003</v>
+      </c>
+      <c r="D4">
+        <v>59.924999999999997</v>
+      </c>
+      <c r="E4">
+        <v>60.378999999999998</v>
+      </c>
+      <c r="F4">
+        <v>60.781999999999996</v>
+      </c>
+      <c r="H4">
+        <f>IFERROR(MATCH(A4,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <f>IFERROR(MATCH(A4,'WDI values'!A:A,0),0)</f>
+        <v>4</v>
+      </c>
+      <c r="J4" t="str" cm="1">
+        <f t="array" ref="J4">IF(I4,INDEX('WDI values'!A:A,I4),"")</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5">
+        <v>78.025000000000006</v>
+      </c>
+      <c r="D5">
+        <v>78.194000000000003</v>
+      </c>
+      <c r="E5">
+        <v>78.332999999999998</v>
+      </c>
+      <c r="F5">
+        <v>78.457999999999998</v>
+      </c>
+      <c r="H5">
+        <f>IFERROR(MATCH(A5,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <f>IFERROR(MATCH(A5,'WDI values'!A:A,0),0)</f>
+        <v>5</v>
+      </c>
+      <c r="J5" t="str" cm="1">
+        <f t="array" ref="J5">IF(I5,INDEX('WDI values'!A:A,I5),"")</f>
+        <v>Albania</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H6">
+        <f>IFERROR(MATCH(A6,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>IFERROR(MATCH(A6,'WDI values'!A:A,0),0)</f>
+        <v>6</v>
+      </c>
+      <c r="J6" t="str" cm="1">
+        <f t="array" ref="J6">IF(I6,INDEX('WDI values'!A:A,I6),"")</f>
+        <v>Andorra</v>
+      </c>
+      <c r="K6" t="str" cm="1">
+        <f t="array" ref="K6">IF(I6,INDEX('WDI values'!D:D,I6),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7">
+        <v>71.249571410000001</v>
+      </c>
+      <c r="D7">
+        <v>71.436496849999997</v>
+      </c>
+      <c r="E7">
+        <v>71.622526350000001</v>
+      </c>
+      <c r="F7">
+        <v>71.806825160000002</v>
+      </c>
+      <c r="H7">
+        <f>IFERROR(MATCH(A7,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>IFERROR(MATCH(A7,'WDI values'!A:A,0),0)</f>
+        <v>7</v>
+      </c>
+      <c r="J7" t="str" cm="1">
+        <f t="array" ref="J7">IF(I7,INDEX('WDI values'!A:A,I7),"")</f>
+        <v>Arab World</v>
+      </c>
+      <c r="K7" t="str" cm="1">
+        <f t="array" ref="K7">IF(I7,INDEX('WDI values'!D:D,I7),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8">
+        <v>77.284999999999997</v>
+      </c>
+      <c r="D8">
+        <v>77.47</v>
+      </c>
+      <c r="E8">
+        <v>77.647000000000006</v>
+      </c>
+      <c r="F8">
+        <v>77.813999999999993</v>
+      </c>
+      <c r="H8">
+        <f>IFERROR(MATCH(A8,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>148</v>
+      </c>
+      <c r="I8">
+        <f>IFERROR(MATCH(A8,'WDI values'!A:A,0),0)</f>
+        <v>8</v>
+      </c>
+      <c r="J8" t="str" cm="1">
+        <f t="array" ref="J8">IF(I8,INDEX('WDI values'!A:A,I8),"")</f>
+        <v>United Arab Emirates</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9">
+        <v>76.067999999999998</v>
+      </c>
+      <c r="D9">
+        <v>76.221000000000004</v>
+      </c>
+      <c r="E9">
+        <v>76.372</v>
+      </c>
+      <c r="F9">
+        <v>76.52</v>
+      </c>
+      <c r="H9">
+        <f>IFERROR(MATCH(A9,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <f>IFERROR(MATCH(A9,'WDI values'!A:A,0),0)</f>
+        <v>9</v>
+      </c>
+      <c r="J9" t="str" cm="1">
+        <f t="array" ref="J9">IF(I9,INDEX('WDI values'!A:A,I9),"")</f>
+        <v>Argentina</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10">
+        <v>74.466999999999999</v>
+      </c>
+      <c r="D10">
+        <v>74.64</v>
+      </c>
+      <c r="E10">
+        <v>74.796999999999997</v>
+      </c>
+      <c r="F10">
+        <v>74.944999999999993</v>
+      </c>
+      <c r="H10">
+        <f>IFERROR(MATCH(A10,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <f>IFERROR(MATCH(A10,'WDI values'!A:A,0),0)</f>
+        <v>10</v>
+      </c>
+      <c r="J10" t="str" cm="1">
+        <f t="array" ref="J10">IF(I10,INDEX('WDI values'!A:A,I10),"")</f>
+        <v>Armenia</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H11">
+        <f>IFERROR(MATCH(A11,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>IFERROR(MATCH(A11,'WDI values'!A:A,0),0)</f>
+        <v>11</v>
+      </c>
+      <c r="J11" t="str" cm="1">
+        <f t="array" ref="J11">IF(I11,INDEX('WDI values'!A:A,I11),"")</f>
+        <v>American Samoa</v>
+      </c>
+      <c r="K11" t="str" cm="1">
+        <f t="array" ref="K11">IF(I11,INDEX('WDI values'!D:D,I11),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12">
+        <v>76.483000000000004</v>
+      </c>
+      <c r="D12">
+        <v>76.617000000000004</v>
+      </c>
+      <c r="E12">
+        <v>76.751999999999995</v>
+      </c>
+      <c r="F12">
+        <v>76.885000000000005</v>
+      </c>
+      <c r="H12">
+        <f>IFERROR(MATCH(A12,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>IFERROR(MATCH(A12,'WDI values'!A:A,0),0)</f>
+        <v>12</v>
+      </c>
+      <c r="J12" t="str" cm="1">
+        <f t="array" ref="J12">IF(I12,INDEX('WDI values'!A:A,I12),"")</f>
+        <v>Antigua and Barbuda</v>
+      </c>
+      <c r="K12" t="str" cm="1">
+        <f t="array" ref="K12">IF(I12,INDEX('WDI values'!D:D,I12),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13">
+        <v>82.4</v>
+      </c>
+      <c r="D13">
+        <v>82.448780490000004</v>
+      </c>
+      <c r="E13">
+        <v>82.5</v>
+      </c>
+      <c r="F13">
+        <v>82.748780490000001</v>
+      </c>
+      <c r="H13">
+        <f>IFERROR(MATCH(A13,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <f>IFERROR(MATCH(A13,'WDI values'!A:A,0),0)</f>
+        <v>13</v>
+      </c>
+      <c r="J13" t="str" cm="1">
+        <f t="array" ref="J13">IF(I13,INDEX('WDI values'!A:A,I13),"")</f>
+        <v>Australia</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14">
+        <v>81.190243899999999</v>
+      </c>
+      <c r="D14">
+        <v>81.64146341</v>
+      </c>
+      <c r="E14">
+        <v>81.643902440000005</v>
+      </c>
+      <c r="F14">
+        <v>81.692682930000004</v>
+      </c>
+      <c r="H14">
+        <f>IFERROR(MATCH(A14,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <f>IFERROR(MATCH(A14,'WDI values'!A:A,0),0)</f>
+        <v>14</v>
+      </c>
+      <c r="J14" t="str" cm="1">
+        <f t="array" ref="J14">IF(I14,INDEX('WDI values'!A:A,I14),"")</f>
+        <v>Austria</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15">
+        <v>72.266000000000005</v>
+      </c>
+      <c r="D15">
+        <v>72.492999999999995</v>
+      </c>
+      <c r="E15">
+        <v>72.692999999999998</v>
+      </c>
+      <c r="F15">
+        <v>72.864000000000004</v>
+      </c>
+      <c r="H15">
+        <f>IFERROR(MATCH(A15,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <f>IFERROR(MATCH(A15,'WDI values'!A:A,0),0)</f>
+        <v>15</v>
+      </c>
+      <c r="J15" t="str" cm="1">
+        <f t="array" ref="J15">IF(I15,INDEX('WDI values'!A:A,I15),"")</f>
+        <v>Azerbaijan</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16">
+        <v>60.122999999999998</v>
+      </c>
+      <c r="D16">
+        <v>60.527999999999999</v>
+      </c>
+      <c r="E16">
+        <v>60.898000000000003</v>
+      </c>
+      <c r="F16">
+        <v>61.247</v>
+      </c>
+      <c r="H16">
+        <f>IFERROR(MATCH(A16,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <f>IFERROR(MATCH(A16,'WDI values'!A:A,0),0)</f>
+        <v>16</v>
+      </c>
+      <c r="J16" t="str" cm="1">
+        <f t="array" ref="J16">IF(I16,INDEX('WDI values'!A:A,I16),"")</f>
+        <v>Burundi</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17">
+        <v>80.992682930000001</v>
+      </c>
+      <c r="D17">
+        <v>81.43902439</v>
+      </c>
+      <c r="E17">
+        <v>81.492682930000001</v>
+      </c>
+      <c r="F17">
+        <v>81.595121950000006</v>
+      </c>
+      <c r="H17">
+        <f>IFERROR(MATCH(A17,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <f>IFERROR(MATCH(A17,'WDI values'!A:A,0),0)</f>
+        <v>17</v>
+      </c>
+      <c r="J17" t="str" cm="1">
+        <f t="array" ref="J17">IF(I17,INDEX('WDI values'!A:A,I17),"")</f>
+        <v>Belgium</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" t="s">
+        <v>315</v>
+      </c>
+      <c r="C18">
+        <v>60.607999999999997</v>
+      </c>
+      <c r="D18">
+        <v>60.884999999999998</v>
+      </c>
+      <c r="E18">
+        <v>61.173999999999999</v>
+      </c>
+      <c r="F18">
+        <v>61.47</v>
+      </c>
+      <c r="H18">
+        <f>IFERROR(MATCH(A18,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <f>IFERROR(MATCH(A18,'WDI values'!A:A,0),0)</f>
+        <v>18</v>
+      </c>
+      <c r="J18" t="str" cm="1">
+        <f t="array" ref="J18">IF(I18,INDEX('WDI values'!A:A,I18),"")</f>
+        <v>Benin</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19">
+        <v>59.918999999999997</v>
+      </c>
+      <c r="D19">
+        <v>60.353999999999999</v>
+      </c>
+      <c r="E19">
+        <v>60.768000000000001</v>
+      </c>
+      <c r="F19">
+        <v>61.173999999999999</v>
+      </c>
+      <c r="H19">
+        <f>IFERROR(MATCH(A19,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <f>IFERROR(MATCH(A19,'WDI values'!A:A,0),0)</f>
+        <v>19</v>
+      </c>
+      <c r="J19" t="str" cm="1">
+        <f t="array" ref="J19">IF(I19,INDEX('WDI values'!A:A,I19),"")</f>
+        <v>Burkina Faso</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>317</v>
+      </c>
+      <c r="C20">
+        <v>71.513999999999996</v>
+      </c>
+      <c r="D20">
+        <v>71.784999999999997</v>
+      </c>
+      <c r="E20">
+        <v>72.052000000000007</v>
+      </c>
+      <c r="F20">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="H20">
+        <f>IFERROR(MATCH(A20,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>12</v>
+      </c>
+      <c r="I20">
+        <f>IFERROR(MATCH(A20,'WDI values'!A:A,0),0)</f>
+        <v>20</v>
+      </c>
+      <c r="J20" t="str" cm="1">
+        <f t="array" ref="J20">IF(I20,INDEX('WDI values'!A:A,I20),"")</f>
+        <v>Bangladesh</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21">
+        <v>74.614634150000001</v>
+      </c>
+      <c r="D21">
+        <v>74.812195119999998</v>
+      </c>
+      <c r="E21">
+        <v>74.814634150000003</v>
+      </c>
+      <c r="F21">
+        <v>74.963414630000003</v>
+      </c>
+      <c r="H21">
+        <f>IFERROR(MATCH(A21,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>22</v>
+      </c>
+      <c r="I21">
+        <f>IFERROR(MATCH(A21,'WDI values'!A:A,0),0)</f>
+        <v>21</v>
+      </c>
+      <c r="J21" t="str" cm="1">
+        <f t="array" ref="J21">IF(I21,INDEX('WDI values'!A:A,I21),"")</f>
+        <v>Bulgaria</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>319</v>
+      </c>
+      <c r="C22">
+        <v>76.762</v>
+      </c>
+      <c r="D22">
+        <v>76.899000000000001</v>
+      </c>
+      <c r="E22">
+        <v>77.031999999999996</v>
+      </c>
+      <c r="F22">
+        <v>77.162999999999997</v>
+      </c>
+      <c r="H22">
+        <f>IFERROR(MATCH(A22,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <f>IFERROR(MATCH(A22,'WDI values'!A:A,0),0)</f>
+        <v>22</v>
+      </c>
+      <c r="J22" t="str" cm="1">
+        <f t="array" ref="J22">IF(I22,INDEX('WDI values'!A:A,I22),"")</f>
+        <v>Bahrain</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" t="s">
+        <v>321</v>
+      </c>
+      <c r="C23">
+        <v>73.087999999999994</v>
+      </c>
+      <c r="D23">
+        <v>73.328999999999994</v>
+      </c>
+      <c r="E23">
+        <v>73.554000000000002</v>
+      </c>
+      <c r="F23">
+        <v>73.751999999999995</v>
+      </c>
+      <c r="H23">
+        <f>IFERROR(MATCH(A23,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>IFERROR(MATCH(A23,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" t="str" cm="1">
+        <f t="array" ref="J23">IF(I23,INDEX('WDI values'!A:A,I23),"")</f>
+        <v/>
+      </c>
+      <c r="K23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C24">
+        <v>76.864999999999995</v>
+      </c>
+      <c r="D24">
+        <v>76.998000000000005</v>
+      </c>
+      <c r="E24">
+        <v>77.128</v>
+      </c>
+      <c r="F24">
+        <v>77.262</v>
+      </c>
+      <c r="H24">
+        <f>IFERROR(MATCH(A24,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>19</v>
+      </c>
+      <c r="I24">
+        <f>IFERROR(MATCH(A24,'WDI values'!A:A,0),0)</f>
+        <v>24</v>
+      </c>
+      <c r="J24" t="str" cm="1">
+        <f t="array" ref="J24">IF(I24,INDEX('WDI values'!A:A,I24),"")</f>
+        <v>Bosnia and Herzegovina</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25">
+        <v>73.624390239999997</v>
+      </c>
+      <c r="D25">
+        <v>73.826829270000005</v>
+      </c>
+      <c r="E25">
+        <v>74.129268289999999</v>
+      </c>
+      <c r="F25">
+        <v>74.17560976</v>
+      </c>
+      <c r="H25">
+        <f>IFERROR(MATCH(A25,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <f>IFERROR(MATCH(A25,'WDI values'!A:A,0),0)</f>
+        <v>25</v>
+      </c>
+      <c r="J25" t="str" cm="1">
+        <f t="array" ref="J25">IF(I25,INDEX('WDI values'!A:A,I25),"")</f>
+        <v>Belarus</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>324</v>
+      </c>
+      <c r="C26">
+        <v>74.034000000000006</v>
+      </c>
+      <c r="D26">
+        <v>74.218999999999994</v>
+      </c>
+      <c r="E26">
+        <v>74.364999999999995</v>
+      </c>
+      <c r="F26">
+        <v>74.495999999999995</v>
+      </c>
+      <c r="H26">
+        <f>IFERROR(MATCH(A26,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>15</v>
+      </c>
+      <c r="I26">
+        <f>IFERROR(MATCH(A26,'WDI values'!A:A,0),0)</f>
+        <v>26</v>
+      </c>
+      <c r="J26" t="str" cm="1">
+        <f t="array" ref="J26">IF(I26,INDEX('WDI values'!A:A,I26),"")</f>
+        <v>Belize</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27">
+        <v>81.012195120000001</v>
+      </c>
+      <c r="D27">
+        <v>81.227073169999997</v>
+      </c>
+      <c r="E27">
+        <v>81.441951220000007</v>
+      </c>
+      <c r="F27">
+        <v>81.65170732</v>
+      </c>
+      <c r="H27">
+        <f>IFERROR(MATCH(A27,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>IFERROR(MATCH(A27,'WDI values'!A:A,0),0)</f>
+        <v>27</v>
+      </c>
+      <c r="J27" t="str" cm="1">
+        <f t="array" ref="J27">IF(I27,INDEX('WDI values'!A:A,I27),"")</f>
+        <v>Bermuda</v>
+      </c>
+      <c r="K27" t="str" cm="1">
+        <f t="array" ref="K27">IF(I27,INDEX('WDI values'!D:D,I27),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>326</v>
+      </c>
+      <c r="C28">
+        <v>70.277000000000001</v>
+      </c>
+      <c r="D28">
+        <v>70.626000000000005</v>
+      </c>
+      <c r="E28">
+        <v>70.944999999999993</v>
+      </c>
+      <c r="F28">
+        <v>71.239000000000004</v>
+      </c>
+      <c r="H28">
+        <f>IFERROR(MATCH(A28,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <f>IFERROR(MATCH(A28,'WDI values'!A:A,0),0)</f>
+        <v>28</v>
+      </c>
+      <c r="J28" t="str" cm="1">
+        <f t="array" ref="J28">IF(I28,INDEX('WDI values'!A:A,I28),"")</f>
+        <v>Bolivia</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C29">
+        <v>74.994</v>
+      </c>
+      <c r="D29">
+        <v>75.23</v>
+      </c>
+      <c r="E29">
+        <v>75.456000000000003</v>
+      </c>
+      <c r="F29">
+        <v>75.671999999999997</v>
+      </c>
+      <c r="H29">
+        <f>IFERROR(MATCH(A29,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>21</v>
+      </c>
+      <c r="I29">
+        <f>IFERROR(MATCH(A29,'WDI values'!A:A,0),0)</f>
+        <v>29</v>
+      </c>
+      <c r="J29" t="str" cm="1">
+        <f t="array" ref="J29">IF(I29,INDEX('WDI values'!A:A,I29),"")</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" t="s">
+        <v>328</v>
+      </c>
+      <c r="C30">
+        <v>78.801000000000002</v>
+      </c>
+      <c r="D30">
+        <v>78.888000000000005</v>
+      </c>
+      <c r="E30">
+        <v>78.980999999999995</v>
+      </c>
+      <c r="F30">
+        <v>79.081000000000003</v>
+      </c>
+      <c r="H30">
+        <f>IFERROR(MATCH(A30,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>IFERROR(MATCH(A30,'WDI values'!A:A,0),0)</f>
+        <v>30</v>
+      </c>
+      <c r="J30" t="str" cm="1">
+        <f t="array" ref="J30">IF(I30,INDEX('WDI values'!A:A,I30),"")</f>
+        <v>Barbados</v>
+      </c>
+      <c r="K30" t="str" cm="1">
+        <f t="array" ref="K30">IF(I30,INDEX('WDI values'!D:D,I30),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>329</v>
+      </c>
+      <c r="B31" t="s">
+        <v>330</v>
+      </c>
+      <c r="C31">
+        <v>75.317999999999998</v>
+      </c>
+      <c r="D31">
+        <v>75.45</v>
+      </c>
+      <c r="E31">
+        <v>75.584999999999994</v>
+      </c>
+      <c r="F31">
+        <v>75.721999999999994</v>
+      </c>
+      <c r="H31">
+        <f>IFERROR(MATCH(A31,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>IFERROR(MATCH(A31,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" t="str" cm="1">
+        <f t="array" ref="J31">IF(I31,INDEX('WDI values'!A:A,I31),"")</f>
+        <v/>
+      </c>
+      <c r="K31" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
+        <v>331</v>
+      </c>
+      <c r="C32">
+        <v>70.418999999999997</v>
+      </c>
+      <c r="D32">
+        <v>70.781000000000006</v>
+      </c>
+      <c r="E32">
+        <v>71.129000000000005</v>
+      </c>
+      <c r="F32">
+        <v>71.459999999999994</v>
+      </c>
+      <c r="H32">
+        <f>IFERROR(MATCH(A32,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>17</v>
+      </c>
+      <c r="I32">
+        <f>IFERROR(MATCH(A32,'WDI values'!A:A,0),0)</f>
+        <v>32</v>
+      </c>
+      <c r="J32" t="str" cm="1">
+        <f t="array" ref="J32">IF(I32,INDEX('WDI values'!A:A,I32),"")</f>
+        <v>Bhutan</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" t="s">
+        <v>332</v>
+      </c>
+      <c r="C33">
+        <v>67.337999999999994</v>
+      </c>
+      <c r="D33">
+        <v>68.177999999999997</v>
+      </c>
+      <c r="E33">
+        <v>68.811999999999998</v>
+      </c>
+      <c r="F33">
+        <v>69.275000000000006</v>
+      </c>
+      <c r="H33">
+        <f>IFERROR(MATCH(A33,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <f>IFERROR(MATCH(A33,'WDI values'!A:A,0),0)</f>
+        <v>33</v>
+      </c>
+      <c r="J33" t="str" cm="1">
+        <f t="array" ref="J33">IF(I33,INDEX('WDI values'!A:A,I33),"")</f>
+        <v>Botswana</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" t="s">
+        <v>333</v>
+      </c>
+      <c r="C34">
+        <v>50.881</v>
+      </c>
+      <c r="D34">
+        <v>51.593000000000004</v>
+      </c>
+      <c r="E34">
+        <v>52.24</v>
+      </c>
+      <c r="F34">
+        <v>52.805</v>
+      </c>
+      <c r="H34">
+        <f>IFERROR(MATCH(A34,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>28</v>
+      </c>
+      <c r="I34">
+        <f>IFERROR(MATCH(A34,'WDI values'!A:A,0),0)</f>
+        <v>34</v>
+      </c>
+      <c r="J34" t="str" cm="1">
+        <f t="array" ref="J34">IF(I34,INDEX('WDI values'!A:A,I34),"")</f>
+        <v>Central African Republic</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>334</v>
+      </c>
+      <c r="C35">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="D35">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="E35">
+        <v>81.948780490000004</v>
+      </c>
+      <c r="F35">
+        <v>81.948780490000004</v>
+      </c>
+      <c r="H35">
+        <f>IFERROR(MATCH(A35,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>27</v>
+      </c>
+      <c r="I35">
+        <f>IFERROR(MATCH(A35,'WDI values'!A:A,0),0)</f>
+        <v>35</v>
+      </c>
+      <c r="J35" t="str" cm="1">
+        <f t="array" ref="J35">IF(I35,INDEX('WDI values'!A:A,I35),"")</f>
+        <v>Canada</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C36">
+        <v>76.571877760000007</v>
+      </c>
+      <c r="D36">
+        <v>76.969811419999999</v>
+      </c>
+      <c r="E36">
+        <v>76.947465350000002</v>
+      </c>
+      <c r="F36">
+        <v>76.976845170000004</v>
+      </c>
+      <c r="H36">
+        <f>IFERROR(MATCH(A36,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>IFERROR(MATCH(A36,'WDI values'!A:A,0),0)</f>
+        <v>36</v>
+      </c>
+      <c r="J36" t="str" cm="1">
+        <f t="array" ref="J36">IF(I36,INDEX('WDI values'!A:A,I36),"")</f>
+        <v>Central Europe and the Baltics</v>
+      </c>
+      <c r="K36" t="str" cm="1">
+        <f t="array" ref="K36">IF(I36,INDEX('WDI values'!D:D,I36),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C37">
+        <v>82.897560979999994</v>
+      </c>
+      <c r="D37">
+        <v>83.602439020000006</v>
+      </c>
+      <c r="E37">
+        <v>83.551219509999996</v>
+      </c>
+      <c r="F37">
+        <v>83.753658540000004</v>
+      </c>
+      <c r="H37">
+        <f>IFERROR(MATCH(A37,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>135</v>
+      </c>
+      <c r="I37">
+        <f>IFERROR(MATCH(A37,'WDI values'!A:A,0),0)</f>
+        <v>37</v>
+      </c>
+      <c r="J37" t="str" cm="1">
+        <f t="array" ref="J37">IF(I37,INDEX('WDI values'!A:A,I37),"")</f>
+        <v>Switzerland</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C38">
+        <v>82.429000000000002</v>
+      </c>
+      <c r="D38">
+        <v>82.6</v>
+      </c>
+      <c r="E38">
+        <v>82.766000000000005</v>
+      </c>
+      <c r="F38">
+        <v>82.927999999999997</v>
+      </c>
+      <c r="H38">
+        <f>IFERROR(MATCH(A38,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f>IFERROR(MATCH(A38,'WDI values'!A:A,0),0)</f>
+        <v>38</v>
+      </c>
+      <c r="J38" t="str" cm="1">
+        <f t="array" ref="J38">IF(I38,INDEX('WDI values'!A:A,I38),"")</f>
+        <v>Channel Islands</v>
+      </c>
+      <c r="K38" t="str" cm="1">
+        <f t="array" ref="K38">IF(I38,INDEX('WDI values'!D:D,I38),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>338</v>
+      </c>
+      <c r="C39">
+        <v>79.646000000000001</v>
+      </c>
+      <c r="D39">
+        <v>79.778999999999996</v>
+      </c>
+      <c r="E39">
+        <v>79.909000000000006</v>
+      </c>
+      <c r="F39">
+        <v>80.042000000000002</v>
+      </c>
+      <c r="H39">
+        <f>IFERROR(MATCH(A39,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>30</v>
+      </c>
+      <c r="I39">
+        <f>IFERROR(MATCH(A39,'WDI values'!A:A,0),0)</f>
+        <v>39</v>
+      </c>
+      <c r="J39" t="str" cm="1">
+        <f t="array" ref="J39">IF(I39,INDEX('WDI values'!A:A,I39),"")</f>
+        <v>Chile</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
+        <v>339</v>
+      </c>
+      <c r="C40">
+        <v>75.927999999999997</v>
+      </c>
+      <c r="D40">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="E40">
+        <v>76.47</v>
+      </c>
+      <c r="F40">
+        <v>76.703999999999994</v>
+      </c>
+      <c r="H40">
+        <f>IFERROR(MATCH(A40,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>31</v>
+      </c>
+      <c r="I40">
+        <f>IFERROR(MATCH(A40,'WDI values'!A:A,0),0)</f>
+        <v>40</v>
+      </c>
+      <c r="J40" t="str" cm="1">
+        <f t="array" ref="J40">IF(I40,INDEX('WDI values'!A:A,I40),"")</f>
+        <v>China</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>340</v>
+      </c>
+      <c r="B41" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41">
+        <v>56.064999999999998</v>
+      </c>
+      <c r="D41">
+        <v>56.567</v>
+      </c>
+      <c r="E41">
+        <v>57.017000000000003</v>
+      </c>
+      <c r="F41">
+        <v>57.421999999999997</v>
+      </c>
+      <c r="H41">
+        <f>IFERROR(MATCH(A41,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f>IFERROR(MATCH(A41,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" t="str" cm="1">
+        <f t="array" ref="J41">IF(I41,INDEX('WDI values'!A:A,I41),"")</f>
+        <v/>
+      </c>
+      <c r="K41" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>342</v>
+      </c>
+      <c r="C42">
+        <v>57.582999999999998</v>
+      </c>
+      <c r="D42">
+        <v>58.063000000000002</v>
+      </c>
+      <c r="E42">
+        <v>58.511000000000003</v>
+      </c>
+      <c r="F42">
+        <v>58.920999999999999</v>
+      </c>
+      <c r="H42">
+        <f>IFERROR(MATCH(A42,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>26</v>
+      </c>
+      <c r="I42">
+        <f>IFERROR(MATCH(A42,'WDI values'!A:A,0),0)</f>
+        <v>42</v>
+      </c>
+      <c r="J42" t="str" cm="1">
+        <f t="array" ref="J42">IF(I42,INDEX('WDI values'!A:A,I42),"")</f>
+        <v>Cameroon</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C43" s="3">
+        <v>59.253999999999998</v>
+      </c>
+      <c r="D43" s="3">
+        <v>59.655000000000001</v>
+      </c>
+      <c r="E43" s="3">
+        <v>60.026000000000003</v>
+      </c>
+      <c r="F43" s="3">
+        <v>60.368000000000002</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
+        <f>IFERROR(MATCH(A43,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <f>IFERROR(MATCH(A43,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="str" cm="1">
+        <f t="array" ref="J43">IF(I43,INDEX('WDI values'!A:A,I43),"")</f>
+        <v/>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C44" s="3">
+        <v>63.097000000000001</v>
+      </c>
+      <c r="D44" s="3">
+        <v>63.555999999999997</v>
+      </c>
+      <c r="E44" s="3">
+        <v>63.954000000000001</v>
+      </c>
+      <c r="F44" s="3">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3">
+        <f>IFERROR(MATCH(A44,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <f>IFERROR(MATCH(A44,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="3" t="str" cm="1">
+        <f t="array" ref="J44">IF(I44,INDEX('WDI values'!A:A,I44),"")</f>
+        <v/>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>347</v>
+      </c>
+      <c r="C45">
+        <v>76.531000000000006</v>
+      </c>
+      <c r="D45">
+        <v>76.731999999999999</v>
+      </c>
+      <c r="E45">
+        <v>76.924999999999997</v>
+      </c>
+      <c r="F45">
+        <v>77.108999999999995</v>
+      </c>
+      <c r="H45">
+        <f>IFERROR(MATCH(A45,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>32</v>
+      </c>
+      <c r="I45">
+        <f>IFERROR(MATCH(A45,'WDI values'!A:A,0),0)</f>
+        <v>45</v>
+      </c>
+      <c r="J45" t="str" cm="1">
+        <f t="array" ref="J45">IF(I45,INDEX('WDI values'!A:A,I45),"")</f>
+        <v>Colombia</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" t="s">
+        <v>348</v>
+      </c>
+      <c r="C46">
+        <v>63.470999999999997</v>
+      </c>
+      <c r="D46">
+        <v>63.7</v>
+      </c>
+      <c r="E46">
+        <v>63.911999999999999</v>
+      </c>
+      <c r="F46">
+        <v>64.117999999999995</v>
+      </c>
+      <c r="H46">
+        <f>IFERROR(MATCH(A46,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f>IFERROR(MATCH(A46,'WDI values'!A:A,0),0)</f>
+        <v>46</v>
+      </c>
+      <c r="J46" t="str" cm="1">
+        <f t="array" ref="J46">IF(I46,INDEX('WDI values'!A:A,I46),"")</f>
+        <v>Comoros</v>
+      </c>
+      <c r="K46" t="str" cm="1">
+        <f t="array" ref="K46">IF(I46,INDEX('WDI values'!D:D,I46),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" t="s">
+        <v>349</v>
+      </c>
+      <c r="C47">
+        <v>72.117000000000004</v>
+      </c>
+      <c r="D47">
+        <v>72.346999999999994</v>
+      </c>
+      <c r="E47">
+        <v>72.569999999999993</v>
+      </c>
+      <c r="F47">
+        <v>72.781999999999996</v>
+      </c>
+      <c r="H47">
+        <f>IFERROR(MATCH(A47,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f>IFERROR(MATCH(A47,'WDI values'!A:A,0),0)</f>
+        <v>47</v>
+      </c>
+      <c r="J47" t="str" cm="1">
+        <f t="array" ref="J47">IF(I47,INDEX('WDI values'!A:A,I47),"")</f>
+        <v>Cabo Verde</v>
+      </c>
+      <c r="K47" t="str" cm="1">
+        <f t="array" ref="K47">IF(I47,INDEX('WDI values'!D:D,I47),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>350</v>
+      </c>
+      <c r="C48">
+        <v>79.564999999999998</v>
+      </c>
+      <c r="D48">
+        <v>79.738</v>
+      </c>
+      <c r="E48">
+        <v>79.914000000000001</v>
+      </c>
+      <c r="F48">
+        <v>80.094999999999999</v>
+      </c>
+      <c r="H48">
+        <f>IFERROR(MATCH(A48,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>35</v>
+      </c>
+      <c r="I48">
+        <f>IFERROR(MATCH(A48,'WDI values'!A:A,0),0)</f>
+        <v>48</v>
+      </c>
+      <c r="J48" t="str" cm="1">
+        <f t="array" ref="J48">IF(I48,INDEX('WDI values'!A:A,I48),"")</f>
+        <v>Costa Rica</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" t="s">
+        <v>351</v>
+      </c>
+      <c r="C49">
+        <v>73.273015979999997</v>
+      </c>
+      <c r="D49">
+        <v>73.395956389999995</v>
+      </c>
+      <c r="E49">
+        <v>73.517492489999995</v>
+      </c>
+      <c r="F49">
+        <v>73.63710777</v>
+      </c>
+      <c r="H49">
+        <f>IFERROR(MATCH(A49,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f>IFERROR(MATCH(A49,'WDI values'!A:A,0),0)</f>
+        <v>49</v>
+      </c>
+      <c r="J49" t="str" cm="1">
+        <f t="array" ref="J49">IF(I49,INDEX('WDI values'!A:A,I49),"")</f>
+        <v>Caribbean small states</v>
+      </c>
+      <c r="K49" t="str" cm="1">
+        <f t="array" ref="K49">IF(I49,INDEX('WDI values'!D:D,I49),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" t="s">
+        <v>352</v>
+      </c>
+      <c r="C50">
+        <v>78.561000000000007</v>
+      </c>
+      <c r="D50">
+        <v>78.606999999999999</v>
+      </c>
+      <c r="E50">
+        <v>78.662000000000006</v>
+      </c>
+      <c r="F50">
+        <v>78.725999999999999</v>
+      </c>
+      <c r="H50">
+        <f>IFERROR(MATCH(A50,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f>IFERROR(MATCH(A50,'WDI values'!A:A,0),0)</f>
+        <v>50</v>
+      </c>
+      <c r="J50" t="str" cm="1">
+        <f t="array" ref="J50">IF(I50,INDEX('WDI values'!A:A,I50),"")</f>
+        <v>Cuba</v>
+      </c>
+      <c r="K50" t="str" cm="1">
+        <f t="array" ref="K50">IF(I50,INDEX('WDI values'!D:D,I50),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>353</v>
+      </c>
+      <c r="B51" t="s">
+        <v>354</v>
+      </c>
+      <c r="C51">
+        <v>78.075609760000006</v>
+      </c>
+      <c r="D51">
+        <v>77.719512199999997</v>
+      </c>
+      <c r="E51">
+        <v>78.017073170000003</v>
+      </c>
+      <c r="H51">
+        <f>IFERROR(MATCH(A51,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f>IFERROR(MATCH(A51,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J51" t="str" cm="1">
+        <f t="array" ref="J51">IF(I51,INDEX('WDI values'!A:A,I51),"")</f>
+        <v/>
+      </c>
+      <c r="K51" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" t="s">
+        <v>355</v>
+      </c>
+      <c r="H52">
+        <f>IFERROR(MATCH(A52,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f>IFERROR(MATCH(A52,'WDI values'!A:A,0),0)</f>
+        <v>52</v>
+      </c>
+      <c r="J52" t="str" cm="1">
+        <f t="array" ref="J52">IF(I52,INDEX('WDI values'!A:A,I52),"")</f>
+        <v>Cayman Islands</v>
+      </c>
+      <c r="K52" t="str" cm="1">
+        <f t="array" ref="K52">IF(I52,INDEX('WDI values'!D:D,I52),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
+        <v>356</v>
+      </c>
+      <c r="C53">
+        <v>80.349999999999994</v>
+      </c>
+      <c r="D53">
+        <v>80.513000000000005</v>
+      </c>
+      <c r="E53">
+        <v>80.671999999999997</v>
+      </c>
+      <c r="F53">
+        <v>80.828000000000003</v>
+      </c>
+      <c r="H53">
+        <f>IFERROR(MATCH(A53,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>37</v>
+      </c>
+      <c r="I53">
+        <f>IFERROR(MATCH(A53,'WDI values'!A:A,0),0)</f>
+        <v>53</v>
+      </c>
+      <c r="J53" t="str" cm="1">
+        <f t="array" ref="J53">IF(I53,INDEX('WDI values'!A:A,I53),"")</f>
+        <v>Cyprus</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>357</v>
+      </c>
+      <c r="C54">
+        <v>78.578048780000003</v>
+      </c>
+      <c r="D54">
+        <v>79.026829269999993</v>
+      </c>
+      <c r="E54">
+        <v>78.978048779999995</v>
+      </c>
+      <c r="F54">
+        <v>79.029268290000005</v>
+      </c>
+      <c r="H54">
+        <f>IFERROR(MATCH(A54,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>38</v>
+      </c>
+      <c r="I54">
+        <f>IFERROR(MATCH(A54,'WDI values'!A:A,0),0)</f>
+        <v>54</v>
+      </c>
+      <c r="J54" t="str" cm="1">
+        <f t="array" ref="J54">IF(I54,INDEX('WDI values'!A:A,I54),"")</f>
+        <v>Czech Republic</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>358</v>
+      </c>
+      <c r="C55">
+        <v>80.64146341</v>
+      </c>
+      <c r="D55">
+        <v>80.990243899999996</v>
+      </c>
+      <c r="E55">
+        <v>80.992682930000001</v>
+      </c>
+      <c r="F55">
+        <v>80.892682930000007</v>
+      </c>
+      <c r="H55">
+        <f>IFERROR(MATCH(A55,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>50</v>
+      </c>
+      <c r="I55">
+        <f>IFERROR(MATCH(A55,'WDI values'!A:A,0),0)</f>
+        <v>55</v>
+      </c>
+      <c r="J55" t="str" cm="1">
+        <f t="array" ref="J55">IF(I55,INDEX('WDI values'!A:A,I55),"")</f>
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" t="s">
+        <v>359</v>
+      </c>
+      <c r="C56">
+        <v>64.135999999999996</v>
+      </c>
+      <c r="D56">
+        <v>65.063999999999993</v>
+      </c>
+      <c r="E56">
+        <v>65.893000000000001</v>
+      </c>
+      <c r="F56">
+        <v>66.581999999999994</v>
+      </c>
+      <c r="H56">
+        <f>IFERROR(MATCH(A56,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f>IFERROR(MATCH(A56,'WDI values'!A:A,0),0)</f>
+        <v>56</v>
+      </c>
+      <c r="J56" t="str" cm="1">
+        <f t="array" ref="J56">IF(I56,INDEX('WDI values'!A:A,I56),"")</f>
+        <v>Djibouti</v>
+      </c>
+      <c r="K56" t="str" cm="1">
+        <f t="array" ref="K56">IF(I56,INDEX('WDI values'!D:D,I56),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" t="s">
+        <v>360</v>
+      </c>
+      <c r="H57">
+        <f>IFERROR(MATCH(A57,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f>IFERROR(MATCH(A57,'WDI values'!A:A,0),0)</f>
+        <v>57</v>
+      </c>
+      <c r="J57" t="str" cm="1">
+        <f t="array" ref="J57">IF(I57,INDEX('WDI values'!A:A,I57),"")</f>
+        <v>Dominica</v>
+      </c>
+      <c r="K57" t="str" cm="1">
+        <f t="array" ref="K57">IF(I57,INDEX('WDI values'!D:D,I57),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>361</v>
+      </c>
+      <c r="C58">
+        <v>80.70243902</v>
+      </c>
+      <c r="D58">
+        <v>80.853658539999998</v>
+      </c>
+      <c r="E58">
+        <v>81.102439020000006</v>
+      </c>
+      <c r="F58">
+        <v>80.953658540000006</v>
+      </c>
+      <c r="H58">
+        <f>IFERROR(MATCH(A58,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>39</v>
+      </c>
+      <c r="I58">
+        <f>IFERROR(MATCH(A58,'WDI values'!A:A,0),0)</f>
+        <v>58</v>
+      </c>
+      <c r="J58" t="str" cm="1">
+        <f t="array" ref="J58">IF(I58,INDEX('WDI values'!A:A,I58),"")</f>
+        <v>Denmark</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" t="s">
+        <v>362</v>
+      </c>
+      <c r="C59">
+        <v>73.241</v>
+      </c>
+      <c r="D59">
+        <v>73.471000000000004</v>
+      </c>
+      <c r="E59">
+        <v>73.688999999999993</v>
+      </c>
+      <c r="F59">
+        <v>73.891999999999996</v>
+      </c>
+      <c r="H59">
+        <f>IFERROR(MATCH(A59,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>40</v>
+      </c>
+      <c r="I59">
+        <f>IFERROR(MATCH(A59,'WDI values'!A:A,0),0)</f>
+        <v>59</v>
+      </c>
+      <c r="J59" t="str" cm="1">
+        <f t="array" ref="J59">IF(I59,INDEX('WDI values'!A:A,I59),"")</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" t="s">
+        <v>363</v>
+      </c>
+      <c r="C60">
+        <v>76.09</v>
+      </c>
+      <c r="D60">
+        <v>76.298000000000002</v>
+      </c>
+      <c r="E60">
+        <v>76.498999999999995</v>
+      </c>
+      <c r="F60">
+        <v>76.692999999999998</v>
+      </c>
+      <c r="H60">
+        <f>IFERROR(MATCH(A60,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <f>IFERROR(MATCH(A60,'WDI values'!A:A,0),0)</f>
+        <v>60</v>
+      </c>
+      <c r="J60" t="str" cm="1">
+        <f t="array" ref="J60">IF(I60,INDEX('WDI values'!A:A,I60),"")</f>
+        <v>Algeria</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" t="s">
+        <v>364</v>
+      </c>
+      <c r="C61">
+        <v>74.496227619999999</v>
+      </c>
+      <c r="D61">
+        <v>74.755614179999995</v>
+      </c>
+      <c r="E61">
+        <v>74.994951599999993</v>
+      </c>
+      <c r="F61">
+        <v>75.210512109999996</v>
+      </c>
+      <c r="H61">
+        <f>IFERROR(MATCH(A61,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f>IFERROR(MATCH(A61,'WDI values'!A:A,0),0)</f>
+        <v>61</v>
+      </c>
+      <c r="J61" t="str" cm="1">
+        <f t="array" ref="J61">IF(I61,INDEX('WDI values'!A:A,I61),"")</f>
+        <v>East Asia &amp; Pacific (excluding high income)</v>
+      </c>
+      <c r="K61" t="str" cm="1">
+        <f t="array" ref="K61">IF(I61,INDEX('WDI values'!D:D,I61),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" t="s">
+        <v>365</v>
+      </c>
+      <c r="C62">
+        <v>69.748506149999997</v>
+      </c>
+      <c r="D62">
+        <v>70.011223389999998</v>
+      </c>
+      <c r="E62">
+        <v>70.254204479999999</v>
+      </c>
+      <c r="F62">
+        <v>70.483190680000007</v>
+      </c>
+      <c r="H62">
+        <f>IFERROR(MATCH(A62,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f>IFERROR(MATCH(A62,'WDI values'!A:A,0),0)</f>
+        <v>62</v>
+      </c>
+      <c r="J62" t="str" cm="1">
+        <f t="array" ref="J62">IF(I62,INDEX('WDI values'!A:A,I62),"")</f>
+        <v>Early-demographic dividend</v>
+      </c>
+      <c r="K62" t="str" cm="1">
+        <f t="array" ref="K62">IF(I62,INDEX('WDI values'!D:D,I62),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" t="s">
+        <v>366</v>
+      </c>
+      <c r="C63">
+        <v>75.392556880000001</v>
+      </c>
+      <c r="D63">
+        <v>75.63554087</v>
+      </c>
+      <c r="E63">
+        <v>75.865953910000002</v>
+      </c>
+      <c r="F63">
+        <v>76.068336430000002</v>
+      </c>
+      <c r="H63">
+        <f>IFERROR(MATCH(A63,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f>IFERROR(MATCH(A63,'WDI values'!A:A,0),0)</f>
+        <v>63</v>
+      </c>
+      <c r="J63" t="str" cm="1">
+        <f t="array" ref="J63">IF(I63,INDEX('WDI values'!A:A,I63),"")</f>
+        <v>East Asia &amp; Pacific</v>
+      </c>
+      <c r="K63" t="str" cm="1">
+        <f t="array" ref="K63">IF(I63,INDEX('WDI values'!D:D,I63),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" t="s">
+        <v>367</v>
+      </c>
+      <c r="C64">
+        <v>72.59582795</v>
+      </c>
+      <c r="D64">
+        <v>72.948819459999996</v>
+      </c>
+      <c r="E64">
+        <v>73.412709480000004</v>
+      </c>
+      <c r="F64">
+        <v>73.590781530000001</v>
+      </c>
+      <c r="H64">
+        <f>IFERROR(MATCH(A64,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f>IFERROR(MATCH(A64,'WDI values'!A:A,0),0)</f>
+        <v>64</v>
+      </c>
+      <c r="J64" t="str" cm="1">
+        <f t="array" ref="J64">IF(I64,INDEX('WDI values'!A:A,I64),"")</f>
+        <v>Europe &amp; Central Asia (excluding high income)</v>
+      </c>
+      <c r="K64" t="str" cm="1">
+        <f t="array" ref="K64">IF(I64,INDEX('WDI values'!D:D,I64),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" t="s">
+        <v>368</v>
+      </c>
+      <c r="C65">
+        <v>77.240962449999998</v>
+      </c>
+      <c r="D65">
+        <v>77.593200499999995</v>
+      </c>
+      <c r="E65">
+        <v>77.785425200000006</v>
+      </c>
+      <c r="F65">
+        <v>77.908606689999999</v>
+      </c>
+      <c r="H65">
+        <f>IFERROR(MATCH(A65,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f>IFERROR(MATCH(A65,'WDI values'!A:A,0),0)</f>
+        <v>65</v>
+      </c>
+      <c r="J65" t="str" cm="1">
+        <f t="array" ref="J65">IF(I65,INDEX('WDI values'!A:A,I65),"")</f>
+        <v>Europe &amp; Central Asia</v>
+      </c>
+      <c r="K65" t="str" cm="1">
+        <f t="array" ref="K65">IF(I65,INDEX('WDI values'!D:D,I65),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" t="s">
+        <v>369</v>
+      </c>
+      <c r="C66">
+        <v>76.143000000000001</v>
+      </c>
+      <c r="D66">
+        <v>76.364999999999995</v>
+      </c>
+      <c r="E66">
+        <v>76.584000000000003</v>
+      </c>
+      <c r="F66">
+        <v>76.8</v>
+      </c>
+      <c r="H66">
+        <f>IFERROR(MATCH(A66,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>41</v>
+      </c>
+      <c r="I66">
+        <f>IFERROR(MATCH(A66,'WDI values'!A:A,0),0)</f>
+        <v>66</v>
+      </c>
+      <c r="J66" t="str" cm="1">
+        <f t="array" ref="J66">IF(I66,INDEX('WDI values'!A:A,I66),"")</f>
+        <v>Ecuador</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C67" s="3">
+        <v>71.302000000000007</v>
+      </c>
+      <c r="D67" s="3">
+        <v>71.481999999999999</v>
+      </c>
+      <c r="E67" s="3">
+        <v>71.656000000000006</v>
+      </c>
+      <c r="F67" s="3">
+        <v>71.825000000000003</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3">
+        <f>IFERROR(MATCH(A67,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="3">
+        <f>IFERROR(MATCH(A67,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="3" t="str" cm="1">
+        <f t="array" ref="J67">IF(I67,INDEX('WDI values'!A:A,I67),"")</f>
+        <v/>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" t="s">
+        <v>372</v>
+      </c>
+      <c r="C68">
+        <v>81.569229109999995</v>
+      </c>
+      <c r="D68">
+        <v>81.954545330000002</v>
+      </c>
+      <c r="E68">
+        <v>81.932215229999997</v>
+      </c>
+      <c r="F68">
+        <v>82.059617279999998</v>
+      </c>
+      <c r="H68">
+        <f>IFERROR(MATCH(A68,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f>IFERROR(MATCH(A68,'WDI values'!A:A,0),0)</f>
+        <v>68</v>
+      </c>
+      <c r="J68" t="str" cm="1">
+        <f t="array" ref="J68">IF(I68,INDEX('WDI values'!A:A,I68),"")</f>
+        <v>Euro area</v>
+      </c>
+      <c r="K68" t="str" cm="1">
+        <f t="array" ref="K68">IF(I68,INDEX('WDI values'!D:D,I68),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>196</v>
+      </c>
+      <c r="B69" t="s">
+        <v>373</v>
+      </c>
+      <c r="C69">
+        <v>64.664000000000001</v>
+      </c>
+      <c r="D69">
+        <v>65.111000000000004</v>
+      </c>
+      <c r="E69">
+        <v>65.537999999999997</v>
+      </c>
+      <c r="F69">
+        <v>65.941000000000003</v>
+      </c>
+      <c r="H69">
+        <f>IFERROR(MATCH(A69,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f>IFERROR(MATCH(A69,'WDI values'!A:A,0),0)</f>
+        <v>69</v>
+      </c>
+      <c r="J69" t="str" cm="1">
+        <f t="array" ref="J69">IF(I69,INDEX('WDI values'!A:A,I69),"")</f>
+        <v>Eritrea</v>
+      </c>
+      <c r="K69" t="str" cm="1">
+        <f t="array" ref="K69">IF(I69,INDEX('WDI values'!D:D,I69),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" t="s">
+        <v>374</v>
+      </c>
+      <c r="C70">
+        <v>82.831707320000007</v>
+      </c>
+      <c r="D70">
+        <v>83.329268290000002</v>
+      </c>
+      <c r="E70">
+        <v>83.282926829999994</v>
+      </c>
+      <c r="F70">
+        <v>83.431707320000001</v>
+      </c>
+      <c r="H70">
+        <f>IFERROR(MATCH(A70,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>131</v>
+      </c>
+      <c r="I70">
+        <f>IFERROR(MATCH(A70,'WDI values'!A:A,0),0)</f>
+        <v>70</v>
+      </c>
+      <c r="J70" t="str" cm="1">
+        <f t="array" ref="J70">IF(I70,INDEX('WDI values'!A:A,I70),"")</f>
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>375</v>
+      </c>
+      <c r="C71">
+        <v>77.590243900000004</v>
+      </c>
+      <c r="D71">
+        <v>77.64146341</v>
+      </c>
+      <c r="E71">
+        <v>78.092682929999995</v>
+      </c>
+      <c r="F71">
+        <v>78.243902439999999</v>
+      </c>
+      <c r="H71">
+        <f>IFERROR(MATCH(A71,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>44</v>
+      </c>
+      <c r="I71">
+        <f>IFERROR(MATCH(A71,'WDI values'!A:A,0),0)</f>
+        <v>71</v>
+      </c>
+      <c r="J71" t="str" cm="1">
+        <f t="array" ref="J71">IF(I71,INDEX('WDI values'!A:A,I71),"")</f>
+        <v>Estonia</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" t="s">
+        <v>376</v>
+      </c>
+      <c r="C72">
+        <v>65.048000000000002</v>
+      </c>
+      <c r="D72">
+        <v>65.481999999999999</v>
+      </c>
+      <c r="E72">
+        <v>65.872</v>
+      </c>
+      <c r="F72">
+        <v>66.239999999999995</v>
+      </c>
+      <c r="H72">
+        <f>IFERROR(MATCH(A72,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>45</v>
+      </c>
+      <c r="I72">
+        <f>IFERROR(MATCH(A72,'WDI values'!A:A,0),0)</f>
+        <v>72</v>
+      </c>
+      <c r="J72" t="str" cm="1">
+        <f t="array" ref="J72">IF(I72,INDEX('WDI values'!A:A,I72),"")</f>
+        <v>Ethiopia</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" t="s">
+        <v>377</v>
+      </c>
+      <c r="C73">
+        <v>80.566807139999995</v>
+      </c>
+      <c r="D73">
+        <v>80.949864640000001</v>
+      </c>
+      <c r="E73">
+        <v>80.930658840000007</v>
+      </c>
+      <c r="F73">
+        <v>81.034409220000001</v>
+      </c>
+      <c r="H73">
+        <f>IFERROR(MATCH(A73,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f>IFERROR(MATCH(A73,'WDI values'!A:A,0),0)</f>
+        <v>73</v>
+      </c>
+      <c r="J73" t="str" cm="1">
+        <f t="array" ref="J73">IF(I73,INDEX('WDI values'!A:A,I73),"")</f>
+        <v>European Union</v>
+      </c>
+      <c r="K73" t="str" cm="1">
+        <f t="array" ref="K73">IF(I73,INDEX('WDI values'!D:D,I73),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" t="s">
+        <v>378</v>
+      </c>
+      <c r="C74">
+        <v>60.548015200000002</v>
+      </c>
+      <c r="D74">
+        <v>60.888623510000002</v>
+      </c>
+      <c r="E74">
+        <v>61.204749020000001</v>
+      </c>
+      <c r="F74">
+        <v>61.499999580000001</v>
+      </c>
+      <c r="H74">
+        <f>IFERROR(MATCH(A74,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f>IFERROR(MATCH(A74,'WDI values'!A:A,0),0)</f>
+        <v>74</v>
+      </c>
+      <c r="J74" t="str" cm="1">
+        <f t="array" ref="J74">IF(I74,INDEX('WDI values'!A:A,I74),"")</f>
+        <v>Fragile and conflict affected situations</v>
+      </c>
+      <c r="K74" t="str" cm="1">
+        <f t="array" ref="K74">IF(I74,INDEX('WDI values'!D:D,I74),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>379</v>
+      </c>
+      <c r="C75">
+        <v>81.480487800000006</v>
+      </c>
+      <c r="D75">
+        <v>81.429268289999996</v>
+      </c>
+      <c r="E75">
+        <v>81.631707320000004</v>
+      </c>
+      <c r="F75">
+        <v>81.734146339999995</v>
+      </c>
+      <c r="H75">
+        <f>IFERROR(MATCH(A75,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>46</v>
+      </c>
+      <c r="I75">
+        <f>IFERROR(MATCH(A75,'WDI values'!A:A,0),0)</f>
+        <v>75</v>
+      </c>
+      <c r="J75" t="str" cm="1">
+        <f t="array" ref="J75">IF(I75,INDEX('WDI values'!A:A,I75),"")</f>
+        <v>Finland</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" t="s">
+        <v>380</v>
+      </c>
+      <c r="C76">
+        <v>67.102999999999994</v>
+      </c>
+      <c r="D76">
+        <v>67.174999999999997</v>
+      </c>
+      <c r="E76">
+        <v>67.251999999999995</v>
+      </c>
+      <c r="F76">
+        <v>67.340999999999994</v>
+      </c>
+      <c r="H76">
+        <f>IFERROR(MATCH(A76,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f>IFERROR(MATCH(A76,'WDI values'!A:A,0),0)</f>
+        <v>76</v>
+      </c>
+      <c r="J76" t="str" cm="1">
+        <f t="array" ref="J76">IF(I76,INDEX('WDI values'!A:A,I76),"")</f>
+        <v>Fiji</v>
+      </c>
+      <c r="K76" t="str" cm="1">
+        <f t="array" ref="K76">IF(I76,INDEX('WDI values'!D:D,I76),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" t="s">
+        <v>381</v>
+      </c>
+      <c r="C77">
+        <v>82.321951220000003</v>
+      </c>
+      <c r="D77">
+        <v>82.573170730000001</v>
+      </c>
+      <c r="E77">
+        <v>82.575609760000006</v>
+      </c>
+      <c r="F77">
+        <v>82.724390240000005</v>
+      </c>
+      <c r="H77">
+        <f>IFERROR(MATCH(A77,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>47</v>
+      </c>
+      <c r="I77">
+        <f>IFERROR(MATCH(A77,'WDI values'!A:A,0),0)</f>
+        <v>77</v>
+      </c>
+      <c r="J77" t="str" cm="1">
+        <f t="array" ref="J77">IF(I77,INDEX('WDI values'!A:A,I77),"")</f>
+        <v>France</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" t="s">
+        <v>382</v>
+      </c>
+      <c r="C78">
+        <v>81.795121949999995</v>
+      </c>
+      <c r="D78">
+        <v>82.046341459999994</v>
+      </c>
+      <c r="E78">
+        <v>82.29756098</v>
+      </c>
+      <c r="F78">
+        <v>82.548780489999999</v>
+      </c>
+      <c r="H78">
+        <f>IFERROR(MATCH(A78,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f>IFERROR(MATCH(A78,'WDI values'!A:A,0),0)</f>
+        <v>78</v>
+      </c>
+      <c r="J78" t="str" cm="1">
+        <f t="array" ref="J78">IF(I78,INDEX('WDI values'!A:A,I78),"")</f>
+        <v>Faroe Islands</v>
+      </c>
+      <c r="K78" t="str" cm="1">
+        <f t="array" ref="K78">IF(I78,INDEX('WDI values'!D:D,I78),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>383</v>
+      </c>
+      <c r="B79" t="s">
+        <v>384</v>
+      </c>
+      <c r="C79">
+        <v>67.314999999999998</v>
+      </c>
+      <c r="D79">
+        <v>67.471000000000004</v>
+      </c>
+      <c r="E79">
+        <v>67.617999999999995</v>
+      </c>
+      <c r="F79">
+        <v>67.754999999999995</v>
+      </c>
+      <c r="H79">
+        <f>IFERROR(MATCH(A79,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f>IFERROR(MATCH(A79,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J79" t="str" cm="1">
+        <f t="array" ref="J79">IF(I79,INDEX('WDI values'!A:A,I79),"")</f>
+        <v/>
+      </c>
+      <c r="K79" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" t="s">
+        <v>385</v>
+      </c>
+      <c r="C80">
+        <v>64.912999999999997</v>
+      </c>
+      <c r="D80">
+        <v>65.418000000000006</v>
+      </c>
+      <c r="E80">
+        <v>65.838999999999999</v>
+      </c>
+      <c r="F80">
+        <v>66.186999999999998</v>
+      </c>
+      <c r="H80">
+        <f>IFERROR(MATCH(A80,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>48</v>
+      </c>
+      <c r="I80">
+        <f>IFERROR(MATCH(A80,'WDI values'!A:A,0),0)</f>
+        <v>80</v>
+      </c>
+      <c r="J80" t="str" cm="1">
+        <f t="array" ref="J80">IF(I80,INDEX('WDI values'!A:A,I80),"")</f>
+        <v>Gabon</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" t="s">
+        <v>386</v>
+      </c>
+      <c r="C81">
+        <v>80.956097560000003</v>
+      </c>
+      <c r="D81">
+        <v>81.156097560000006</v>
+      </c>
+      <c r="E81">
+        <v>81.256097560000001</v>
+      </c>
+      <c r="F81">
+        <v>81.256097560000001</v>
+      </c>
+      <c r="H81">
+        <f>IFERROR(MATCH(A81,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>149</v>
+      </c>
+      <c r="I81">
+        <f>IFERROR(MATCH(A81,'WDI values'!A:A,0),0)</f>
+        <v>81</v>
+      </c>
+      <c r="J81" t="str" cm="1">
+        <f t="array" ref="J81">IF(I81,INDEX('WDI values'!A:A,I81),"")</f>
+        <v>United Kingdom</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>138</v>
+      </c>
+      <c r="B82" t="s">
+        <v>387</v>
+      </c>
+      <c r="C82">
+        <v>72.972999999999999</v>
+      </c>
+      <c r="D82">
+        <v>73.206999999999994</v>
+      </c>
+      <c r="E82">
+        <v>73.414000000000001</v>
+      </c>
+      <c r="F82">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="H82">
+        <f>IFERROR(MATCH(A82,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>49</v>
+      </c>
+      <c r="I82">
+        <f>IFERROR(MATCH(A82,'WDI values'!A:A,0),0)</f>
+        <v>82</v>
+      </c>
+      <c r="J82" t="str" cm="1">
+        <f t="array" ref="J82">IF(I82,INDEX('WDI values'!A:A,I82),"")</f>
+        <v>Georgia</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" t="s">
+        <v>388</v>
+      </c>
+      <c r="C83">
+        <v>62.771999999999998</v>
+      </c>
+      <c r="D83">
+        <v>63.124000000000002</v>
+      </c>
+      <c r="E83">
+        <v>63.463000000000001</v>
+      </c>
+      <c r="F83">
+        <v>63.78</v>
+      </c>
+      <c r="H83">
+        <f>IFERROR(MATCH(A83,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>51</v>
+      </c>
+      <c r="I83">
+        <f>IFERROR(MATCH(A83,'WDI values'!A:A,0),0)</f>
+        <v>83</v>
+      </c>
+      <c r="J83" t="str" cm="1">
+        <f t="array" ref="J83">IF(I83,INDEX('WDI values'!A:A,I83),"")</f>
+        <v>Ghana</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>202</v>
+      </c>
+      <c r="B84" t="s">
+        <v>389</v>
+      </c>
+      <c r="H84">
+        <f>IFERROR(MATCH(A84,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f>IFERROR(MATCH(A84,'WDI values'!A:A,0),0)</f>
+        <v>84</v>
+      </c>
+      <c r="J84" t="str" cm="1">
+        <f t="array" ref="J84">IF(I84,INDEX('WDI values'!A:A,I84),"")</f>
+        <v>Gibraltar</v>
+      </c>
+      <c r="K84" t="str" cm="1">
+        <f t="array" ref="K84">IF(I84,INDEX('WDI values'!D:D,I84),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" t="s">
+        <v>390</v>
+      </c>
+      <c r="C85">
+        <v>59.597999999999999</v>
+      </c>
+      <c r="D85">
+        <v>60.17</v>
+      </c>
+      <c r="E85">
+        <v>60.706000000000003</v>
+      </c>
+      <c r="F85">
+        <v>61.185000000000002</v>
+      </c>
+      <c r="H85">
+        <f>IFERROR(MATCH(A85,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>54</v>
+      </c>
+      <c r="I85">
+        <f>IFERROR(MATCH(A85,'WDI values'!A:A,0),0)</f>
+        <v>85</v>
+      </c>
+      <c r="J85" t="str" cm="1">
+        <f t="array" ref="J85">IF(I85,INDEX('WDI values'!A:A,I85),"")</f>
+        <v>Guinea</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>391</v>
+      </c>
+      <c r="B86" t="s">
+        <v>392</v>
+      </c>
+      <c r="C86">
+        <v>60.91</v>
+      </c>
+      <c r="D86">
+        <v>61.165999999999997</v>
+      </c>
+      <c r="E86">
+        <v>61.44</v>
+      </c>
+      <c r="F86">
+        <v>61.734999999999999</v>
+      </c>
+      <c r="H86">
+        <f>IFERROR(MATCH(A86,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <f>IFERROR(MATCH(A86,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J86" t="str" cm="1">
+        <f t="array" ref="J86">IF(I86,INDEX('WDI values'!A:A,I86),"")</f>
+        <v/>
+      </c>
+      <c r="K86" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>204</v>
+      </c>
+      <c r="B87" t="s">
+        <v>393</v>
+      </c>
+      <c r="C87">
+        <v>56.959000000000003</v>
+      </c>
+      <c r="D87">
+        <v>57.328000000000003</v>
+      </c>
+      <c r="E87">
+        <v>57.673000000000002</v>
+      </c>
+      <c r="F87">
+        <v>58.003</v>
+      </c>
+      <c r="H87">
+        <f>IFERROR(MATCH(A87,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f>IFERROR(MATCH(A87,'WDI values'!A:A,0),0)</f>
+        <v>87</v>
+      </c>
+      <c r="J87" t="str" cm="1">
+        <f t="array" ref="J87">IF(I87,INDEX('WDI values'!A:A,I87),"")</f>
+        <v>Guinea-Bissau</v>
+      </c>
+      <c r="K87" t="str" cm="1">
+        <f t="array" ref="K87">IF(I87,INDEX('WDI values'!D:D,I87),"")</f>
+        <v>Only Guiinea in Happiness</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" t="s">
+        <v>394</v>
+      </c>
+      <c r="C88">
+        <v>57.359000000000002</v>
+      </c>
+      <c r="D88">
+        <v>57.713000000000001</v>
+      </c>
+      <c r="E88">
+        <v>58.061</v>
+      </c>
+      <c r="F88">
+        <v>58.402000000000001</v>
+      </c>
+      <c r="H88">
+        <f>IFERROR(MATCH(A88,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f>IFERROR(MATCH(A88,'WDI values'!A:A,0),0)</f>
+        <v>88</v>
+      </c>
+      <c r="J88" t="str" cm="1">
+        <f t="array" ref="J88">IF(I88,INDEX('WDI values'!A:A,I88),"")</f>
+        <v>Equatorial Guinea</v>
+      </c>
+      <c r="K88" t="str" cm="1">
+        <f t="array" ref="K88">IF(I88,INDEX('WDI values'!D:D,I88),"")</f>
+        <v>Only Guiinea in Happiness</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>395</v>
+      </c>
+      <c r="C89">
+        <v>81.036585369999997</v>
+      </c>
+      <c r="D89">
+        <v>81.387804880000004</v>
+      </c>
+      <c r="E89">
+        <v>81.287804879999996</v>
+      </c>
+      <c r="F89">
+        <v>81.787804879999996</v>
+      </c>
+      <c r="H89">
+        <f>IFERROR(MATCH(A89,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>52</v>
+      </c>
+      <c r="I89">
+        <f>IFERROR(MATCH(A89,'WDI values'!A:A,0),0)</f>
+        <v>89</v>
+      </c>
+      <c r="J89" t="str" cm="1">
+        <f t="array" ref="J89">IF(I89,INDEX('WDI values'!A:A,I89),"")</f>
+        <v>Greece</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>206</v>
+      </c>
+      <c r="B90" t="s">
+        <v>396</v>
+      </c>
+      <c r="C90">
+        <v>72.444999999999993</v>
+      </c>
+      <c r="D90">
+        <v>72.408000000000001</v>
+      </c>
+      <c r="E90">
+        <v>72.388000000000005</v>
+      </c>
+      <c r="F90">
+        <v>72.384</v>
+      </c>
+      <c r="H90">
+        <f>IFERROR(MATCH(A90,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f>IFERROR(MATCH(A90,'WDI values'!A:A,0),0)</f>
+        <v>90</v>
+      </c>
+      <c r="J90" t="str" cm="1">
+        <f t="array" ref="J90">IF(I90,INDEX('WDI values'!A:A,I90),"")</f>
+        <v>Grenada</v>
+      </c>
+      <c r="K90" t="str" cm="1">
+        <f t="array" ref="K90">IF(I90,INDEX('WDI values'!D:D,I90),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>207</v>
+      </c>
+      <c r="B91" t="s">
+        <v>397</v>
+      </c>
+      <c r="C91">
+        <v>71.246341459999996</v>
+      </c>
+      <c r="D91">
+        <v>70.848780489999996</v>
+      </c>
+      <c r="H91">
+        <f>IFERROR(MATCH(A91,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <f>IFERROR(MATCH(A91,'WDI values'!A:A,0),0)</f>
+        <v>91</v>
+      </c>
+      <c r="J91" t="str" cm="1">
+        <f t="array" ref="J91">IF(I91,INDEX('WDI values'!A:A,I91),"")</f>
+        <v>Greenland</v>
+      </c>
+      <c r="K91" t="str" cm="1">
+        <f t="array" ref="K91">IF(I91,INDEX('WDI values'!D:D,I91),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" t="s">
+        <v>398</v>
+      </c>
+      <c r="C92">
+        <v>73.25</v>
+      </c>
+      <c r="D92">
+        <v>73.540999999999997</v>
+      </c>
+      <c r="E92">
+        <v>73.81</v>
+      </c>
+      <c r="F92">
+        <v>74.063000000000002</v>
+      </c>
+      <c r="H92">
+        <f>IFERROR(MATCH(A92,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>53</v>
+      </c>
+      <c r="I92">
+        <f>IFERROR(MATCH(A92,'WDI values'!A:A,0),0)</f>
+        <v>92</v>
+      </c>
+      <c r="J92" t="str" cm="1">
+        <f t="array" ref="J92">IF(I92,INDEX('WDI values'!A:A,I92),"")</f>
+        <v>Guatemala</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>208</v>
+      </c>
+      <c r="B93" t="s">
+        <v>399</v>
+      </c>
+      <c r="C93">
+        <v>79.144000000000005</v>
+      </c>
+      <c r="D93">
+        <v>79.391000000000005</v>
+      </c>
+      <c r="E93">
+        <v>79.631</v>
+      </c>
+      <c r="F93">
+        <v>79.858999999999995</v>
+      </c>
+      <c r="H93">
+        <f>IFERROR(MATCH(A93,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f>IFERROR(MATCH(A93,'WDI values'!A:A,0),0)</f>
+        <v>93</v>
+      </c>
+      <c r="J93" t="str" cm="1">
+        <f t="array" ref="J93">IF(I93,INDEX('WDI values'!A:A,I93),"")</f>
+        <v>Guam</v>
+      </c>
+      <c r="K93" t="str" cm="1">
+        <f t="array" ref="K93">IF(I93,INDEX('WDI values'!D:D,I93),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>209</v>
+      </c>
+      <c r="B94" t="s">
+        <v>400</v>
+      </c>
+      <c r="C94">
+        <v>69.262</v>
+      </c>
+      <c r="D94">
+        <v>69.453999999999994</v>
+      </c>
+      <c r="E94">
+        <v>69.623999999999995</v>
+      </c>
+      <c r="F94">
+        <v>69.774000000000001</v>
+      </c>
+      <c r="H94">
+        <f>IFERROR(MATCH(A94,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <f>IFERROR(MATCH(A94,'WDI values'!A:A,0),0)</f>
+        <v>94</v>
+      </c>
+      <c r="J94" t="str" cm="1">
+        <f t="array" ref="J94">IF(I94,INDEX('WDI values'!A:A,I94),"")</f>
+        <v>Guyana</v>
+      </c>
+      <c r="K94" t="str" cm="1">
+        <f t="array" ref="K94">IF(I94,INDEX('WDI values'!D:D,I94),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>210</v>
+      </c>
+      <c r="B95" t="s">
+        <v>401</v>
+      </c>
+      <c r="C95">
+        <v>80.391986860000003</v>
+      </c>
+      <c r="D95">
+        <v>80.540851399999994</v>
+      </c>
+      <c r="E95">
+        <v>80.585465450000001</v>
+      </c>
+      <c r="F95">
+        <v>80.656104679999999</v>
+      </c>
+      <c r="H95">
+        <f>IFERROR(MATCH(A95,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <f>IFERROR(MATCH(A95,'WDI values'!A:A,0),0)</f>
+        <v>95</v>
+      </c>
+      <c r="J95" t="str" cm="1">
+        <f t="array" ref="J95">IF(I95,INDEX('WDI values'!A:A,I95),"")</f>
+        <v>High income</v>
+      </c>
+      <c r="K95" t="str" cm="1">
+        <f t="array" ref="K95">IF(I95,INDEX('WDI values'!D:D,I95),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C96" s="3">
+        <v>84.278048780000006</v>
+      </c>
+      <c r="D96" s="3">
+        <v>84.226829269999996</v>
+      </c>
+      <c r="E96" s="3">
+        <v>84.680487799999995</v>
+      </c>
+      <c r="F96" s="3">
+        <v>84.934146339999998</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3">
+        <f>IFERROR(MATCH(A96,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <f>IFERROR(MATCH(A96,'WDI values'!A:A,0),0)</f>
+        <v>96</v>
+      </c>
+      <c r="J96" s="3" t="str" cm="1">
+        <f t="array" ref="J96">IF(I96,INDEX('WDI values'!A:A,I96),"")</f>
+        <v>Hong Kong SAR, China</v>
+      </c>
+      <c r="K96" s="4" t="str" cm="1">
+        <f t="array" ref="K96">IF(I96,INDEX('WDI values'!D:D,I96),"")</f>
+        <v>Hong Kong</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" t="s">
+        <v>403</v>
+      </c>
+      <c r="C97">
+        <v>74.495000000000005</v>
+      </c>
+      <c r="D97">
+        <v>74.700999999999993</v>
+      </c>
+      <c r="E97">
+        <v>74.897999999999996</v>
+      </c>
+      <c r="F97">
+        <v>75.087999999999994</v>
+      </c>
+      <c r="H97">
+        <f>IFERROR(MATCH(A97,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>56</v>
+      </c>
+      <c r="I97">
+        <f>IFERROR(MATCH(A97,'WDI values'!A:A,0),0)</f>
+        <v>97</v>
+      </c>
+      <c r="J97" t="str" cm="1">
+        <f t="array" ref="J97">IF(I97,INDEX('WDI values'!A:A,I97),"")</f>
+        <v>Honduras</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98" t="s">
+        <v>404</v>
+      </c>
+      <c r="C98">
+        <v>61.852953239999998</v>
+      </c>
+      <c r="D98">
+        <v>62.323289299999999</v>
+      </c>
+      <c r="E98">
+        <v>62.748682600000002</v>
+      </c>
+      <c r="F98">
+        <v>63.135006400000002</v>
+      </c>
+      <c r="H98">
+        <f>IFERROR(MATCH(A98,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <f>IFERROR(MATCH(A98,'WDI values'!A:A,0),0)</f>
+        <v>98</v>
+      </c>
+      <c r="J98" t="str" cm="1">
+        <f t="array" ref="J98">IF(I98,INDEX('WDI values'!A:A,I98),"")</f>
+        <v>Heavily indebted poor countries (HIPC)</v>
+      </c>
+      <c r="K98" t="str" cm="1">
+        <f t="array" ref="K98">IF(I98,INDEX('WDI values'!D:D,I98),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" t="s">
+        <v>405</v>
+      </c>
+      <c r="C99">
+        <v>77.275609759999995</v>
+      </c>
+      <c r="D99">
+        <v>78.021951220000005</v>
+      </c>
+      <c r="E99">
+        <v>77.826829270000005</v>
+      </c>
+      <c r="F99">
+        <v>78.070731710000004</v>
+      </c>
+      <c r="H99">
+        <f>IFERROR(MATCH(A99,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>36</v>
+      </c>
+      <c r="I99">
+        <f>IFERROR(MATCH(A99,'WDI values'!A:A,0),0)</f>
+        <v>99</v>
+      </c>
+      <c r="J99" t="str" cm="1">
+        <f t="array" ref="J99">IF(I99,INDEX('WDI values'!A:A,I99),"")</f>
+        <v>Croatia</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" t="s">
+        <v>406</v>
+      </c>
+      <c r="C100">
+        <v>62.484999999999999</v>
+      </c>
+      <c r="D100">
+        <v>62.896000000000001</v>
+      </c>
+      <c r="E100">
+        <v>63.29</v>
+      </c>
+      <c r="F100">
+        <v>63.66</v>
+      </c>
+      <c r="H100">
+        <f>IFERROR(MATCH(A100,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>55</v>
+      </c>
+      <c r="I100">
+        <f>IFERROR(MATCH(A100,'WDI values'!A:A,0),0)</f>
+        <v>100</v>
+      </c>
+      <c r="J100" t="str" cm="1">
+        <f t="array" ref="J100">IF(I100,INDEX('WDI values'!A:A,I100),"")</f>
+        <v>Haiti</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" t="s">
+        <v>407</v>
+      </c>
+      <c r="C101">
+        <v>75.568292679999999</v>
+      </c>
+      <c r="D101">
+        <v>76.063414629999997</v>
+      </c>
+      <c r="E101">
+        <v>75.81707317</v>
+      </c>
+      <c r="F101">
+        <v>76.065853660000002</v>
+      </c>
+      <c r="H101">
+        <f>IFERROR(MATCH(A101,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>58</v>
+      </c>
+      <c r="I101">
+        <f>IFERROR(MATCH(A101,'WDI values'!A:A,0),0)</f>
+        <v>101</v>
+      </c>
+      <c r="J101" t="str" cm="1">
+        <f t="array" ref="J101">IF(I101,INDEX('WDI values'!A:A,I101),"")</f>
+        <v>Hungary</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>213</v>
+      </c>
+      <c r="B102" t="s">
+        <v>408</v>
+      </c>
+      <c r="C102">
+        <v>72.696308740000006</v>
+      </c>
+      <c r="D102">
+        <v>72.954681199999996</v>
+      </c>
+      <c r="E102">
+        <v>73.200072520000006</v>
+      </c>
+      <c r="F102">
+        <v>73.404867139999993</v>
+      </c>
+      <c r="H102">
+        <f>IFERROR(MATCH(A102,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <f>IFERROR(MATCH(A102,'WDI values'!A:A,0),0)</f>
+        <v>102</v>
+      </c>
+      <c r="J102" t="str" cm="1">
+        <f t="array" ref="J102">IF(I102,INDEX('WDI values'!A:A,I102),"")</f>
+        <v>IBRD only</v>
+      </c>
+      <c r="K102" t="str" cm="1">
+        <f t="array" ref="K102">IF(I102,INDEX('WDI values'!D:D,I102),"")</f>
+        <v>Not in Happiness?</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>214</v>
+      </c>
+      <c r="B103" t="s">
+        <v>409</v>
+      </c>
+      <c r="C103">
+        <v>70.356254160000006</v>
+      </c>
+      <c r="D103">
+        <v>70.618639329999993</v>
+      </c>
+      <c r="E103">
+        <v>70.864006619999998</v>
+      </c>
+      <c r="F103">
+        <v>71.071726389999995</v>
+      </c>
+      <c r="H103">
+        <f>IFERROR(MATCH(A103,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <f>IFERROR(MATCH(A103,'WDI values'!A:A,0),0)</f>
+        <v>103</v>
+      </c>
+      <c r="J103" t="str" cm="1">
+        <f t="array" ref="J103">IF(I103,INDEX('WDI values'!A:A,I103),"")</f>
+        <v>IDA &amp; IBRD total</v>
+      </c>
+      <c r="K103" t="str" cm="1">
+        <f t="array" ref="K103">IF(I103,INDEX('WDI values'!D:D,I103),"")</f>
+        <v>Not in Happiness?</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104" t="s">
+        <v>410</v>
+      </c>
+      <c r="C104">
+        <v>63.232506479999998</v>
+      </c>
+      <c r="D104">
+        <v>63.598975109999998</v>
+      </c>
+      <c r="E104">
+        <v>63.936476079999998</v>
+      </c>
+      <c r="F104">
+        <v>64.247800470000001</v>
+      </c>
+      <c r="H104">
+        <f>IFERROR(MATCH(A104,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <f>IFERROR(MATCH(A104,'WDI values'!A:A,0),0)</f>
+        <v>104</v>
+      </c>
+      <c r="J104" t="str" cm="1">
+        <f t="array" ref="J104">IF(I104,INDEX('WDI values'!A:A,I104),"")</f>
+        <v>IDA total</v>
+      </c>
+      <c r="K104" t="str" cm="1">
+        <f t="array" ref="K104">IF(I104,INDEX('WDI values'!D:D,I104),"")</f>
+        <v>Not in Happiness?</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>216</v>
+      </c>
+      <c r="B105" t="s">
+        <v>411</v>
+      </c>
+      <c r="C105">
+        <v>61.25627918</v>
+      </c>
+      <c r="D105">
+        <v>61.58792571</v>
+      </c>
+      <c r="E105">
+        <v>61.889040780000002</v>
+      </c>
+      <c r="F105">
+        <v>62.161750140000002</v>
+      </c>
+      <c r="H105">
+        <f>IFERROR(MATCH(A105,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <f>IFERROR(MATCH(A105,'WDI values'!A:A,0),0)</f>
+        <v>105</v>
+      </c>
+      <c r="J105" t="str" cm="1">
+        <f t="array" ref="J105">IF(I105,INDEX('WDI values'!A:A,I105),"")</f>
+        <v>IDA blend</v>
+      </c>
+      <c r="K105" t="str" cm="1">
+        <f t="array" ref="K105">IF(I105,INDEX('WDI values'!D:D,I105),"")</f>
+        <v>Not in Happiness?</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>412</v>
+      </c>
+      <c r="C106">
+        <v>70.768000000000001</v>
+      </c>
+      <c r="D106">
+        <v>71.034999999999997</v>
+      </c>
+      <c r="E106">
+        <v>71.281999999999996</v>
+      </c>
+      <c r="F106">
+        <v>71.509</v>
+      </c>
+      <c r="H106">
+        <f>IFERROR(MATCH(A106,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>61</v>
+      </c>
+      <c r="I106">
+        <f>IFERROR(MATCH(A106,'WDI values'!A:A,0),0)</f>
+        <v>106</v>
+      </c>
+      <c r="J106" t="str" cm="1">
+        <f t="array" ref="J106">IF(I106,INDEX('WDI values'!A:A,I106),"")</f>
+        <v>Indonesia</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>217</v>
+      </c>
+      <c r="B107" t="s">
+        <v>413</v>
+      </c>
+      <c r="C107">
+        <v>64.231666700000005</v>
+      </c>
+      <c r="D107">
+        <v>64.616615039999999</v>
+      </c>
+      <c r="E107">
+        <v>64.973033610000002</v>
+      </c>
+      <c r="F107">
+        <v>65.30409152</v>
+      </c>
+      <c r="H107">
+        <f>IFERROR(MATCH(A107,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <f>IFERROR(MATCH(A107,'WDI values'!A:A,0),0)</f>
+        <v>107</v>
+      </c>
+      <c r="J107" t="str" cm="1">
+        <f t="array" ref="J107">IF(I107,INDEX('WDI values'!A:A,I107),"")</f>
+        <v>IDA only</v>
+      </c>
+      <c r="K107" t="str" cm="1">
+        <f t="array" ref="K107">IF(I107,INDEX('WDI values'!D:D,I107),"")</f>
+        <v>Not in Happiness?</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>218</v>
+      </c>
+      <c r="B108" t="s">
+        <v>414</v>
+      </c>
+      <c r="H108">
+        <f>IFERROR(MATCH(A108,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <f>IFERROR(MATCH(A108,'WDI values'!A:A,0),0)</f>
+        <v>108</v>
+      </c>
+      <c r="J108" t="str" cm="1">
+        <f t="array" ref="J108">IF(I108,INDEX('WDI values'!A:A,I108),"")</f>
+        <v>Isle of Man</v>
+      </c>
+      <c r="K108" t="str" cm="1">
+        <f t="array" ref="K108">IF(I108,INDEX('WDI values'!D:D,I108),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109" t="s">
+        <v>415</v>
+      </c>
+      <c r="C109">
+        <v>68.606999999999999</v>
+      </c>
+      <c r="D109">
+        <v>68.897000000000006</v>
+      </c>
+      <c r="E109">
+        <v>69.165000000000006</v>
+      </c>
+      <c r="F109">
+        <v>69.415999999999997</v>
+      </c>
+      <c r="H109">
+        <f>IFERROR(MATCH(A109,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>60</v>
+      </c>
+      <c r="I109">
+        <f>IFERROR(MATCH(A109,'WDI values'!A:A,0),0)</f>
+        <v>109</v>
+      </c>
+      <c r="J109" t="str" cm="1">
+        <f t="array" ref="J109">IF(I109,INDEX('WDI values'!A:A,I109),"")</f>
+        <v>India</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>416</v>
+      </c>
+      <c r="B110" t="s">
+        <v>417</v>
+      </c>
+      <c r="H110">
+        <f>IFERROR(MATCH(A110,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <f>IFERROR(MATCH(A110,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J110" t="str" cm="1">
+        <f t="array" ref="J110">IF(I110,INDEX('WDI values'!A:A,I110),"")</f>
+        <v/>
+      </c>
+      <c r="K110" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" t="s">
+        <v>418</v>
+      </c>
+      <c r="C111">
+        <v>81.453658540000006</v>
+      </c>
+      <c r="D111">
+        <v>81.653658539999995</v>
+      </c>
+      <c r="E111">
+        <v>82.156097560000006</v>
+      </c>
+      <c r="F111">
+        <v>82.256097560000001</v>
+      </c>
+      <c r="H111">
+        <f>IFERROR(MATCH(A111,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>64</v>
+      </c>
+      <c r="I111">
+        <f>IFERROR(MATCH(A111,'WDI values'!A:A,0),0)</f>
+        <v>110</v>
+      </c>
+      <c r="J111" t="str" cm="1">
+        <f t="array" ref="J111">IF(I111,INDEX('WDI values'!A:A,I111),"")</f>
+        <v>Ireland</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C112" s="3">
+        <v>75.796000000000006</v>
+      </c>
+      <c r="D112" s="3">
+        <v>76.046999999999997</v>
+      </c>
+      <c r="E112" s="3">
+        <v>76.271000000000001</v>
+      </c>
+      <c r="F112" s="3">
+        <v>76.478999999999999</v>
+      </c>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3">
+        <f>IFERROR(MATCH(A112,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I112" s="3">
+        <f>IFERROR(MATCH(A112,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="3" t="str" cm="1">
+        <f t="array" ref="J112">IF(I112,INDEX('WDI values'!A:A,I112),"")</f>
+        <v/>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L112" s="3"/>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113" t="s">
+        <v>421</v>
+      </c>
+      <c r="C113">
+        <v>69.929000000000002</v>
+      </c>
+      <c r="D113">
+        <v>70.122</v>
+      </c>
+      <c r="E113">
+        <v>70.293999999999997</v>
+      </c>
+      <c r="F113">
+        <v>70.453999999999994</v>
+      </c>
+      <c r="H113">
+        <f>IFERROR(MATCH(A113,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>63</v>
+      </c>
+      <c r="I113">
+        <f>IFERROR(MATCH(A113,'WDI values'!A:A,0),0)</f>
+        <v>112</v>
+      </c>
+      <c r="J113" t="str" cm="1">
+        <f t="array" ref="J113">IF(I113,INDEX('WDI values'!A:A,I113),"")</f>
+        <v>Iraq</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" t="s">
+        <v>422</v>
+      </c>
+      <c r="C114">
+        <v>82.468292680000005</v>
+      </c>
+      <c r="D114">
+        <v>82.204878050000005</v>
+      </c>
+      <c r="E114">
+        <v>82.660975609999994</v>
+      </c>
+      <c r="F114">
+        <v>82.860975609999997</v>
+      </c>
+      <c r="H114">
+        <f>IFERROR(MATCH(A114,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>59</v>
+      </c>
+      <c r="I114">
+        <f>IFERROR(MATCH(A114,'WDI values'!A:A,0),0)</f>
+        <v>113</v>
+      </c>
+      <c r="J114" t="str" cm="1">
+        <f t="array" ref="J114">IF(I114,INDEX('WDI values'!A:A,I114),"")</f>
+        <v>Iceland</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
+        <v>423</v>
+      </c>
+      <c r="C115">
+        <v>82.051219509999996</v>
+      </c>
+      <c r="D115">
+        <v>82.407317070000005</v>
+      </c>
+      <c r="E115">
+        <v>82.551219509999996</v>
+      </c>
+      <c r="F115">
+        <v>82.802439019999994</v>
+      </c>
+      <c r="H115">
+        <f>IFERROR(MATCH(A115,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>65</v>
+      </c>
+      <c r="I115">
+        <f>IFERROR(MATCH(A115,'WDI values'!A:A,0),0)</f>
+        <v>114</v>
+      </c>
+      <c r="J115" t="str" cm="1">
+        <f t="array" ref="J115">IF(I115,INDEX('WDI values'!A:A,I115),"")</f>
+        <v>Israel</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>57</v>
+      </c>
+      <c r="B116" t="s">
+        <v>424</v>
+      </c>
+      <c r="C116">
+        <v>82.543902439999997</v>
+      </c>
+      <c r="D116">
+        <v>83.243902439999999</v>
+      </c>
+      <c r="E116">
+        <v>82.946341459999999</v>
+      </c>
+      <c r="F116">
+        <v>83.346341460000005</v>
+      </c>
+      <c r="H116">
+        <f>IFERROR(MATCH(A116,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>66</v>
+      </c>
+      <c r="I116">
+        <f>IFERROR(MATCH(A116,'WDI values'!A:A,0),0)</f>
+        <v>115</v>
+      </c>
+      <c r="J116" t="str" cm="1">
+        <f t="array" ref="J116">IF(I116,INDEX('WDI values'!A:A,I116),"")</f>
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>66</v>
+      </c>
+      <c r="B117" t="s">
+        <v>425</v>
+      </c>
+      <c r="C117">
+        <v>74.097999999999999</v>
+      </c>
+      <c r="D117">
+        <v>74.174999999999997</v>
+      </c>
+      <c r="E117">
+        <v>74.266999999999996</v>
+      </c>
+      <c r="F117">
+        <v>74.367999999999995</v>
+      </c>
+      <c r="H117">
+        <f>IFERROR(MATCH(A117,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>68</v>
+      </c>
+      <c r="I117">
+        <f>IFERROR(MATCH(A117,'WDI values'!A:A,0),0)</f>
+        <v>116</v>
+      </c>
+      <c r="J117" t="str" cm="1">
+        <f t="array" ref="J117">IF(I117,INDEX('WDI values'!A:A,I117),"")</f>
+        <v>Jamaica</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>100</v>
+      </c>
+      <c r="B118" t="s">
+        <v>426</v>
+      </c>
+      <c r="C118">
+        <v>74.078000000000003</v>
+      </c>
+      <c r="D118">
+        <v>74.183999999999997</v>
+      </c>
+      <c r="E118">
+        <v>74.292000000000002</v>
+      </c>
+      <c r="F118">
+        <v>74.405000000000001</v>
+      </c>
+      <c r="H118">
+        <f>IFERROR(MATCH(A118,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>70</v>
+      </c>
+      <c r="I118">
+        <f>IFERROR(MATCH(A118,'WDI values'!A:A,0),0)</f>
+        <v>117</v>
+      </c>
+      <c r="J118" t="str" cm="1">
+        <f t="array" ref="J118">IF(I118,INDEX('WDI values'!A:A,I118),"")</f>
+        <v>Jordan</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" t="s">
+        <v>427</v>
+      </c>
+      <c r="C119">
+        <v>83.793902439999997</v>
+      </c>
+      <c r="D119">
+        <v>83.984878050000006</v>
+      </c>
+      <c r="E119">
+        <v>84.099756099999993</v>
+      </c>
+      <c r="F119">
+        <v>84.210975610000006</v>
+      </c>
+      <c r="H119">
+        <f>IFERROR(MATCH(A119,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>69</v>
+      </c>
+      <c r="I119">
+        <f>IFERROR(MATCH(A119,'WDI values'!A:A,0),0)</f>
+        <v>118</v>
+      </c>
+      <c r="J119" t="str" cm="1">
+        <f t="array" ref="J119">IF(I119,INDEX('WDI values'!A:A,I119),"")</f>
+        <v>Japan</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>70</v>
+      </c>
+      <c r="B120" t="s">
+        <v>428</v>
+      </c>
+      <c r="C120">
+        <v>72</v>
+      </c>
+      <c r="D120">
+        <v>72.3</v>
+      </c>
+      <c r="E120">
+        <v>72.95</v>
+      </c>
+      <c r="F120">
+        <v>73.150000000000006</v>
+      </c>
+      <c r="H120">
+        <f>IFERROR(MATCH(A120,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>71</v>
+      </c>
+      <c r="I120">
+        <f>IFERROR(MATCH(A120,'WDI values'!A:A,0),0)</f>
+        <v>119</v>
+      </c>
+      <c r="J120" t="str" cm="1">
+        <f t="array" ref="J120">IF(I120,INDEX('WDI values'!A:A,I120),"")</f>
+        <v>Kazakhstan</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>134</v>
+      </c>
+      <c r="B121" t="s">
+        <v>429</v>
+      </c>
+      <c r="C121">
+        <v>64.798000000000002</v>
+      </c>
+      <c r="D121">
+        <v>65.393000000000001</v>
+      </c>
+      <c r="E121">
+        <v>65.909000000000006</v>
+      </c>
+      <c r="F121">
+        <v>66.341999999999999</v>
+      </c>
+      <c r="H121">
+        <f>IFERROR(MATCH(A121,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>72</v>
+      </c>
+      <c r="I121">
+        <f>IFERROR(MATCH(A121,'WDI values'!A:A,0),0)</f>
+        <v>120</v>
+      </c>
+      <c r="J121" t="str" cm="1">
+        <f t="array" ref="J121">IF(I121,INDEX('WDI values'!A:A,I121),"")</f>
+        <v>Kenya</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>219</v>
+      </c>
+      <c r="B122" t="s">
+        <v>430</v>
+      </c>
+      <c r="C122">
+        <v>70.651219510000004</v>
+      </c>
+      <c r="D122">
+        <v>70.951219510000001</v>
+      </c>
+      <c r="E122">
+        <v>71.2</v>
+      </c>
+      <c r="F122">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="H122">
+        <f>IFERROR(MATCH(A122,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <f>IFERROR(MATCH(A122,'WDI values'!A:A,0),0)</f>
+        <v>121</v>
+      </c>
+      <c r="J122" t="str" cm="1">
+        <f t="array" ref="J122">IF(I122,INDEX('WDI values'!A:A,I122),"")</f>
+        <v>Kyrgyz Republic</v>
+      </c>
+      <c r="K122" t="str" cm="1">
+        <f t="array" ref="K122">IF(I122,INDEX('WDI values'!D:D,I122),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" t="s">
+        <v>431</v>
+      </c>
+      <c r="C123">
+        <v>68.637</v>
+      </c>
+      <c r="D123">
+        <v>68.977000000000004</v>
+      </c>
+      <c r="E123">
+        <v>69.289000000000001</v>
+      </c>
+      <c r="F123">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="H123">
+        <f>IFERROR(MATCH(A123,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>25</v>
+      </c>
+      <c r="I123">
+        <f>IFERROR(MATCH(A123,'WDI values'!A:A,0),0)</f>
+        <v>122</v>
+      </c>
+      <c r="J123" t="str" cm="1">
+        <f t="array" ref="J123">IF(I123,INDEX('WDI values'!A:A,I123),"")</f>
+        <v>Cambodia</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>220</v>
+      </c>
+      <c r="B124" t="s">
+        <v>432</v>
+      </c>
+      <c r="C124">
+        <v>67.290999999999997</v>
+      </c>
+      <c r="D124">
+        <v>67.576999999999998</v>
+      </c>
+      <c r="E124">
+        <v>67.850999999999999</v>
+      </c>
+      <c r="F124">
+        <v>68.116</v>
+      </c>
+      <c r="H124">
+        <f>IFERROR(MATCH(A124,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <f>IFERROR(MATCH(A124,'WDI values'!A:A,0),0)</f>
+        <v>123</v>
+      </c>
+      <c r="J124" t="str" cm="1">
+        <f t="array" ref="J124">IF(I124,INDEX('WDI values'!A:A,I124),"")</f>
+        <v>Kiribati</v>
+      </c>
+      <c r="K124" t="str" cm="1">
+        <f t="array" ref="K124">IF(I124,INDEX('WDI values'!D:D,I124),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>221</v>
+      </c>
+      <c r="B125" t="s">
+        <v>433</v>
+      </c>
+      <c r="H125">
+        <f>IFERROR(MATCH(A125,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <f>IFERROR(MATCH(A125,'WDI values'!A:A,0),0)</f>
+        <v>124</v>
+      </c>
+      <c r="J125" t="str" cm="1">
+        <f t="array" ref="J125">IF(I125,INDEX('WDI values'!A:A,I125),"")</f>
+        <v>St. Kitts and Nevis</v>
+      </c>
+      <c r="K125" t="str" cm="1">
+        <f t="array" ref="K125">IF(I125,INDEX('WDI values'!D:D,I125),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>434</v>
+      </c>
+      <c r="B126" t="s">
+        <v>435</v>
+      </c>
+      <c r="C126">
+        <v>82.024390240000002</v>
+      </c>
+      <c r="D126">
+        <v>82.275609759999995</v>
+      </c>
+      <c r="E126">
+        <v>82.626829270000002</v>
+      </c>
+      <c r="F126">
+        <v>82.626829270000002</v>
+      </c>
+      <c r="H126">
+        <f>IFERROR(MATCH(A126,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <f>IFERROR(MATCH(A126,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J126" t="str" cm="1">
+        <f t="array" ref="J126">IF(I126,INDEX('WDI values'!A:A,I126),"")</f>
+        <v/>
+      </c>
+      <c r="K126" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>55</v>
+      </c>
+      <c r="B127" t="s">
+        <v>436</v>
+      </c>
+      <c r="C127">
+        <v>75.13</v>
+      </c>
+      <c r="D127">
+        <v>75.224000000000004</v>
+      </c>
+      <c r="E127">
+        <v>75.311000000000007</v>
+      </c>
+      <c r="F127">
+        <v>75.397999999999996</v>
+      </c>
+      <c r="H127">
+        <f>IFERROR(MATCH(A127,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>74</v>
+      </c>
+      <c r="I127">
+        <f>IFERROR(MATCH(A127,'WDI values'!A:A,0),0)</f>
+        <v>126</v>
+      </c>
+      <c r="J127" t="str" cm="1">
+        <f t="array" ref="J127">IF(I127,INDEX('WDI values'!A:A,I127),"")</f>
+        <v>Kuwait</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>223</v>
+      </c>
+      <c r="B128" t="s">
+        <v>437</v>
+      </c>
+      <c r="C128">
+        <v>74.762198519999998</v>
+      </c>
+      <c r="D128">
+        <v>74.923781969999993</v>
+      </c>
+      <c r="E128">
+        <v>75.085203919999998</v>
+      </c>
+      <c r="F128">
+        <v>75.246076119999998</v>
+      </c>
+      <c r="H128">
+        <f>IFERROR(MATCH(A128,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <f>IFERROR(MATCH(A128,'WDI values'!A:A,0),0)</f>
+        <v>127</v>
+      </c>
+      <c r="J128" t="str" cm="1">
+        <f t="array" ref="J128">IF(I128,INDEX('WDI values'!A:A,I128),"")</f>
+        <v>Latin America &amp; Caribbean (excluding high income)</v>
+      </c>
+      <c r="K128" t="str" cm="1">
+        <f t="array" ref="K128">IF(I128,INDEX('WDI values'!D:D,I128),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C129" s="3">
+        <v>66.546000000000006</v>
+      </c>
+      <c r="D129" s="3">
+        <v>66.924000000000007</v>
+      </c>
+      <c r="E129" s="3">
+        <v>67.277000000000001</v>
+      </c>
+      <c r="F129" s="3">
+        <v>67.61</v>
+      </c>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3">
+        <f>IFERROR(MATCH(A129,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I129" s="3">
+        <f>IFERROR(MATCH(A129,'WDI values'!A:A,0),0)</f>
+        <v>128</v>
+      </c>
+      <c r="J129" s="3" t="str" cm="1">
+        <f t="array" ref="J129">IF(I129,INDEX('WDI values'!A:A,I129),"")</f>
+        <v>Lao PDR</v>
+      </c>
+      <c r="K129" s="4" t="str" cm="1">
+        <f t="array" ref="K129">IF(I129,INDEX('WDI values'!D:D,I129),"")</f>
+        <v>Laos</v>
+      </c>
+      <c r="L129" s="3"/>
+    </row>
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>98</v>
+      </c>
+      <c r="B130" t="s">
+        <v>439</v>
+      </c>
+      <c r="C130">
+        <v>78.768000000000001</v>
+      </c>
+      <c r="D130">
+        <v>78.8</v>
+      </c>
+      <c r="E130">
+        <v>78.832999999999998</v>
+      </c>
+      <c r="F130">
+        <v>78.875</v>
+      </c>
+      <c r="H130">
+        <f>IFERROR(MATCH(A130,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>78</v>
+      </c>
+      <c r="I130">
+        <f>IFERROR(MATCH(A130,'WDI values'!A:A,0),0)</f>
+        <v>129</v>
+      </c>
+      <c r="J130" t="str" cm="1">
+        <f t="array" ref="J130">IF(I130,INDEX('WDI values'!A:A,I130),"")</f>
+        <v>Lebanon</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131" t="s">
+        <v>440</v>
+      </c>
+      <c r="C131">
+        <v>62.268999999999998</v>
+      </c>
+      <c r="D131">
+        <v>62.802</v>
+      </c>
+      <c r="E131">
+        <v>63.295000000000002</v>
+      </c>
+      <c r="F131">
+        <v>63.73</v>
+      </c>
+      <c r="H131">
+        <f>IFERROR(MATCH(A131,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>80</v>
+      </c>
+      <c r="I131">
+        <f>IFERROR(MATCH(A131,'WDI values'!A:A,0),0)</f>
+        <v>130</v>
+      </c>
+      <c r="J131" t="str" cm="1">
+        <f t="array" ref="J131">IF(I131,INDEX('WDI values'!A:A,I131),"")</f>
+        <v>Liberia</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>80</v>
+      </c>
+      <c r="B132" t="s">
+        <v>441</v>
+      </c>
+      <c r="C132">
+        <v>72.120999999999995</v>
+      </c>
+      <c r="D132">
+        <v>72.311000000000007</v>
+      </c>
+      <c r="E132">
+        <v>72.52</v>
+      </c>
+      <c r="F132">
+        <v>72.724000000000004</v>
+      </c>
+      <c r="H132">
+        <f>IFERROR(MATCH(A132,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>81</v>
+      </c>
+      <c r="I132">
+        <f>IFERROR(MATCH(A132,'WDI values'!A:A,0),0)</f>
+        <v>131</v>
+      </c>
+      <c r="J132" t="str" cm="1">
+        <f t="array" ref="J132">IF(I132,INDEX('WDI values'!A:A,I132),"")</f>
+        <v>Libya</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>225</v>
+      </c>
+      <c r="B133" t="s">
+        <v>442</v>
+      </c>
+      <c r="C133">
+        <v>75.596000000000004</v>
+      </c>
+      <c r="D133">
+        <v>75.751999999999995</v>
+      </c>
+      <c r="E133">
+        <v>75.906999999999996</v>
+      </c>
+      <c r="F133">
+        <v>76.057000000000002</v>
+      </c>
+      <c r="H133">
+        <f>IFERROR(MATCH(A133,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <f>IFERROR(MATCH(A133,'WDI values'!A:A,0),0)</f>
+        <v>132</v>
+      </c>
+      <c r="J133" t="str" cm="1">
+        <f t="array" ref="J133">IF(I133,INDEX('WDI values'!A:A,I133),"")</f>
+        <v>St. Lucia</v>
+      </c>
+      <c r="K133" t="str" cm="1">
+        <f t="array" ref="K133">IF(I133,INDEX('WDI values'!D:D,I133),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>226</v>
+      </c>
+      <c r="B134" t="s">
+        <v>443</v>
+      </c>
+      <c r="C134">
+        <v>74.961722089999995</v>
+      </c>
+      <c r="D134">
+        <v>75.122058730000006</v>
+      </c>
+      <c r="E134">
+        <v>75.282135920000002</v>
+      </c>
+      <c r="F134">
+        <v>75.440915489999995</v>
+      </c>
+      <c r="H134">
+        <f>IFERROR(MATCH(A134,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <f>IFERROR(MATCH(A134,'WDI values'!A:A,0),0)</f>
+        <v>133</v>
+      </c>
+      <c r="J134" t="str" cm="1">
+        <f t="array" ref="J134">IF(I134,INDEX('WDI values'!A:A,I134),"")</f>
+        <v>Latin America &amp; Caribbean</v>
+      </c>
+      <c r="K134" t="str" cm="1">
+        <f t="array" ref="K134">IF(I134,INDEX('WDI values'!D:D,I134),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>227</v>
+      </c>
+      <c r="B135" t="s">
+        <v>444</v>
+      </c>
+      <c r="C135">
+        <v>63.947776959999999</v>
+      </c>
+      <c r="D135">
+        <v>64.345771439999993</v>
+      </c>
+      <c r="E135">
+        <v>64.707730220000002</v>
+      </c>
+      <c r="F135">
+        <v>65.039624119999999</v>
+      </c>
+      <c r="H135">
+        <f>IFERROR(MATCH(A135,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <f>IFERROR(MATCH(A135,'WDI values'!A:A,0),0)</f>
+        <v>134</v>
+      </c>
+      <c r="J135" t="str" cm="1">
+        <f t="array" ref="J135">IF(I135,INDEX('WDI values'!A:A,I135),"")</f>
+        <v>Least developed countries: UN classification</v>
+      </c>
+      <c r="K135" t="str" cm="1">
+        <f t="array" ref="K135">IF(I135,INDEX('WDI values'!D:D,I135),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>228</v>
+      </c>
+      <c r="B136" t="s">
+        <v>445</v>
+      </c>
+      <c r="C136">
+        <v>62.350561300000003</v>
+      </c>
+      <c r="D136">
+        <v>62.758636709999998</v>
+      </c>
+      <c r="E136">
+        <v>63.138893009999997</v>
+      </c>
+      <c r="F136">
+        <v>63.49633875</v>
+      </c>
+      <c r="H136">
+        <f>IFERROR(MATCH(A136,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <f>IFERROR(MATCH(A136,'WDI values'!A:A,0),0)</f>
+        <v>135</v>
+      </c>
+      <c r="J136" t="str" cm="1">
+        <f t="array" ref="J136">IF(I136,INDEX('WDI values'!A:A,I136),"")</f>
+        <v>Low income</v>
+      </c>
+      <c r="K136" t="str" cm="1">
+        <f t="array" ref="K136">IF(I136,INDEX('WDI values'!D:D,I136),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>229</v>
+      </c>
+      <c r="B137" t="s">
+        <v>446</v>
+      </c>
+      <c r="C137">
+        <v>82.656097560000006</v>
+      </c>
+      <c r="D137">
+        <v>82.258536590000006</v>
+      </c>
+      <c r="E137">
+        <v>83.746341459999996</v>
+      </c>
+      <c r="F137">
+        <v>83.041463410000006</v>
+      </c>
+      <c r="H137">
+        <f>IFERROR(MATCH(A137,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <f>IFERROR(MATCH(A137,'WDI values'!A:A,0),0)</f>
+        <v>136</v>
+      </c>
+      <c r="J137" t="str" cm="1">
+        <f t="array" ref="J137">IF(I137,INDEX('WDI values'!A:A,I137),"")</f>
+        <v>Liechtenstein</v>
+      </c>
+      <c r="K137" t="str" cm="1">
+        <f t="array" ref="K137">IF(I137,INDEX('WDI values'!D:D,I137),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>126</v>
+      </c>
+      <c r="B138" t="s">
+        <v>447</v>
+      </c>
+      <c r="C138">
+        <v>76.316000000000003</v>
+      </c>
+      <c r="D138">
+        <v>76.481999999999999</v>
+      </c>
+      <c r="E138">
+        <v>76.647999999999996</v>
+      </c>
+      <c r="F138">
+        <v>76.811999999999998</v>
+      </c>
+      <c r="H138">
+        <f>IFERROR(MATCH(A138,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>132</v>
+      </c>
+      <c r="I138">
+        <f>IFERROR(MATCH(A138,'WDI values'!A:A,0),0)</f>
+        <v>137</v>
+      </c>
+      <c r="J138" t="str" cm="1">
+        <f t="array" ref="J138">IF(I138,INDEX('WDI values'!A:A,I138),"")</f>
+        <v>Sri Lanka</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>230</v>
+      </c>
+      <c r="B139" t="s">
+        <v>448</v>
+      </c>
+      <c r="C139">
+        <v>67.658922180000005</v>
+      </c>
+      <c r="D139">
+        <v>67.937120859999993</v>
+      </c>
+      <c r="E139">
+        <v>68.193268529999997</v>
+      </c>
+      <c r="F139">
+        <v>68.422469090000007</v>
+      </c>
+      <c r="H139">
+        <f>IFERROR(MATCH(A139,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <f>IFERROR(MATCH(A139,'WDI values'!A:A,0),0)</f>
+        <v>138</v>
+      </c>
+      <c r="J139" t="str" cm="1">
+        <f t="array" ref="J139">IF(I139,INDEX('WDI values'!A:A,I139),"")</f>
+        <v>Lower middle income</v>
+      </c>
+      <c r="K139" t="str" cm="1">
+        <f t="array" ref="K139">IF(I139,INDEX('WDI values'!D:D,I139),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>231</v>
+      </c>
+      <c r="B140" t="s">
+        <v>449</v>
+      </c>
+      <c r="C140">
+        <v>70.277205710000004</v>
+      </c>
+      <c r="D140">
+        <v>70.539037460000003</v>
+      </c>
+      <c r="E140">
+        <v>70.78783627</v>
+      </c>
+      <c r="F140">
+        <v>70.998807589999998</v>
+      </c>
+      <c r="H140">
+        <f>IFERROR(MATCH(A140,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <f>IFERROR(MATCH(A140,'WDI values'!A:A,0),0)</f>
+        <v>139</v>
+      </c>
+      <c r="J140" t="str" cm="1">
+        <f t="array" ref="J140">IF(I140,INDEX('WDI values'!A:A,I140),"")</f>
+        <v>Low &amp; middle income</v>
+      </c>
+      <c r="K140" t="str" cm="1">
+        <f t="array" ref="K140">IF(I140,INDEX('WDI values'!D:D,I140),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>151</v>
+      </c>
+      <c r="B141" t="s">
+        <v>450</v>
+      </c>
+      <c r="C141">
+        <v>51.037999999999997</v>
+      </c>
+      <c r="D141">
+        <v>52.058999999999997</v>
+      </c>
+      <c r="E141">
+        <v>52.947000000000003</v>
+      </c>
+      <c r="F141">
+        <v>53.704999999999998</v>
+      </c>
+      <c r="H141">
+        <f>IFERROR(MATCH(A141,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>79</v>
+      </c>
+      <c r="I141">
+        <f>IFERROR(MATCH(A141,'WDI values'!A:A,0),0)</f>
+        <v>140</v>
+      </c>
+      <c r="J141" t="str" cm="1">
+        <f t="array" ref="J141">IF(I141,INDEX('WDI values'!A:A,I141),"")</f>
+        <v>Lesotho</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>232</v>
+      </c>
+      <c r="B142" t="s">
+        <v>451</v>
+      </c>
+      <c r="C142">
+        <v>75.471213140000003</v>
+      </c>
+      <c r="D142">
+        <v>75.745576040000003</v>
+      </c>
+      <c r="E142">
+        <v>76.014153460000003</v>
+      </c>
+      <c r="F142">
+        <v>76.224438899999996</v>
+      </c>
+      <c r="H142">
+        <f>IFERROR(MATCH(A142,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <f>IFERROR(MATCH(A142,'WDI values'!A:A,0),0)</f>
+        <v>141</v>
+      </c>
+      <c r="J142" t="str" cm="1">
+        <f t="array" ref="J142">IF(I142,INDEX('WDI values'!A:A,I142),"")</f>
+        <v>Late-demographic dividend</v>
+      </c>
+      <c r="K142" t="str" cm="1">
+        <f t="array" ref="K142">IF(I142,INDEX('WDI values'!D:D,I142),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>60</v>
+      </c>
+      <c r="B143" t="s">
+        <v>452</v>
+      </c>
+      <c r="C143">
+        <v>74.321951220000003</v>
+      </c>
+      <c r="D143">
+        <v>74.670731709999998</v>
+      </c>
+      <c r="E143">
+        <v>75.480487800000006</v>
+      </c>
+      <c r="F143">
+        <v>75.680487799999995</v>
+      </c>
+      <c r="H143">
+        <f>IFERROR(MATCH(A143,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>82</v>
+      </c>
+      <c r="I143">
+        <f>IFERROR(MATCH(A143,'WDI values'!A:A,0),0)</f>
+        <v>142</v>
+      </c>
+      <c r="J143" t="str" cm="1">
+        <f t="array" ref="J143">IF(I143,INDEX('WDI values'!A:A,I143),"")</f>
+        <v>Lithuania</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144" t="s">
+        <v>453</v>
+      </c>
+      <c r="C144">
+        <v>82.292682929999998</v>
+      </c>
+      <c r="D144">
+        <v>82.685365849999997</v>
+      </c>
+      <c r="E144">
+        <v>82.095121950000006</v>
+      </c>
+      <c r="F144">
+        <v>82.295121949999995</v>
+      </c>
+      <c r="H144">
+        <f>IFERROR(MATCH(A144,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>83</v>
+      </c>
+      <c r="I144">
+        <f>IFERROR(MATCH(A144,'WDI values'!A:A,0),0)</f>
+        <v>143</v>
+      </c>
+      <c r="J144" t="str" cm="1">
+        <f t="array" ref="J144">IF(I144,INDEX('WDI values'!A:A,I144),"")</f>
+        <v>Luxembourg</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>63</v>
+      </c>
+      <c r="B145" t="s">
+        <v>454</v>
+      </c>
+      <c r="C145">
+        <v>74.480487800000006</v>
+      </c>
+      <c r="D145">
+        <v>74.5804878</v>
+      </c>
+      <c r="E145">
+        <v>74.629268289999999</v>
+      </c>
+      <c r="F145">
+        <v>74.782926829999994</v>
+      </c>
+      <c r="H145">
+        <f>IFERROR(MATCH(A145,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>77</v>
+      </c>
+      <c r="I145">
+        <f>IFERROR(MATCH(A145,'WDI values'!A:A,0),0)</f>
+        <v>144</v>
+      </c>
+      <c r="J145" t="str" cm="1">
+        <f t="array" ref="J145">IF(I145,INDEX('WDI values'!A:A,I145),"")</f>
+        <v>Latvia</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>233</v>
+      </c>
+      <c r="B146" t="s">
+        <v>455</v>
+      </c>
+      <c r="C146">
+        <v>83.706999999999994</v>
+      </c>
+      <c r="D146">
+        <v>83.853999999999999</v>
+      </c>
+      <c r="E146">
+        <v>83.989000000000004</v>
+      </c>
+      <c r="F146">
+        <v>84.117999999999995</v>
+      </c>
+      <c r="H146">
+        <f>IFERROR(MATCH(A146,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <f>IFERROR(MATCH(A146,'WDI values'!A:A,0),0)</f>
+        <v>145</v>
+      </c>
+      <c r="J146" t="str" cm="1">
+        <f t="array" ref="J146">IF(I146,INDEX('WDI values'!A:A,I146),"")</f>
+        <v>Macao SAR, China</v>
+      </c>
+      <c r="K146" t="str" cm="1">
+        <f t="array" ref="K146">IF(I146,INDEX('WDI values'!D:D,I146),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>234</v>
+      </c>
+      <c r="B147" t="s">
+        <v>456</v>
+      </c>
+      <c r="C147">
+        <v>79.470731709999995</v>
+      </c>
+      <c r="D147">
+        <v>79.62195122</v>
+      </c>
+      <c r="E147">
+        <v>79.721951219999994</v>
+      </c>
+      <c r="F147">
+        <v>79.870731710000001</v>
+      </c>
+      <c r="H147">
+        <f>IFERROR(MATCH(A147,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <f>IFERROR(MATCH(A147,'WDI values'!A:A,0),0)</f>
+        <v>146</v>
+      </c>
+      <c r="J147" t="str" cm="1">
+        <f t="array" ref="J147">IF(I147,INDEX('WDI values'!A:A,I147),"")</f>
+        <v>St. Martin (French part)</v>
+      </c>
+      <c r="K147" t="str" cm="1">
+        <f t="array" ref="K147">IF(I147,INDEX('WDI values'!D:D,I147),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>95</v>
+      </c>
+      <c r="B148" t="s">
+        <v>457</v>
+      </c>
+      <c r="C148">
+        <v>75.725999999999999</v>
+      </c>
+      <c r="D148">
+        <v>75.974000000000004</v>
+      </c>
+      <c r="E148">
+        <v>76.218000000000004</v>
+      </c>
+      <c r="F148">
+        <v>76.453000000000003</v>
+      </c>
+      <c r="H148">
+        <f>IFERROR(MATCH(A148,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>96</v>
+      </c>
+      <c r="I148">
+        <f>IFERROR(MATCH(A148,'WDI values'!A:A,0),0)</f>
+        <v>147</v>
+      </c>
+      <c r="J148" t="str" cm="1">
+        <f t="array" ref="J148">IF(I148,INDEX('WDI values'!A:A,I148),"")</f>
+        <v>Morocco</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>235</v>
+      </c>
+      <c r="B149" t="s">
+        <v>458</v>
+      </c>
+      <c r="H149">
+        <f>IFERROR(MATCH(A149,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <f>IFERROR(MATCH(A149,'WDI values'!A:A,0),0)</f>
+        <v>148</v>
+      </c>
+      <c r="J149" t="str" cm="1">
+        <f t="array" ref="J149">IF(I149,INDEX('WDI values'!A:A,I149),"")</f>
+        <v>Monaco</v>
+      </c>
+      <c r="K149" t="str" cm="1">
+        <f t="array" ref="K149">IF(I149,INDEX('WDI values'!D:D,I149),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>77</v>
+      </c>
+      <c r="B150" t="s">
+        <v>459</v>
+      </c>
+      <c r="C150">
+        <v>71.477999999999994</v>
+      </c>
+      <c r="D150">
+        <v>71.617000000000004</v>
+      </c>
+      <c r="E150">
+        <v>71.716999999999999</v>
+      </c>
+      <c r="F150">
+        <v>71.808000000000007</v>
+      </c>
+      <c r="H150">
+        <f>IFERROR(MATCH(A150,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>93</v>
+      </c>
+      <c r="I150">
+        <f>IFERROR(MATCH(A150,'WDI values'!A:A,0),0)</f>
+        <v>149</v>
+      </c>
+      <c r="J150" t="str" cm="1">
+        <f t="array" ref="J150">IF(I150,INDEX('WDI values'!A:A,I150),"")</f>
+        <v>Moldova</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>460</v>
+      </c>
+      <c r="C151">
+        <v>65.539000000000001</v>
+      </c>
+      <c r="D151">
+        <v>65.930999999999997</v>
+      </c>
+      <c r="E151">
+        <v>66.311000000000007</v>
+      </c>
+      <c r="F151">
+        <v>66.680999999999997</v>
+      </c>
+      <c r="H151">
+        <f>IFERROR(MATCH(A151,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>85</v>
+      </c>
+      <c r="I151">
+        <f>IFERROR(MATCH(A151,'WDI values'!A:A,0),0)</f>
+        <v>150</v>
+      </c>
+      <c r="J151" t="str" cm="1">
+        <f t="array" ref="J151">IF(I151,INDEX('WDI values'!A:A,I151),"")</f>
+        <v>Madagascar</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>236</v>
+      </c>
+      <c r="B152" t="s">
+        <v>461</v>
+      </c>
+      <c r="C152">
+        <v>77.691000000000003</v>
+      </c>
+      <c r="D152">
+        <v>78.013000000000005</v>
+      </c>
+      <c r="E152">
+        <v>78.325000000000003</v>
+      </c>
+      <c r="F152">
+        <v>78.626999999999995</v>
+      </c>
+      <c r="H152">
+        <f>IFERROR(MATCH(A152,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <f>IFERROR(MATCH(A152,'WDI values'!A:A,0),0)</f>
+        <v>151</v>
+      </c>
+      <c r="J152" t="str" cm="1">
+        <f t="array" ref="J152">IF(I152,INDEX('WDI values'!A:A,I152),"")</f>
+        <v>Maldives</v>
+      </c>
+      <c r="K152" t="str" cm="1">
+        <f t="array" ref="K152">IF(I152,INDEX('WDI values'!D:D,I152),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>237</v>
+      </c>
+      <c r="B153" t="s">
+        <v>462</v>
+      </c>
+      <c r="C153">
+        <v>73.514844850000003</v>
+      </c>
+      <c r="D153">
+        <v>73.710820260000006</v>
+      </c>
+      <c r="E153">
+        <v>73.899908280000005</v>
+      </c>
+      <c r="F153">
+        <v>74.088909259999994</v>
+      </c>
+      <c r="H153">
+        <f>IFERROR(MATCH(A153,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <f>IFERROR(MATCH(A153,'WDI values'!A:A,0),0)</f>
+        <v>152</v>
+      </c>
+      <c r="J153" t="str" cm="1">
+        <f t="array" ref="J153">IF(I153,INDEX('WDI values'!A:A,I153),"")</f>
+        <v>Middle East &amp; North Africa</v>
+      </c>
+      <c r="K153" t="str" cm="1">
+        <f t="array" ref="K153">IF(I153,INDEX('WDI values'!D:D,I153),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>34</v>
+      </c>
+      <c r="B154" t="s">
+        <v>463</v>
+      </c>
+      <c r="C154">
+        <v>74.903999999999996</v>
+      </c>
+      <c r="D154">
+        <v>74.917000000000002</v>
+      </c>
+      <c r="E154">
+        <v>74.947000000000003</v>
+      </c>
+      <c r="F154">
+        <v>74.992000000000004</v>
+      </c>
+      <c r="H154">
+        <f>IFERROR(MATCH(A154,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>92</v>
+      </c>
+      <c r="I154">
+        <f>IFERROR(MATCH(A154,'WDI values'!A:A,0),0)</f>
+        <v>153</v>
+      </c>
+      <c r="J154" t="str" cm="1">
+        <f t="array" ref="J154">IF(I154,INDEX('WDI values'!A:A,I154),"")</f>
+        <v>Mexico</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>238</v>
+      </c>
+      <c r="B155" t="s">
+        <v>464</v>
+      </c>
+      <c r="H155">
+        <f>IFERROR(MATCH(A155,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <f>IFERROR(MATCH(A155,'WDI values'!A:A,0),0)</f>
+        <v>154</v>
+      </c>
+      <c r="J155" t="str" cm="1">
+        <f t="array" ref="J155">IF(I155,INDEX('WDI values'!A:A,I155),"")</f>
+        <v>Marshall Islands</v>
+      </c>
+      <c r="K155" t="str" cm="1">
+        <f t="array" ref="K155">IF(I155,INDEX('WDI values'!D:D,I155),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>239</v>
+      </c>
+      <c r="B156" t="s">
+        <v>465</v>
+      </c>
+      <c r="C156">
+        <v>71.142927439999994</v>
+      </c>
+      <c r="D156">
+        <v>71.400860690000002</v>
+      </c>
+      <c r="E156">
+        <v>71.647366849999997</v>
+      </c>
+      <c r="F156">
+        <v>71.854614400000003</v>
+      </c>
+      <c r="H156">
+        <f>IFERROR(MATCH(A156,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <f>IFERROR(MATCH(A156,'WDI values'!A:A,0),0)</f>
+        <v>155</v>
+      </c>
+      <c r="J156" t="str" cm="1">
+        <f t="array" ref="J156">IF(I156,INDEX('WDI values'!A:A,I156),"")</f>
+        <v>Middle income</v>
+      </c>
+      <c r="K156" t="str" cm="1">
+        <f t="array" ref="K156">IF(I156,INDEX('WDI values'!D:D,I156),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C157" s="3">
+        <v>75.406000000000006</v>
+      </c>
+      <c r="D157" s="3">
+        <v>75.498000000000005</v>
+      </c>
+      <c r="E157" s="3">
+        <v>75.588999999999999</v>
+      </c>
+      <c r="F157" s="3">
+        <v>75.688000000000002</v>
+      </c>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3">
+        <f>IFERROR(MATCH(A157,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I157" s="3">
+        <f>IFERROR(MATCH(A157,'WDI values'!A:A,0),0)</f>
+        <v>156</v>
+      </c>
+      <c r="J157" s="3" t="str" cm="1">
+        <f t="array" ref="J157">IF(I157,INDEX('WDI values'!A:A,I157),"")</f>
+        <v>North Macedonia</v>
+      </c>
+      <c r="K157" s="4" t="str" cm="1">
+        <f t="array" ref="K157">IF(I157,INDEX('WDI values'!D:D,I157),"")</f>
+        <v>Macedonia</v>
+      </c>
+      <c r="L157" s="3"/>
+    </row>
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>128</v>
+      </c>
+      <c r="B158" t="s">
+        <v>467</v>
+      </c>
+      <c r="C158">
+        <v>57.509</v>
+      </c>
+      <c r="D158">
+        <v>57.987000000000002</v>
+      </c>
+      <c r="E158">
+        <v>58.451999999999998</v>
+      </c>
+      <c r="F158">
+        <v>58.893000000000001</v>
+      </c>
+      <c r="H158">
+        <f>IFERROR(MATCH(A158,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>88</v>
+      </c>
+      <c r="I158">
+        <f>IFERROR(MATCH(A158,'WDI values'!A:A,0),0)</f>
+        <v>157</v>
+      </c>
+      <c r="J158" t="str" cm="1">
+        <f t="array" ref="J158">IF(I158,INDEX('WDI values'!A:A,I158),"")</f>
+        <v>Mali</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159" t="s">
+        <v>468</v>
+      </c>
+      <c r="C159">
+        <v>81.897560979999994</v>
+      </c>
+      <c r="D159">
+        <v>82.453658540000006</v>
+      </c>
+      <c r="E159">
+        <v>82.346341460000005</v>
+      </c>
+      <c r="F159">
+        <v>82.448780490000004</v>
+      </c>
+      <c r="H159">
+        <f>IFERROR(MATCH(A159,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>89</v>
+      </c>
+      <c r="I159">
+        <f>IFERROR(MATCH(A159,'WDI values'!A:A,0),0)</f>
+        <v>158</v>
+      </c>
+      <c r="J159" t="str" cm="1">
+        <f t="array" ref="J159">IF(I159,INDEX('WDI values'!A:A,I159),"")</f>
+        <v>Malta</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>140</v>
+      </c>
+      <c r="B160" t="s">
+        <v>469</v>
+      </c>
+      <c r="C160">
+        <v>65.81</v>
+      </c>
+      <c r="D160">
+        <v>66.204999999999998</v>
+      </c>
+      <c r="E160">
+        <v>66.558000000000007</v>
+      </c>
+      <c r="F160">
+        <v>66.867000000000004</v>
+      </c>
+      <c r="H160">
+        <f>IFERROR(MATCH(A160,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>98</v>
+      </c>
+      <c r="I160">
+        <f>IFERROR(MATCH(A160,'WDI values'!A:A,0),0)</f>
+        <v>159</v>
+      </c>
+      <c r="J160" t="str" cm="1">
+        <f t="array" ref="J160">IF(I160,INDEX('WDI values'!A:A,I160),"")</f>
+        <v>Myanmar</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>241</v>
+      </c>
+      <c r="B161" t="s">
+        <v>470</v>
+      </c>
+      <c r="C161">
+        <v>73.000296120000002</v>
+      </c>
+      <c r="D161">
+        <v>73.198211099999995</v>
+      </c>
+      <c r="E161">
+        <v>73.394270250000005</v>
+      </c>
+      <c r="F161">
+        <v>73.587358210000005</v>
+      </c>
+      <c r="H161">
+        <f>IFERROR(MATCH(A161,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <f>IFERROR(MATCH(A161,'WDI values'!A:A,0),0)</f>
+        <v>160</v>
+      </c>
+      <c r="J161" t="str" cm="1">
+        <f t="array" ref="J161">IF(I161,INDEX('WDI values'!A:A,I161),"")</f>
+        <v>Middle East &amp; North Africa (excluding high income)</v>
+      </c>
+      <c r="K161" t="str" cm="1">
+        <f t="array" ref="K161">IF(I161,INDEX('WDI values'!D:D,I161),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>91</v>
+      </c>
+      <c r="B162" t="s">
+        <v>471</v>
+      </c>
+      <c r="C162">
+        <v>76.451999999999998</v>
+      </c>
+      <c r="D162">
+        <v>76.567999999999998</v>
+      </c>
+      <c r="E162">
+        <v>76.667000000000002</v>
+      </c>
+      <c r="F162">
+        <v>76.77</v>
+      </c>
+      <c r="H162">
+        <f>IFERROR(MATCH(A162,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>95</v>
+      </c>
+      <c r="I162">
+        <f>IFERROR(MATCH(A162,'WDI values'!A:A,0),0)</f>
+        <v>161</v>
+      </c>
+      <c r="J162" t="str" cm="1">
+        <f t="array" ref="J162">IF(I162,INDEX('WDI values'!A:A,I162),"")</f>
+        <v>Montenegro</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>104</v>
+      </c>
+      <c r="B163" t="s">
+        <v>472</v>
+      </c>
+      <c r="C163">
+        <v>69.111000000000004</v>
+      </c>
+      <c r="D163">
+        <v>69.320999999999998</v>
+      </c>
+      <c r="E163">
+        <v>69.509</v>
+      </c>
+      <c r="F163">
+        <v>69.688999999999993</v>
+      </c>
+      <c r="H163">
+        <f>IFERROR(MATCH(A163,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>94</v>
+      </c>
+      <c r="I163">
+        <f>IFERROR(MATCH(A163,'WDI values'!A:A,0),0)</f>
+        <v>162</v>
+      </c>
+      <c r="J163" t="str" cm="1">
+        <f t="array" ref="J163">IF(I163,INDEX('WDI values'!A:A,I163),"")</f>
+        <v>Mongolia</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>242</v>
+      </c>
+      <c r="B164" t="s">
+        <v>473</v>
+      </c>
+      <c r="H164">
+        <f>IFERROR(MATCH(A164,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <f>IFERROR(MATCH(A164,'WDI values'!A:A,0),0)</f>
+        <v>163</v>
+      </c>
+      <c r="J164" t="str" cm="1">
+        <f t="array" ref="J164">IF(I164,INDEX('WDI values'!A:A,I164),"")</f>
+        <v>Northern Mariana Islands</v>
+      </c>
+      <c r="K164" t="str" cm="1">
+        <f t="array" ref="K164">IF(I164,INDEX('WDI values'!D:D,I164),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>133</v>
+      </c>
+      <c r="B165" t="s">
+        <v>474</v>
+      </c>
+      <c r="C165">
+        <v>57.206000000000003</v>
+      </c>
+      <c r="D165">
+        <v>58.308999999999997</v>
+      </c>
+      <c r="E165">
+        <v>59.308999999999997</v>
+      </c>
+      <c r="F165">
+        <v>60.162999999999997</v>
+      </c>
+      <c r="H165">
+        <f>IFERROR(MATCH(A165,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>97</v>
+      </c>
+      <c r="I165">
+        <f>IFERROR(MATCH(A165,'WDI values'!A:A,0),0)</f>
+        <v>164</v>
+      </c>
+      <c r="J165" t="str" cm="1">
+        <f t="array" ref="J165">IF(I165,INDEX('WDI values'!A:A,I165),"")</f>
+        <v>Mozambique</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>136</v>
+      </c>
+      <c r="B166" t="s">
+        <v>475</v>
+      </c>
+      <c r="C166">
+        <v>63.936</v>
+      </c>
+      <c r="D166">
+        <v>64.207999999999998</v>
+      </c>
+      <c r="E166">
+        <v>64.463999999999999</v>
+      </c>
+      <c r="F166">
+        <v>64.703999999999994</v>
+      </c>
+      <c r="H166">
+        <f>IFERROR(MATCH(A166,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>90</v>
+      </c>
+      <c r="I166">
+        <f>IFERROR(MATCH(A166,'WDI values'!A:A,0),0)</f>
+        <v>165</v>
+      </c>
+      <c r="J166" t="str" cm="1">
+        <f t="array" ref="J166">IF(I166,INDEX('WDI values'!A:A,I166),"")</f>
+        <v>Mauritania</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>65</v>
+      </c>
+      <c r="B167" t="s">
+        <v>476</v>
+      </c>
+      <c r="C167">
+        <v>74.353170730000002</v>
+      </c>
+      <c r="D167">
+        <v>74.394878050000003</v>
+      </c>
+      <c r="E167">
+        <v>74.514634150000006</v>
+      </c>
+      <c r="F167">
+        <v>74.416341459999998</v>
+      </c>
+      <c r="H167">
+        <f>IFERROR(MATCH(A167,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>91</v>
+      </c>
+      <c r="I167">
+        <f>IFERROR(MATCH(A167,'WDI values'!A:A,0),0)</f>
+        <v>166</v>
+      </c>
+      <c r="J167" t="str" cm="1">
+        <f t="array" ref="J167">IF(I167,INDEX('WDI values'!A:A,I167),"")</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>157</v>
+      </c>
+      <c r="B168" t="s">
+        <v>477</v>
+      </c>
+      <c r="C168">
+        <v>61.953000000000003</v>
+      </c>
+      <c r="D168">
+        <v>62.680999999999997</v>
+      </c>
+      <c r="E168">
+        <v>63.279000000000003</v>
+      </c>
+      <c r="F168">
+        <v>63.798000000000002</v>
+      </c>
+      <c r="H168">
+        <f>IFERROR(MATCH(A168,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>86</v>
+      </c>
+      <c r="I168">
+        <f>IFERROR(MATCH(A168,'WDI values'!A:A,0),0)</f>
+        <v>167</v>
+      </c>
+      <c r="J168" t="str" cm="1">
+        <f t="array" ref="J168">IF(I168,INDEX('WDI values'!A:A,I168),"")</f>
+        <v>Malawi</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" t="s">
+        <v>478</v>
+      </c>
+      <c r="C169">
+        <v>75.460999999999999</v>
+      </c>
+      <c r="D169">
+        <v>75.649000000000001</v>
+      </c>
+      <c r="E169">
+        <v>75.828000000000003</v>
+      </c>
+      <c r="F169">
+        <v>75.997</v>
+      </c>
+      <c r="H169">
+        <f>IFERROR(MATCH(A169,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>87</v>
+      </c>
+      <c r="I169">
+        <f>IFERROR(MATCH(A169,'WDI values'!A:A,0),0)</f>
+        <v>168</v>
+      </c>
+      <c r="J169" t="str" cm="1">
+        <f t="array" ref="J169">IF(I169,INDEX('WDI values'!A:A,I169),"")</f>
+        <v>Malaysia</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>243</v>
+      </c>
+      <c r="B170" t="s">
+        <v>479</v>
+      </c>
+      <c r="C170">
+        <v>79.012208099999995</v>
+      </c>
+      <c r="D170">
+        <v>78.877457789999994</v>
+      </c>
+      <c r="E170">
+        <v>78.884134290000006</v>
+      </c>
+      <c r="F170">
+        <v>78.886890550000004</v>
+      </c>
+      <c r="H170">
+        <f>IFERROR(MATCH(A170,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <f>IFERROR(MATCH(A170,'WDI values'!A:A,0),0)</f>
+        <v>169</v>
+      </c>
+      <c r="J170" t="str" cm="1">
+        <f t="array" ref="J170">IF(I170,INDEX('WDI values'!A:A,I170),"")</f>
+        <v>North America</v>
+      </c>
+      <c r="K170" t="str" cm="1">
+        <f t="array" ref="K170">IF(I170,INDEX('WDI values'!D:D,I170),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>129</v>
+      </c>
+      <c r="B171" t="s">
+        <v>480</v>
+      </c>
+      <c r="C171">
+        <v>62.119</v>
+      </c>
+      <c r="D171">
+        <v>62.625</v>
+      </c>
+      <c r="E171">
+        <v>63.021000000000001</v>
+      </c>
+      <c r="F171">
+        <v>63.372999999999998</v>
+      </c>
+      <c r="H171">
+        <f>IFERROR(MATCH(A171,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>99</v>
+      </c>
+      <c r="I171">
+        <f>IFERROR(MATCH(A171,'WDI values'!A:A,0),0)</f>
+        <v>170</v>
+      </c>
+      <c r="J171" t="str" cm="1">
+        <f t="array" ref="J171">IF(I171,INDEX('WDI values'!A:A,I171),"")</f>
+        <v>Namibia</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>244</v>
+      </c>
+      <c r="B172" t="s">
+        <v>481</v>
+      </c>
+      <c r="C172">
+        <v>77.244303509999995</v>
+      </c>
+      <c r="D172">
+        <v>76.961500740000005</v>
+      </c>
+      <c r="E172">
+        <v>77.148780489999993</v>
+      </c>
+      <c r="F172">
+        <v>77.148780489999993</v>
+      </c>
+      <c r="H172">
+        <f>IFERROR(MATCH(A172,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <f>IFERROR(MATCH(A172,'WDI values'!A:A,0),0)</f>
+        <v>171</v>
+      </c>
+      <c r="J172" t="str" cm="1">
+        <f t="array" ref="J172">IF(I172,INDEX('WDI values'!A:A,I172),"")</f>
+        <v>New Caledonia</v>
+      </c>
+      <c r="K172" t="str" cm="1">
+        <f t="array" ref="K172">IF(I172,INDEX('WDI values'!D:D,I172),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>144</v>
+      </c>
+      <c r="B173" t="s">
+        <v>482</v>
+      </c>
+      <c r="C173">
+        <v>60.631</v>
+      </c>
+      <c r="D173">
+        <v>61.137</v>
+      </c>
+      <c r="E173">
+        <v>61.598999999999997</v>
+      </c>
+      <c r="F173">
+        <v>62.024000000000001</v>
+      </c>
+      <c r="H173">
+        <f>IFERROR(MATCH(A173,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>104</v>
+      </c>
+      <c r="I173">
+        <f>IFERROR(MATCH(A173,'WDI values'!A:A,0),0)</f>
+        <v>172</v>
+      </c>
+      <c r="J173" t="str" cm="1">
+        <f t="array" ref="J173">IF(I173,INDEX('WDI values'!A:A,I173),"")</f>
+        <v>Niger</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>101</v>
+      </c>
+      <c r="B174" t="s">
+        <v>483</v>
+      </c>
+      <c r="C174">
+        <v>53.112000000000002</v>
+      </c>
+      <c r="D174">
+        <v>53.540999999999997</v>
+      </c>
+      <c r="E174">
+        <v>53.95</v>
+      </c>
+      <c r="F174">
+        <v>54.332000000000001</v>
+      </c>
+      <c r="H174">
+        <f>IFERROR(MATCH(A174,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>105</v>
+      </c>
+      <c r="I174">
+        <f>IFERROR(MATCH(A174,'WDI values'!A:A,0),0)</f>
+        <v>173</v>
+      </c>
+      <c r="J174" t="str" cm="1">
+        <f t="array" ref="J174">IF(I174,INDEX('WDI values'!A:A,I174),"")</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>51</v>
+      </c>
+      <c r="B175" t="s">
+        <v>484</v>
+      </c>
+      <c r="C175">
+        <v>73.649000000000001</v>
+      </c>
+      <c r="D175">
+        <v>73.86</v>
+      </c>
+      <c r="E175">
+        <v>74.067999999999998</v>
+      </c>
+      <c r="F175">
+        <v>74.275000000000006</v>
+      </c>
+      <c r="H175">
+        <f>IFERROR(MATCH(A175,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>103</v>
+      </c>
+      <c r="I175">
+        <f>IFERROR(MATCH(A175,'WDI values'!A:A,0),0)</f>
+        <v>174</v>
+      </c>
+      <c r="J175" t="str" cm="1">
+        <f t="array" ref="J175">IF(I175,INDEX('WDI values'!A:A,I175),"")</f>
+        <v>Nicaragua</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" t="s">
+        <v>485</v>
+      </c>
+      <c r="C176">
+        <v>81.509756100000004</v>
+      </c>
+      <c r="D176">
+        <v>81.56097561</v>
+      </c>
+      <c r="E176">
+        <v>81.760975610000003</v>
+      </c>
+      <c r="F176">
+        <v>81.812195119999998</v>
+      </c>
+      <c r="H176">
+        <f>IFERROR(MATCH(A176,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>101</v>
+      </c>
+      <c r="I176">
+        <f>IFERROR(MATCH(A176,'WDI values'!A:A,0),0)</f>
+        <v>175</v>
+      </c>
+      <c r="J176" t="str" cm="1">
+        <f t="array" ref="J176">IF(I176,INDEX('WDI values'!A:A,I176),"")</f>
+        <v>Netherlands</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" t="s">
+        <v>486</v>
+      </c>
+      <c r="C177">
+        <v>82.304878049999999</v>
+      </c>
+      <c r="D177">
+        <v>82.407317070000005</v>
+      </c>
+      <c r="E177">
+        <v>82.609756099999998</v>
+      </c>
+      <c r="F177">
+        <v>82.758536590000006</v>
+      </c>
+      <c r="H177">
+        <f>IFERROR(MATCH(A177,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>107</v>
+      </c>
+      <c r="I177">
+        <f>IFERROR(MATCH(A177,'WDI values'!A:A,0),0)</f>
+        <v>176</v>
+      </c>
+      <c r="J177" t="str" cm="1">
+        <f t="array" ref="J177">IF(I177,INDEX('WDI values'!A:A,I177),"")</f>
+        <v>Norway</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>111</v>
+      </c>
+      <c r="B178" t="s">
+        <v>487</v>
+      </c>
+      <c r="C178">
+        <v>69.515000000000001</v>
+      </c>
+      <c r="D178">
+        <v>69.847999999999999</v>
+      </c>
+      <c r="E178">
+        <v>70.168999999999997</v>
+      </c>
+      <c r="F178">
+        <v>70.477999999999994</v>
+      </c>
+      <c r="H178">
+        <f>IFERROR(MATCH(A178,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>100</v>
+      </c>
+      <c r="I178">
+        <f>IFERROR(MATCH(A178,'WDI values'!A:A,0),0)</f>
+        <v>177</v>
+      </c>
+      <c r="J178" t="str" cm="1">
+        <f t="array" ref="J178">IF(I178,INDEX('WDI values'!A:A,I178),"")</f>
+        <v>Nepal</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>245</v>
+      </c>
+      <c r="B179" t="s">
+        <v>488</v>
+      </c>
+      <c r="H179">
+        <f>IFERROR(MATCH(A179,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <f>IFERROR(MATCH(A179,'WDI values'!A:A,0),0)</f>
+        <v>178</v>
+      </c>
+      <c r="J179" t="str" cm="1">
+        <f t="array" ref="J179">IF(I179,INDEX('WDI values'!A:A,I179),"")</f>
+        <v>Nauru</v>
+      </c>
+      <c r="K179" t="str" cm="1">
+        <f t="array" ref="K179">IF(I179,INDEX('WDI values'!D:D,I179),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" t="s">
+        <v>489</v>
+      </c>
+      <c r="C180">
+        <v>81.45682927</v>
+      </c>
+      <c r="D180">
+        <v>81.612439019999997</v>
+      </c>
+      <c r="E180">
+        <v>81.658536589999997</v>
+      </c>
+      <c r="F180">
+        <v>81.85853659</v>
+      </c>
+      <c r="H180">
+        <f>IFERROR(MATCH(A180,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>102</v>
+      </c>
+      <c r="I180">
+        <f>IFERROR(MATCH(A180,'WDI values'!A:A,0),0)</f>
+        <v>179</v>
+      </c>
+      <c r="J180" t="str" cm="1">
+        <f t="array" ref="J180">IF(I180,INDEX('WDI values'!A:A,I180),"")</f>
+        <v>New Zealand</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>246</v>
+      </c>
+      <c r="B181" t="s">
+        <v>490</v>
+      </c>
+      <c r="C181">
+        <v>79.812246869999996</v>
+      </c>
+      <c r="D181">
+        <v>79.961247729999997</v>
+      </c>
+      <c r="E181">
+        <v>80.006334679999995</v>
+      </c>
+      <c r="F181">
+        <v>80.077556740000006</v>
+      </c>
+      <c r="H181">
+        <f>IFERROR(MATCH(A181,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <f>IFERROR(MATCH(A181,'WDI values'!A:A,0),0)</f>
+        <v>180</v>
+      </c>
+      <c r="J181" t="str" cm="1">
+        <f t="array" ref="J181">IF(I181,INDEX('WDI values'!A:A,I181),"")</f>
+        <v>OECD members</v>
+      </c>
+      <c r="K181" t="str" cm="1">
+        <f t="array" ref="K181">IF(I181,INDEX('WDI values'!D:D,I181),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>247</v>
+      </c>
+      <c r="B182" t="s">
+        <v>491</v>
+      </c>
+      <c r="C182">
+        <v>76.887</v>
+      </c>
+      <c r="D182">
+        <v>77.141999999999996</v>
+      </c>
+      <c r="E182">
+        <v>77.393000000000001</v>
+      </c>
+      <c r="F182">
+        <v>77.632999999999996</v>
+      </c>
+      <c r="H182">
+        <f>IFERROR(MATCH(A182,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <f>IFERROR(MATCH(A182,'WDI values'!A:A,0),0)</f>
+        <v>181</v>
+      </c>
+      <c r="J182" t="str" cm="1">
+        <f t="array" ref="J182">IF(I182,INDEX('WDI values'!A:A,I182),"")</f>
+        <v>Oman</v>
+      </c>
+      <c r="K182" t="str" cm="1">
+        <f t="array" ref="K182">IF(I182,INDEX('WDI values'!D:D,I182),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>248</v>
+      </c>
+      <c r="B183" t="s">
+        <v>492</v>
+      </c>
+      <c r="C183">
+        <v>67.405236119999998</v>
+      </c>
+      <c r="D183">
+        <v>67.835629400000002</v>
+      </c>
+      <c r="E183">
+        <v>68.228759170000004</v>
+      </c>
+      <c r="F183">
+        <v>68.546931700000002</v>
+      </c>
+      <c r="H183">
+        <f>IFERROR(MATCH(A183,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <f>IFERROR(MATCH(A183,'WDI values'!A:A,0),0)</f>
+        <v>182</v>
+      </c>
+      <c r="J183" t="str" cm="1">
+        <f t="array" ref="J183">IF(I183,INDEX('WDI values'!A:A,I183),"")</f>
+        <v>Other small states</v>
+      </c>
+      <c r="K183" t="str" cm="1">
+        <f t="array" ref="K183">IF(I183,INDEX('WDI values'!D:D,I183),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>85</v>
+      </c>
+      <c r="B184" t="s">
+        <v>493</v>
+      </c>
+      <c r="C184">
+        <v>66.576999999999998</v>
+      </c>
+      <c r="D184">
+        <v>66.77</v>
+      </c>
+      <c r="E184">
+        <v>66.947000000000003</v>
+      </c>
+      <c r="F184">
+        <v>67.114000000000004</v>
+      </c>
+      <c r="H184">
+        <f>IFERROR(MATCH(A184,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>108</v>
+      </c>
+      <c r="I184">
+        <f>IFERROR(MATCH(A184,'WDI values'!A:A,0),0)</f>
+        <v>183</v>
+      </c>
+      <c r="J184" t="str" cm="1">
+        <f t="array" ref="J184">IF(I184,INDEX('WDI values'!A:A,I184),"")</f>
+        <v>Pakistan</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>37</v>
+      </c>
+      <c r="B185" t="s">
+        <v>494</v>
+      </c>
+      <c r="C185">
+        <v>77.775999999999996</v>
+      </c>
+      <c r="D185">
+        <v>77.963999999999999</v>
+      </c>
+      <c r="E185">
+        <v>78.149000000000001</v>
+      </c>
+      <c r="F185">
+        <v>78.328999999999994</v>
+      </c>
+      <c r="H185">
+        <f>IFERROR(MATCH(A185,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>110</v>
+      </c>
+      <c r="I185">
+        <f>IFERROR(MATCH(A185,'WDI values'!A:A,0),0)</f>
+        <v>184</v>
+      </c>
+      <c r="J185" t="str" cm="1">
+        <f t="array" ref="J185">IF(I185,INDEX('WDI values'!A:A,I185),"")</f>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>75</v>
+      </c>
+      <c r="B186" t="s">
+        <v>495</v>
+      </c>
+      <c r="C186">
+        <v>75.792000000000002</v>
+      </c>
+      <c r="D186">
+        <v>76.043999999999997</v>
+      </c>
+      <c r="E186">
+        <v>76.286000000000001</v>
+      </c>
+      <c r="F186">
+        <v>76.516000000000005</v>
+      </c>
+      <c r="H186">
+        <f>IFERROR(MATCH(A186,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>112</v>
+      </c>
+      <c r="I186">
+        <f>IFERROR(MATCH(A186,'WDI values'!A:A,0),0)</f>
+        <v>185</v>
+      </c>
+      <c r="J186" t="str" cm="1">
+        <f t="array" ref="J186">IF(I186,INDEX('WDI values'!A:A,I186),"")</f>
+        <v>Peru</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>81</v>
+      </c>
+      <c r="B187" t="s">
+        <v>496</v>
+      </c>
+      <c r="C187">
+        <v>70.644000000000005</v>
+      </c>
+      <c r="D187">
+        <v>70.802000000000007</v>
+      </c>
+      <c r="E187">
+        <v>70.951999999999998</v>
+      </c>
+      <c r="F187">
+        <v>71.094999999999999</v>
+      </c>
+      <c r="H187">
+        <f>IFERROR(MATCH(A187,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>113</v>
+      </c>
+      <c r="I187">
+        <f>IFERROR(MATCH(A187,'WDI values'!A:A,0),0)</f>
+        <v>186</v>
+      </c>
+      <c r="J187" t="str" cm="1">
+        <f t="array" ref="J187">IF(I187,INDEX('WDI values'!A:A,I187),"")</f>
+        <v>Philippines</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>249</v>
+      </c>
+      <c r="B188" t="s">
+        <v>497</v>
+      </c>
+      <c r="H188">
+        <f>IFERROR(MATCH(A188,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <f>IFERROR(MATCH(A188,'WDI values'!A:A,0),0)</f>
+        <v>187</v>
+      </c>
+      <c r="J188" t="str" cm="1">
+        <f t="array" ref="J188">IF(I188,INDEX('WDI values'!A:A,I188),"")</f>
+        <v>Palau</v>
+      </c>
+      <c r="K188" t="str" cm="1">
+        <f t="array" ref="K188">IF(I188,INDEX('WDI values'!D:D,I188),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>250</v>
+      </c>
+      <c r="B189" t="s">
+        <v>498</v>
+      </c>
+      <c r="C189">
+        <v>63.466000000000001</v>
+      </c>
+      <c r="D189">
+        <v>63.744</v>
+      </c>
+      <c r="E189">
+        <v>64.010000000000005</v>
+      </c>
+      <c r="F189">
+        <v>64.263000000000005</v>
+      </c>
+      <c r="H189">
+        <f>IFERROR(MATCH(A189,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <f>IFERROR(MATCH(A189,'WDI values'!A:A,0),0)</f>
+        <v>188</v>
+      </c>
+      <c r="J189" t="str" cm="1">
+        <f t="array" ref="J189">IF(I189,INDEX('WDI values'!A:A,I189),"")</f>
+        <v>Papua New Guinea</v>
+      </c>
+      <c r="K189" t="str" cm="1">
+        <f t="array" ref="K189">IF(I189,INDEX('WDI values'!D:D,I189),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>52</v>
+      </c>
+      <c r="B190" t="s">
+        <v>499</v>
+      </c>
+      <c r="C190">
+        <v>77.451219510000001</v>
+      </c>
+      <c r="D190">
+        <v>77.851219510000007</v>
+      </c>
+      <c r="E190">
+        <v>77.753658540000004</v>
+      </c>
+      <c r="F190">
+        <v>77.602439020000006</v>
+      </c>
+      <c r="H190">
+        <f>IFERROR(MATCH(A190,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>114</v>
+      </c>
+      <c r="I190">
+        <f>IFERROR(MATCH(A190,'WDI values'!A:A,0),0)</f>
+        <v>189</v>
+      </c>
+      <c r="J190" t="str" cm="1">
+        <f t="array" ref="J190">IF(I190,INDEX('WDI values'!A:A,I190),"")</f>
+        <v>Poland</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>251</v>
+      </c>
+      <c r="B191" t="s">
+        <v>500</v>
+      </c>
+      <c r="C191">
+        <v>59.511958929999999</v>
+      </c>
+      <c r="D191">
+        <v>59.991937120000003</v>
+      </c>
+      <c r="E191">
+        <v>60.42746691</v>
+      </c>
+      <c r="F191">
+        <v>60.820956299999999</v>
+      </c>
+      <c r="H191">
+        <f>IFERROR(MATCH(A191,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <f>IFERROR(MATCH(A191,'WDI values'!A:A,0),0)</f>
+        <v>190</v>
+      </c>
+      <c r="J191" t="str" cm="1">
+        <f t="array" ref="J191">IF(I191,INDEX('WDI values'!A:A,I191),"")</f>
+        <v>Pre-demographic dividend</v>
+      </c>
+      <c r="K191" t="str" cm="1">
+        <f t="array" ref="K191">IF(I191,INDEX('WDI values'!D:D,I191),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>252</v>
+      </c>
+      <c r="B192" t="s">
+        <v>501</v>
+      </c>
+      <c r="C192">
+        <v>79.353487799999996</v>
+      </c>
+      <c r="D192">
+        <v>79.494975609999997</v>
+      </c>
+      <c r="E192">
+        <v>79.634536589999996</v>
+      </c>
+      <c r="F192">
+        <v>79.778195120000007</v>
+      </c>
+      <c r="H192">
+        <f>IFERROR(MATCH(A192,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <f>IFERROR(MATCH(A192,'WDI values'!A:A,0),0)</f>
+        <v>191</v>
+      </c>
+      <c r="J192" t="str" cm="1">
+        <f t="array" ref="J192">IF(I192,INDEX('WDI values'!A:A,I192),"")</f>
+        <v>Puerto Rico</v>
+      </c>
+      <c r="K192" t="str" cm="1">
+        <f t="array" ref="K192">IF(I192,INDEX('WDI values'!D:D,I192),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>502</v>
+      </c>
+      <c r="B193" t="s">
+        <v>503</v>
+      </c>
+      <c r="C193">
+        <v>71.480999999999995</v>
+      </c>
+      <c r="D193">
+        <v>71.710999999999999</v>
+      </c>
+      <c r="E193">
+        <v>71.91</v>
+      </c>
+      <c r="F193">
+        <v>72.094999999999999</v>
+      </c>
+      <c r="H193">
+        <f>IFERROR(MATCH(A193,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <f>IFERROR(MATCH(A193,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J193" t="str" cm="1">
+        <f t="array" ref="J193">IF(I193,INDEX('WDI values'!A:A,I193),"")</f>
+        <v/>
+      </c>
+      <c r="K193" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>87</v>
+      </c>
+      <c r="B194" t="s">
+        <v>504</v>
+      </c>
+      <c r="C194">
+        <v>81.124390239999997</v>
+      </c>
+      <c r="D194">
+        <v>81.124390239999997</v>
+      </c>
+      <c r="E194">
+        <v>81.424390239999994</v>
+      </c>
+      <c r="F194">
+        <v>81.32439024</v>
+      </c>
+      <c r="H194">
+        <f>IFERROR(MATCH(A194,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>115</v>
+      </c>
+      <c r="I194">
+        <f>IFERROR(MATCH(A194,'WDI values'!A:A,0),0)</f>
+        <v>193</v>
+      </c>
+      <c r="J194" t="str" cm="1">
+        <f t="array" ref="J194">IF(I194,INDEX('WDI values'!A:A,I194),"")</f>
+        <v>Portugal</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>74</v>
+      </c>
+      <c r="B195" t="s">
+        <v>505</v>
+      </c>
+      <c r="C195">
+        <v>73.662000000000006</v>
+      </c>
+      <c r="D195">
+        <v>73.835999999999999</v>
+      </c>
+      <c r="E195">
+        <v>73.992000000000004</v>
+      </c>
+      <c r="F195">
+        <v>74.131</v>
+      </c>
+      <c r="H195">
+        <f>IFERROR(MATCH(A195,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>111</v>
+      </c>
+      <c r="I195">
+        <f>IFERROR(MATCH(A195,'WDI values'!A:A,0),0)</f>
+        <v>194</v>
+      </c>
+      <c r="J195" t="str" cm="1">
+        <f t="array" ref="J195">IF(I195,INDEX('WDI values'!A:A,I195),"")</f>
+        <v>Paraguay</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>254</v>
+      </c>
+      <c r="B196" t="s">
+        <v>506</v>
+      </c>
+      <c r="C196">
+        <v>73.441999999999993</v>
+      </c>
+      <c r="D196">
+        <v>73.588999999999999</v>
+      </c>
+      <c r="E196">
+        <v>73.739999999999995</v>
+      </c>
+      <c r="F196">
+        <v>73.894999999999996</v>
+      </c>
+      <c r="H196">
+        <f>IFERROR(MATCH(A196,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <f>IFERROR(MATCH(A196,'WDI values'!A:A,0),0)</f>
+        <v>195</v>
+      </c>
+      <c r="J196" t="str" cm="1">
+        <f t="array" ref="J196">IF(I196,INDEX('WDI values'!A:A,I196),"")</f>
+        <v>West Bank and Gaza</v>
+      </c>
+      <c r="K196" t="str" cm="1">
+        <f t="array" ref="K196">IF(I196,INDEX('WDI values'!D:D,I196),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>255</v>
+      </c>
+      <c r="B197" t="s">
+        <v>507</v>
+      </c>
+      <c r="C197">
+        <v>69.444458769999997</v>
+      </c>
+      <c r="D197">
+        <v>69.613741930000003</v>
+      </c>
+      <c r="E197">
+        <v>69.774283780000005</v>
+      </c>
+      <c r="F197">
+        <v>69.929057970000002</v>
+      </c>
+      <c r="H197">
+        <f>IFERROR(MATCH(A197,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <f>IFERROR(MATCH(A197,'WDI values'!A:A,0),0)</f>
+        <v>196</v>
+      </c>
+      <c r="J197" t="str" cm="1">
+        <f t="array" ref="J197">IF(I197,INDEX('WDI values'!A:A,I197),"")</f>
+        <v>Pacific island small states</v>
+      </c>
+      <c r="K197" t="str" cm="1">
+        <f t="array" ref="K197">IF(I197,INDEX('WDI values'!D:D,I197),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>256</v>
+      </c>
+      <c r="B198" t="s">
+        <v>508</v>
+      </c>
+      <c r="C198">
+        <v>80.394980009999998</v>
+      </c>
+      <c r="D198">
+        <v>80.549221149999994</v>
+      </c>
+      <c r="E198">
+        <v>80.598441469999997</v>
+      </c>
+      <c r="F198">
+        <v>80.659891999999999</v>
+      </c>
+      <c r="H198">
+        <f>IFERROR(MATCH(A198,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <f>IFERROR(MATCH(A198,'WDI values'!A:A,0),0)</f>
+        <v>197</v>
+      </c>
+      <c r="J198" t="str" cm="1">
+        <f t="array" ref="J198">IF(I198,INDEX('WDI values'!A:A,I198),"")</f>
+        <v>Post-demographic dividend</v>
+      </c>
+      <c r="K198" t="str" cm="1">
+        <f t="array" ref="K198">IF(I198,INDEX('WDI values'!D:D,I198),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>257</v>
+      </c>
+      <c r="B199" t="s">
+        <v>509</v>
+      </c>
+      <c r="C199">
+        <v>76.787000000000006</v>
+      </c>
+      <c r="D199">
+        <v>77.024000000000001</v>
+      </c>
+      <c r="E199">
+        <v>77.251000000000005</v>
+      </c>
+      <c r="F199">
+        <v>77.462000000000003</v>
+      </c>
+      <c r="H199">
+        <f>IFERROR(MATCH(A199,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <f>IFERROR(MATCH(A199,'WDI values'!A:A,0),0)</f>
+        <v>198</v>
+      </c>
+      <c r="J199" t="str" cm="1">
+        <f t="array" ref="J199">IF(I199,INDEX('WDI values'!A:A,I199),"")</f>
+        <v>French Polynesia</v>
+      </c>
+      <c r="K199" t="str" cm="1">
+        <f t="array" ref="K199">IF(I199,INDEX('WDI values'!D:D,I199),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>42</v>
+      </c>
+      <c r="B200" t="s">
+        <v>510</v>
+      </c>
+      <c r="C200">
+        <v>79.757999999999996</v>
+      </c>
+      <c r="D200">
+        <v>79.867999999999995</v>
+      </c>
+      <c r="E200">
+        <v>79.980999999999995</v>
+      </c>
+      <c r="F200">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="H200">
+        <f>IFERROR(MATCH(A200,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>116</v>
+      </c>
+      <c r="I200">
+        <f>IFERROR(MATCH(A200,'WDI values'!A:A,0),0)</f>
+        <v>199</v>
+      </c>
+      <c r="J200" t="str" cm="1">
+        <f t="array" ref="J200">IF(I200,INDEX('WDI values'!A:A,I200),"")</f>
+        <v>Qatar</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>62</v>
+      </c>
+      <c r="B201" t="s">
+        <v>511</v>
+      </c>
+      <c r="C201">
+        <v>74.912195120000007</v>
+      </c>
+      <c r="D201">
+        <v>75.209756100000007</v>
+      </c>
+      <c r="E201">
+        <v>75.309756100000001</v>
+      </c>
+      <c r="F201">
+        <v>75.35853659</v>
+      </c>
+      <c r="H201">
+        <f>IFERROR(MATCH(A201,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>117</v>
+      </c>
+      <c r="I201">
+        <f>IFERROR(MATCH(A201,'WDI values'!A:A,0),0)</f>
+        <v>200</v>
+      </c>
+      <c r="J201" t="str" cm="1">
+        <f t="array" ref="J201">IF(I201,INDEX('WDI values'!A:A,I201),"")</f>
+        <v>Romania</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A202" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C202" s="5">
+        <v>71.183414630000001</v>
+      </c>
+      <c r="D202" s="5">
+        <v>71.651219510000004</v>
+      </c>
+      <c r="E202" s="5">
+        <v>72.431951220000002</v>
+      </c>
+      <c r="F202" s="5">
+        <v>72.657317070000005</v>
+      </c>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5">
+        <f>IFERROR(MATCH(A202,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I202" s="5">
+        <f>IFERROR(MATCH(A202,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J202" s="5" t="str" cm="1">
+        <f t="array" ref="J202">IF(I202,INDEX('WDI values'!A:A,I202),"")</f>
+        <v/>
+      </c>
+      <c r="K202" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L202" s="5"/>
+    </row>
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>161</v>
+      </c>
+      <c r="B203" t="s">
+        <v>514</v>
+      </c>
+      <c r="C203">
+        <v>67.45</v>
+      </c>
+      <c r="D203">
+        <v>67.930000000000007</v>
+      </c>
+      <c r="E203">
+        <v>68.340999999999994</v>
+      </c>
+      <c r="F203">
+        <v>68.7</v>
+      </c>
+      <c r="H203">
+        <f>IFERROR(MATCH(A203,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>119</v>
+      </c>
+      <c r="I203">
+        <f>IFERROR(MATCH(A203,'WDI values'!A:A,0),0)</f>
+        <v>202</v>
+      </c>
+      <c r="J203" t="str" cm="1">
+        <f t="array" ref="J203">IF(I203,INDEX('WDI values'!A:A,I203),"")</f>
+        <v>Rwanda</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>258</v>
+      </c>
+      <c r="B204" t="s">
+        <v>515</v>
+      </c>
+      <c r="C204">
+        <v>68.641900680000006</v>
+      </c>
+      <c r="D204">
+        <v>68.916151439999993</v>
+      </c>
+      <c r="E204">
+        <v>69.171311900000006</v>
+      </c>
+      <c r="F204">
+        <v>69.412247649999998</v>
+      </c>
+      <c r="H204">
+        <f>IFERROR(MATCH(A204,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <f>IFERROR(MATCH(A204,'WDI values'!A:A,0),0)</f>
+        <v>203</v>
+      </c>
+      <c r="J204" t="str" cm="1">
+        <f t="array" ref="J204">IF(I204,INDEX('WDI values'!A:A,I204),"")</f>
+        <v>South Asia</v>
+      </c>
+      <c r="K204" t="str" cm="1">
+        <f t="array" ref="K204">IF(I204,INDEX('WDI values'!D:D,I204),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>43</v>
+      </c>
+      <c r="B205" t="s">
+        <v>516</v>
+      </c>
+      <c r="C205">
+        <v>74.650999999999996</v>
+      </c>
+      <c r="D205">
+        <v>74.760999999999996</v>
+      </c>
+      <c r="E205">
+        <v>74.873999999999995</v>
+      </c>
+      <c r="F205">
+        <v>74.998000000000005</v>
+      </c>
+      <c r="H205">
+        <f>IFERROR(MATCH(A205,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>120</v>
+      </c>
+      <c r="I205">
+        <f>IFERROR(MATCH(A205,'WDI values'!A:A,0),0)</f>
+        <v>204</v>
+      </c>
+      <c r="J205" t="str" cm="1">
+        <f t="array" ref="J205">IF(I205,INDEX('WDI values'!A:A,I205),"")</f>
+        <v>Saudi Arabia</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>147</v>
+      </c>
+      <c r="B206" t="s">
+        <v>517</v>
+      </c>
+      <c r="C206">
+        <v>64.429000000000002</v>
+      </c>
+      <c r="D206">
+        <v>64.662999999999997</v>
+      </c>
+      <c r="E206">
+        <v>64.881</v>
+      </c>
+      <c r="F206">
+        <v>65.094999999999999</v>
+      </c>
+      <c r="H206">
+        <f>IFERROR(MATCH(A206,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>133</v>
+      </c>
+      <c r="I206">
+        <f>IFERROR(MATCH(A206,'WDI values'!A:A,0),0)</f>
+        <v>205</v>
+      </c>
+      <c r="J206" t="str" cm="1">
+        <f t="array" ref="J206">IF(I206,INDEX('WDI values'!A:A,I206),"")</f>
+        <v>Sudan</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>119</v>
+      </c>
+      <c r="B207" t="s">
+        <v>518</v>
+      </c>
+      <c r="C207">
+        <v>66.747</v>
+      </c>
+      <c r="D207">
+        <v>67.078000000000003</v>
+      </c>
+      <c r="E207">
+        <v>67.38</v>
+      </c>
+      <c r="F207">
+        <v>67.665000000000006</v>
+      </c>
+      <c r="H207">
+        <f>IFERROR(MATCH(A207,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>121</v>
+      </c>
+      <c r="I207">
+        <f>IFERROR(MATCH(A207,'WDI values'!A:A,0),0)</f>
+        <v>206</v>
+      </c>
+      <c r="J207" t="str" cm="1">
+        <f t="array" ref="J207">IF(I207,INDEX('WDI values'!A:A,I207),"")</f>
+        <v>Senegal</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>44</v>
+      </c>
+      <c r="B208" t="s">
+        <v>519</v>
+      </c>
+      <c r="C208">
+        <v>82.743902439999999</v>
+      </c>
+      <c r="D208">
+        <v>82.846341460000005</v>
+      </c>
+      <c r="E208">
+        <v>83.095121950000006</v>
+      </c>
+      <c r="F208">
+        <v>83.146341460000002</v>
+      </c>
+      <c r="H208">
+        <f>IFERROR(MATCH(A208,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>124</v>
+      </c>
+      <c r="I208">
+        <f>IFERROR(MATCH(A208,'WDI values'!A:A,0),0)</f>
+        <v>207</v>
+      </c>
+      <c r="J208" t="str" cm="1">
+        <f t="array" ref="J208">IF(I208,INDEX('WDI values'!A:A,I208),"")</f>
+        <v>Singapore</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>259</v>
+      </c>
+      <c r="B209" t="s">
+        <v>520</v>
+      </c>
+      <c r="C209">
+        <v>72.173000000000002</v>
+      </c>
+      <c r="D209">
+        <v>72.424000000000007</v>
+      </c>
+      <c r="E209">
+        <v>72.644999999999996</v>
+      </c>
+      <c r="F209">
+        <v>72.834999999999994</v>
+      </c>
+      <c r="H209">
+        <f>IFERROR(MATCH(A209,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <f>IFERROR(MATCH(A209,'WDI values'!A:A,0),0)</f>
+        <v>208</v>
+      </c>
+      <c r="J209" t="str" cm="1">
+        <f t="array" ref="J209">IF(I209,INDEX('WDI values'!A:A,I209),"")</f>
+        <v>Solomon Islands</v>
+      </c>
+      <c r="K209" t="str" cm="1">
+        <f t="array" ref="K209">IF(I209,INDEX('WDI values'!D:D,I209),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>123</v>
+      </c>
+      <c r="B210" t="s">
+        <v>521</v>
+      </c>
+      <c r="C210">
+        <v>52.941000000000003</v>
+      </c>
+      <c r="D210">
+        <v>53.444000000000003</v>
+      </c>
+      <c r="E210">
+        <v>53.895000000000003</v>
+      </c>
+      <c r="F210">
+        <v>54.308999999999997</v>
+      </c>
+      <c r="H210">
+        <f>IFERROR(MATCH(A210,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>123</v>
+      </c>
+      <c r="I210">
+        <f>IFERROR(MATCH(A210,'WDI values'!A:A,0),0)</f>
+        <v>209</v>
+      </c>
+      <c r="J210" t="str" cm="1">
+        <f t="array" ref="J210">IF(I210,INDEX('WDI values'!A:A,I210),"")</f>
+        <v>Sierra Leone</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>50</v>
+      </c>
+      <c r="B211" t="s">
+        <v>522</v>
+      </c>
+      <c r="C211">
+        <v>72.412000000000006</v>
+      </c>
+      <c r="D211">
+        <v>72.644000000000005</v>
+      </c>
+      <c r="E211">
+        <v>72.872</v>
+      </c>
+      <c r="F211">
+        <v>73.096000000000004</v>
+      </c>
+      <c r="H211">
+        <f>IFERROR(MATCH(A211,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>43</v>
+      </c>
+      <c r="I211">
+        <f>IFERROR(MATCH(A211,'WDI values'!A:A,0),0)</f>
+        <v>210</v>
+      </c>
+      <c r="J211" t="str" cm="1">
+        <f t="array" ref="J211">IF(I211,INDEX('WDI values'!A:A,I211),"")</f>
+        <v>El Salvador</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>260</v>
+      </c>
+      <c r="B212" t="s">
+        <v>523</v>
+      </c>
+      <c r="H212">
+        <f>IFERROR(MATCH(A212,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <f>IFERROR(MATCH(A212,'WDI values'!A:A,0),0)</f>
+        <v>211</v>
+      </c>
+      <c r="J212" t="str" cm="1">
+        <f t="array" ref="J212">IF(I212,INDEX('WDI values'!A:A,I212),"")</f>
+        <v>San Marino</v>
+      </c>
+      <c r="K212" t="str" cm="1">
+        <f t="array" ref="K212">IF(I212,INDEX('WDI values'!D:D,I212),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>108</v>
+      </c>
+      <c r="B213" t="s">
+        <v>524</v>
+      </c>
+      <c r="C213">
+        <v>55.92</v>
+      </c>
+      <c r="D213">
+        <v>56.323999999999998</v>
+      </c>
+      <c r="E213">
+        <v>56.709000000000003</v>
+      </c>
+      <c r="F213">
+        <v>57.067999999999998</v>
+      </c>
+      <c r="H213">
+        <f>IFERROR(MATCH(A213,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>127</v>
+      </c>
+      <c r="I213">
+        <f>IFERROR(MATCH(A213,'WDI values'!A:A,0),0)</f>
+        <v>212</v>
+      </c>
+      <c r="J213" t="str" cm="1">
+        <f t="array" ref="J213">IF(I213,INDEX('WDI values'!A:A,I213),"")</f>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>88</v>
+      </c>
+      <c r="B214" t="s">
+        <v>525</v>
+      </c>
+      <c r="C214">
+        <v>75.287804879999996</v>
+      </c>
+      <c r="D214">
+        <v>75.687804880000002</v>
+      </c>
+      <c r="E214">
+        <v>75.539024389999994</v>
+      </c>
+      <c r="F214">
+        <v>75.890243900000002</v>
+      </c>
+      <c r="H214">
+        <f>IFERROR(MATCH(A214,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>122</v>
+      </c>
+      <c r="I214">
+        <f>IFERROR(MATCH(A214,'WDI values'!A:A,0),0)</f>
+        <v>213</v>
+      </c>
+      <c r="J214" t="str" cm="1">
+        <f t="array" ref="J214">IF(I214,INDEX('WDI values'!A:A,I214),"")</f>
+        <v>Serbia</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>261</v>
+      </c>
+      <c r="B215" t="s">
+        <v>526</v>
+      </c>
+      <c r="C215">
+        <v>59.933192949999999</v>
+      </c>
+      <c r="D215">
+        <v>60.42383847</v>
+      </c>
+      <c r="E215">
+        <v>60.862335639999998</v>
+      </c>
+      <c r="F215">
+        <v>61.256533130000001</v>
+      </c>
+      <c r="H215">
+        <f>IFERROR(MATCH(A215,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <f>IFERROR(MATCH(A215,'WDI values'!A:A,0),0)</f>
+        <v>214</v>
+      </c>
+      <c r="J215" t="str" cm="1">
+        <f t="array" ref="J215">IF(I215,INDEX('WDI values'!A:A,I215),"")</f>
+        <v>Sub-Saharan Africa (excluding high income)</v>
+      </c>
+      <c r="K215" t="str" cm="1">
+        <f t="array" ref="K215">IF(I215,INDEX('WDI values'!D:D,I215),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>164</v>
+      </c>
+      <c r="B216" t="s">
+        <v>527</v>
+      </c>
+      <c r="C216">
+        <v>56.854999999999997</v>
+      </c>
+      <c r="D216">
+        <v>57.12</v>
+      </c>
+      <c r="E216">
+        <v>57.365000000000002</v>
+      </c>
+      <c r="F216">
+        <v>57.603999999999999</v>
+      </c>
+      <c r="H216">
+        <f>IFERROR(MATCH(A216,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>130</v>
+      </c>
+      <c r="I216">
+        <f>IFERROR(MATCH(A216,'WDI values'!A:A,0),0)</f>
+        <v>215</v>
+      </c>
+      <c r="J216" t="str" cm="1">
+        <f t="array" ref="J216">IF(I216,INDEX('WDI values'!A:A,I216),"")</f>
+        <v>South Sudan</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>262</v>
+      </c>
+      <c r="B217" t="s">
+        <v>528</v>
+      </c>
+      <c r="C217">
+        <v>59.952830550000002</v>
+      </c>
+      <c r="D217">
+        <v>60.442387340000003</v>
+      </c>
+      <c r="E217">
+        <v>60.88000237</v>
+      </c>
+      <c r="F217">
+        <v>61.27301465</v>
+      </c>
+      <c r="H217">
+        <f>IFERROR(MATCH(A217,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <f>IFERROR(MATCH(A217,'WDI values'!A:A,0),0)</f>
+        <v>216</v>
+      </c>
+      <c r="J217" t="str" cm="1">
+        <f t="array" ref="J217">IF(I217,INDEX('WDI values'!A:A,I217),"")</f>
+        <v>Sub-Saharan Africa</v>
+      </c>
+      <c r="K217" t="str" cm="1">
+        <f t="array" ref="K217">IF(I217,INDEX('WDI values'!D:D,I217),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>263</v>
+      </c>
+      <c r="B218" t="s">
+        <v>529</v>
+      </c>
+      <c r="C218">
+        <v>68.614010820000004</v>
+      </c>
+      <c r="D218">
+        <v>68.960462730000003</v>
+      </c>
+      <c r="E218">
+        <v>69.279074730000005</v>
+      </c>
+      <c r="F218">
+        <v>69.541132660000002</v>
+      </c>
+      <c r="H218">
+        <f>IFERROR(MATCH(A218,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <f>IFERROR(MATCH(A218,'WDI values'!A:A,0),0)</f>
+        <v>217</v>
+      </c>
+      <c r="J218" t="str" cm="1">
+        <f t="array" ref="J218">IF(I218,INDEX('WDI values'!A:A,I218),"")</f>
+        <v>Small states</v>
+      </c>
+      <c r="K218" t="str" cm="1">
+        <f t="array" ref="K218">IF(I218,INDEX('WDI values'!D:D,I218),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>530</v>
+      </c>
+      <c r="B219" t="s">
+        <v>531</v>
+      </c>
+      <c r="C219">
+        <v>69.376999999999995</v>
+      </c>
+      <c r="D219">
+        <v>69.67</v>
+      </c>
+      <c r="E219">
+        <v>69.933000000000007</v>
+      </c>
+      <c r="F219">
+        <v>70.17</v>
+      </c>
+      <c r="H219">
+        <f>IFERROR(MATCH(A219,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <f>IFERROR(MATCH(A219,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J219" t="str" cm="1">
+        <f t="array" ref="J219">IF(I219,INDEX('WDI values'!A:A,I219),"")</f>
+        <v/>
+      </c>
+      <c r="K219" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>265</v>
+      </c>
+      <c r="B220" t="s">
+        <v>532</v>
+      </c>
+      <c r="C220">
+        <v>71.248999999999995</v>
+      </c>
+      <c r="D220">
+        <v>71.358000000000004</v>
+      </c>
+      <c r="E220">
+        <v>71.462999999999994</v>
+      </c>
+      <c r="F220">
+        <v>71.569999999999993</v>
+      </c>
+      <c r="H220">
+        <f>IFERROR(MATCH(A220,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <f>IFERROR(MATCH(A220,'WDI values'!A:A,0),0)</f>
+        <v>219</v>
+      </c>
+      <c r="J220" t="str" cm="1">
+        <f t="array" ref="J220">IF(I220,INDEX('WDI values'!A:A,I220),"")</f>
+        <v>Suriname</v>
+      </c>
+      <c r="K220" t="str" cm="1">
+        <f t="array" ref="K220">IF(I220,INDEX('WDI values'!D:D,I220),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C221" s="3">
+        <v>76.563414629999997</v>
+      </c>
+      <c r="D221" s="3">
+        <v>77.165853659999996</v>
+      </c>
+      <c r="E221" s="3">
+        <v>77.165853659999996</v>
+      </c>
+      <c r="F221" s="3">
+        <v>77.265853660000005</v>
+      </c>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3">
+        <f>IFERROR(MATCH(A221,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I221" s="3">
+        <f>IFERROR(MATCH(A221,'WDI values'!A:A,0),0)</f>
+        <v>220</v>
+      </c>
+      <c r="J221" s="3" t="str" cm="1">
+        <f t="array" ref="J221">IF(I221,INDEX('WDI values'!A:A,I221),"")</f>
+        <v>Slovak Republic</v>
+      </c>
+      <c r="K221" s="4" t="str" cm="1">
+        <f t="array" ref="K221">IF(I221,INDEX('WDI values'!D:D,I221),"")</f>
+        <v>Slovakia</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B222" t="s">
+        <v>534</v>
+      </c>
+      <c r="C222">
+        <v>80.775609759999995</v>
+      </c>
+      <c r="D222">
+        <v>81.17560976</v>
+      </c>
+      <c r="E222">
+        <v>81.029268290000005</v>
+      </c>
+      <c r="F222">
+        <v>81.37804878</v>
+      </c>
+      <c r="H222">
+        <f>IFERROR(MATCH(A222,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>126</v>
+      </c>
+      <c r="I222">
+        <f>IFERROR(MATCH(A222,'WDI values'!A:A,0),0)</f>
+        <v>221</v>
+      </c>
+      <c r="J222" t="str" cm="1">
+        <f t="array" ref="J222">IF(I222,INDEX('WDI values'!A:A,I222),"")</f>
+        <v>Slovenia</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>18</v>
+      </c>
+      <c r="B223" t="s">
+        <v>535</v>
+      </c>
+      <c r="C223">
+        <v>82.204878050000005</v>
+      </c>
+      <c r="D223">
+        <v>82.307317069999996</v>
+      </c>
+      <c r="E223">
+        <v>82.409756099999996</v>
+      </c>
+      <c r="F223">
+        <v>82.558536590000003</v>
+      </c>
+      <c r="H223">
+        <f>IFERROR(MATCH(A223,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>134</v>
+      </c>
+      <c r="I223">
+        <f>IFERROR(MATCH(A223,'WDI values'!A:A,0),0)</f>
+        <v>222</v>
+      </c>
+      <c r="J223" t="str" cm="1">
+        <f t="array" ref="J223">IF(I223,INDEX('WDI values'!A:A,I223),"")</f>
+        <v>Sweden</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>267</v>
+      </c>
+      <c r="B224" t="s">
+        <v>536</v>
+      </c>
+      <c r="C224">
+        <v>55.359000000000002</v>
+      </c>
+      <c r="D224">
+        <v>56.962000000000003</v>
+      </c>
+      <c r="E224">
+        <v>58.319000000000003</v>
+      </c>
+      <c r="F224">
+        <v>59.401000000000003</v>
+      </c>
+      <c r="H224">
+        <f>IFERROR(MATCH(A224,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <f>IFERROR(MATCH(A224,'WDI values'!A:A,0),0)</f>
+        <v>223</v>
+      </c>
+      <c r="J224" t="str" cm="1">
+        <f t="array" ref="J224">IF(I224,INDEX('WDI values'!A:A,I224),"")</f>
+        <v>Eswatini</v>
+      </c>
+      <c r="K224" t="str" cm="1">
+        <f t="array" ref="K224">IF(I224,INDEX('WDI values'!D:D,I224),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>268</v>
+      </c>
+      <c r="B225" t="s">
+        <v>537</v>
+      </c>
+      <c r="C225">
+        <v>77.219512199999997</v>
+      </c>
+      <c r="D225">
+        <v>78.292682929999998</v>
+      </c>
+      <c r="H225">
+        <f>IFERROR(MATCH(A225,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <f>IFERROR(MATCH(A225,'WDI values'!A:A,0),0)</f>
+        <v>224</v>
+      </c>
+      <c r="J225" t="str" cm="1">
+        <f t="array" ref="J225">IF(I225,INDEX('WDI values'!A:A,I225),"")</f>
+        <v>Sint Maarten (Dutch part)</v>
+      </c>
+      <c r="K225" t="str" cm="1">
+        <f t="array" ref="K225">IF(I225,INDEX('WDI values'!D:D,I225),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>269</v>
+      </c>
+      <c r="B226" t="s">
+        <v>538</v>
+      </c>
+      <c r="C226">
+        <v>74.295121949999995</v>
+      </c>
+      <c r="D226">
+        <v>74.309756100000001</v>
+      </c>
+      <c r="E226">
+        <v>74.3</v>
+      </c>
+      <c r="F226">
+        <v>72.841463410000003</v>
+      </c>
+      <c r="H226">
+        <f>IFERROR(MATCH(A226,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <f>IFERROR(MATCH(A226,'WDI values'!A:A,0),0)</f>
+        <v>225</v>
+      </c>
+      <c r="J226" t="str" cm="1">
+        <f t="array" ref="J226">IF(I226,INDEX('WDI values'!A:A,I226),"")</f>
+        <v>Seychelles</v>
+      </c>
+      <c r="K226" t="str" cm="1">
+        <f t="array" ref="K226">IF(I226,INDEX('WDI values'!D:D,I226),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>270</v>
+      </c>
+      <c r="B227" t="s">
+        <v>539</v>
+      </c>
+      <c r="C227">
+        <v>69.908000000000001</v>
+      </c>
+      <c r="D227">
+        <v>70.314999999999998</v>
+      </c>
+      <c r="E227">
+        <v>70.966999999999999</v>
+      </c>
+      <c r="F227">
+        <v>71.778999999999996</v>
+      </c>
+      <c r="H227">
+        <f>IFERROR(MATCH(A227,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <f>IFERROR(MATCH(A227,'WDI values'!A:A,0),0)</f>
+        <v>226</v>
+      </c>
+      <c r="J227" t="str" cm="1">
+        <f t="array" ref="J227">IF(I227,INDEX('WDI values'!A:A,I227),"")</f>
+        <v>Syrian Arab Republic</v>
+      </c>
+      <c r="K227" t="str" cm="1">
+        <f t="array" ref="K227">IF(I227,INDEX('WDI values'!D:D,I227),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>271</v>
+      </c>
+      <c r="B228" t="s">
+        <v>540</v>
+      </c>
+      <c r="H228">
+        <f>IFERROR(MATCH(A228,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <f>IFERROR(MATCH(A228,'WDI values'!A:A,0),0)</f>
+        <v>227</v>
+      </c>
+      <c r="J228" t="str" cm="1">
+        <f t="array" ref="J228">IF(I228,INDEX('WDI values'!A:A,I228),"")</f>
+        <v>Turks and Caicos Islands</v>
+      </c>
+      <c r="K228" t="str" cm="1">
+        <f t="array" ref="K228">IF(I228,INDEX('WDI values'!D:D,I228),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>141</v>
+      </c>
+      <c r="B229" t="s">
+        <v>541</v>
+      </c>
+      <c r="C229">
+        <v>53.137</v>
+      </c>
+      <c r="D229">
+        <v>53.438000000000002</v>
+      </c>
+      <c r="E229">
+        <v>53.712000000000003</v>
+      </c>
+      <c r="F229">
+        <v>53.976999999999997</v>
+      </c>
+      <c r="H229">
+        <f>IFERROR(MATCH(A229,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>29</v>
+      </c>
+      <c r="I229">
+        <f>IFERROR(MATCH(A229,'WDI values'!A:A,0),0)</f>
+        <v>228</v>
+      </c>
+      <c r="J229" t="str" cm="1">
+        <f t="array" ref="J229">IF(I229,INDEX('WDI values'!A:A,I229),"")</f>
+        <v>Chad</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>542</v>
+      </c>
+      <c r="B230" t="s">
+        <v>543</v>
+      </c>
+      <c r="C230">
+        <v>74.533952130000003</v>
+      </c>
+      <c r="D230">
+        <v>74.793614570000003</v>
+      </c>
+      <c r="E230">
+        <v>75.033358899999996</v>
+      </c>
+      <c r="F230">
+        <v>75.249229110000002</v>
+      </c>
+      <c r="H230">
+        <f>IFERROR(MATCH(A230,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <f>IFERROR(MATCH(A230,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J230" t="str" cm="1">
+        <f t="array" ref="J230">IF(I230,INDEX('WDI values'!A:A,I230),"")</f>
+        <v/>
+      </c>
+      <c r="K230" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>544</v>
+      </c>
+      <c r="B231" t="s">
+        <v>545</v>
+      </c>
+      <c r="C231">
+        <v>73.148581379999996</v>
+      </c>
+      <c r="D231">
+        <v>73.502717939999997</v>
+      </c>
+      <c r="E231">
+        <v>73.894596469999996</v>
+      </c>
+      <c r="F231">
+        <v>74.037602899999996</v>
+      </c>
+      <c r="H231">
+        <f>IFERROR(MATCH(A231,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <f>IFERROR(MATCH(A231,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J231" t="str" cm="1">
+        <f t="array" ref="J231">IF(I231,INDEX('WDI values'!A:A,I231),"")</f>
+        <v/>
+      </c>
+      <c r="K231" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>149</v>
+      </c>
+      <c r="B232" t="s">
+        <v>546</v>
+      </c>
+      <c r="C232">
+        <v>59.927</v>
+      </c>
+      <c r="D232">
+        <v>60.22</v>
+      </c>
+      <c r="E232">
+        <v>60.488999999999997</v>
+      </c>
+      <c r="F232">
+        <v>60.76</v>
+      </c>
+      <c r="H232">
+        <f>IFERROR(MATCH(A232,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>141</v>
+      </c>
+      <c r="I232">
+        <f>IFERROR(MATCH(A232,'WDI values'!A:A,0),0)</f>
+        <v>231</v>
+      </c>
+      <c r="J232" t="str" cm="1">
+        <f t="array" ref="J232">IF(I232,INDEX('WDI values'!A:A,I232),"")</f>
+        <v>Togo</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>56</v>
+      </c>
+      <c r="B233" t="s">
+        <v>547</v>
+      </c>
+      <c r="C233">
+        <v>76.090999999999994</v>
+      </c>
+      <c r="D233">
+        <v>76.403000000000006</v>
+      </c>
+      <c r="E233">
+        <v>76.683000000000007</v>
+      </c>
+      <c r="F233">
+        <v>76.930999999999997</v>
+      </c>
+      <c r="H233">
+        <f>IFERROR(MATCH(A233,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>140</v>
+      </c>
+      <c r="I233">
+        <f>IFERROR(MATCH(A233,'WDI values'!A:A,0),0)</f>
+        <v>232</v>
+      </c>
+      <c r="J233" t="str" cm="1">
+        <f t="array" ref="J233">IF(I233,INDEX('WDI values'!A:A,I233),"")</f>
+        <v>Thailand</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>90</v>
+      </c>
+      <c r="B234" t="s">
+        <v>548</v>
+      </c>
+      <c r="C234">
+        <v>70.137</v>
+      </c>
+      <c r="D234">
+        <v>70.397000000000006</v>
+      </c>
+      <c r="E234">
+        <v>70.647000000000006</v>
+      </c>
+      <c r="F234">
+        <v>70.879000000000005</v>
+      </c>
+      <c r="H234">
+        <f>IFERROR(MATCH(A234,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>138</v>
+      </c>
+      <c r="I234">
+        <f>IFERROR(MATCH(A234,'WDI values'!A:A,0),0)</f>
+        <v>233</v>
+      </c>
+      <c r="J234" t="str" cm="1">
+        <f t="array" ref="J234">IF(I234,INDEX('WDI values'!A:A,I234),"")</f>
+        <v>Tajikistan</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>78</v>
+      </c>
+      <c r="B235" t="s">
+        <v>549</v>
+      </c>
+      <c r="C235">
+        <v>67.703999999999994</v>
+      </c>
+      <c r="D235">
+        <v>67.834999999999994</v>
+      </c>
+      <c r="E235">
+        <v>67.956000000000003</v>
+      </c>
+      <c r="F235">
+        <v>68.072999999999993</v>
+      </c>
+      <c r="H235">
+        <f>IFERROR(MATCH(A235,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>145</v>
+      </c>
+      <c r="I235">
+        <f>IFERROR(MATCH(A235,'WDI values'!A:A,0),0)</f>
+        <v>234</v>
+      </c>
+      <c r="J235" t="str" cm="1">
+        <f t="array" ref="J235">IF(I235,INDEX('WDI values'!A:A,I235),"")</f>
+        <v>Turkmenistan</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>550</v>
+      </c>
+      <c r="B236" t="s">
+        <v>551</v>
+      </c>
+      <c r="C236">
+        <v>74.866559210000005</v>
+      </c>
+      <c r="D236">
+        <v>75.030570350000005</v>
+      </c>
+      <c r="E236">
+        <v>75.19431505</v>
+      </c>
+      <c r="F236">
+        <v>75.35738078</v>
+      </c>
+      <c r="H236">
+        <f>IFERROR(MATCH(A236,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <f>IFERROR(MATCH(A236,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J236" t="str" cm="1">
+        <f t="array" ref="J236">IF(I236,INDEX('WDI values'!A:A,I236),"")</f>
+        <v/>
+      </c>
+      <c r="K236" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>275</v>
+      </c>
+      <c r="B237" t="s">
+        <v>552</v>
+      </c>
+      <c r="C237">
+        <v>68.459000000000003</v>
+      </c>
+      <c r="D237">
+        <v>68.734999999999999</v>
+      </c>
+      <c r="E237">
+        <v>69.007000000000005</v>
+      </c>
+      <c r="F237">
+        <v>69.260000000000005</v>
+      </c>
+      <c r="H237">
+        <f>IFERROR(MATCH(A237,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <f>IFERROR(MATCH(A237,'WDI values'!A:A,0),0)</f>
+        <v>236</v>
+      </c>
+      <c r="J237" t="str" cm="1">
+        <f t="array" ref="J237">IF(I237,INDEX('WDI values'!A:A,I237),"")</f>
+        <v>Timor-Leste</v>
+      </c>
+      <c r="K237" t="str" cm="1">
+        <f t="array" ref="K237">IF(I237,INDEX('WDI values'!D:D,I237),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>553</v>
+      </c>
+      <c r="B238" t="s">
+        <v>554</v>
+      </c>
+      <c r="C238">
+        <v>72.995052610000002</v>
+      </c>
+      <c r="D238">
+        <v>73.193547069999994</v>
+      </c>
+      <c r="E238">
+        <v>73.390131069999995</v>
+      </c>
+      <c r="F238">
+        <v>73.583642810000001</v>
+      </c>
+      <c r="H238">
+        <f>IFERROR(MATCH(A238,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <f>IFERROR(MATCH(A238,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J238" t="str" cm="1">
+        <f t="array" ref="J238">IF(I238,INDEX('WDI values'!A:A,I238),"")</f>
+        <v/>
+      </c>
+      <c r="K238" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>277</v>
+      </c>
+      <c r="B239" t="s">
+        <v>555</v>
+      </c>
+      <c r="C239">
+        <v>70.516999999999996</v>
+      </c>
+      <c r="D239">
+        <v>70.606999999999999</v>
+      </c>
+      <c r="E239">
+        <v>70.700999999999993</v>
+      </c>
+      <c r="F239">
+        <v>70.801000000000002</v>
+      </c>
+      <c r="H239">
+        <f>IFERROR(MATCH(A239,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <f>IFERROR(MATCH(A239,'WDI values'!A:A,0),0)</f>
+        <v>238</v>
+      </c>
+      <c r="J239" t="str" cm="1">
+        <f t="array" ref="J239">IF(I239,INDEX('WDI values'!A:A,I239),"")</f>
+        <v>Tonga</v>
+      </c>
+      <c r="K239" t="str" cm="1">
+        <f t="array" ref="K239">IF(I239,INDEX('WDI values'!D:D,I239),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>278</v>
+      </c>
+      <c r="B240" t="s">
+        <v>556</v>
+      </c>
+      <c r="C240">
+        <v>68.641900680000006</v>
+      </c>
+      <c r="D240">
+        <v>68.916151439999993</v>
+      </c>
+      <c r="E240">
+        <v>69.171311900000006</v>
+      </c>
+      <c r="F240">
+        <v>69.412247649999998</v>
+      </c>
+      <c r="H240">
+        <f>IFERROR(MATCH(A240,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <f>IFERROR(MATCH(A240,'WDI values'!A:A,0),0)</f>
+        <v>239</v>
+      </c>
+      <c r="J240" t="str" cm="1">
+        <f t="array" ref="J240">IF(I240,INDEX('WDI values'!A:A,I240),"")</f>
+        <v>South Asia (IDA &amp; IBRD)</v>
+      </c>
+      <c r="K240" t="str" cm="1">
+        <f t="array" ref="K240">IF(I240,INDEX('WDI values'!D:D,I240),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>557</v>
+      </c>
+      <c r="B241" t="s">
+        <v>558</v>
+      </c>
+      <c r="C241">
+        <v>59.952830550000002</v>
+      </c>
+      <c r="D241">
+        <v>60.442387340000003</v>
+      </c>
+      <c r="E241">
+        <v>60.88000237</v>
+      </c>
+      <c r="F241">
+        <v>61.27301465</v>
+      </c>
+      <c r="H241">
+        <f>IFERROR(MATCH(A241,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <f>IFERROR(MATCH(A241,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J241" t="str" cm="1">
+        <f t="array" ref="J241">IF(I241,INDEX('WDI values'!A:A,I241),"")</f>
+        <v/>
+      </c>
+      <c r="K241" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C242" s="3">
+        <v>72.941000000000003</v>
+      </c>
+      <c r="D242" s="3">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="E242" s="3">
+        <v>73.245000000000005</v>
+      </c>
+      <c r="F242" s="3">
+        <v>73.38</v>
+      </c>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3">
+        <f>IFERROR(MATCH(A242,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I242" s="3">
+        <f>IFERROR(MATCH(A242,'WDI values'!A:A,0),0)</f>
+        <v>241</v>
+      </c>
+      <c r="J242" s="3" t="str" cm="1">
+        <f t="array" ref="J242">IF(I242,INDEX('WDI values'!A:A,I242),"")</f>
+        <v>Trinidad and Tobago</v>
+      </c>
+      <c r="K242" s="4" t="str" cm="1">
+        <f t="array" ref="K242">IF(I242,INDEX('WDI values'!D:D,I242),"")</f>
+        <v>Trinidad &amp; Tobago</v>
+      </c>
+      <c r="L242" s="3"/>
+    </row>
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>121</v>
+      </c>
+      <c r="B243" t="s">
+        <v>560</v>
+      </c>
+      <c r="C243">
+        <v>75.921999999999997</v>
+      </c>
+      <c r="D243">
+        <v>76.114999999999995</v>
+      </c>
+      <c r="E243">
+        <v>76.31</v>
+      </c>
+      <c r="F243">
+        <v>76.504999999999995</v>
+      </c>
+      <c r="H243">
+        <f>IFERROR(MATCH(A243,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>143</v>
+      </c>
+      <c r="I243">
+        <f>IFERROR(MATCH(A243,'WDI values'!A:A,0),0)</f>
+        <v>242</v>
+      </c>
+      <c r="J243" t="str" cm="1">
+        <f t="array" ref="J243">IF(I243,INDEX('WDI values'!A:A,I243),"")</f>
+        <v>Tunisia</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>84</v>
+      </c>
+      <c r="B244" t="s">
+        <v>561</v>
+      </c>
+      <c r="C244">
+        <v>76.531999999999996</v>
+      </c>
+      <c r="D244">
+        <v>76.86</v>
+      </c>
+      <c r="E244">
+        <v>77.161000000000001</v>
+      </c>
+      <c r="F244">
+        <v>77.436999999999998</v>
+      </c>
+      <c r="H244">
+        <f>IFERROR(MATCH(A244,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>144</v>
+      </c>
+      <c r="I244">
+        <f>IFERROR(MATCH(A244,'WDI values'!A:A,0),0)</f>
+        <v>243</v>
+      </c>
+      <c r="J244" t="str" cm="1">
+        <f t="array" ref="J244">IF(I244,INDEX('WDI values'!A:A,I244),"")</f>
+        <v>Turkey</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>281</v>
+      </c>
+      <c r="B245" t="s">
+        <v>562</v>
+      </c>
+      <c r="H245">
+        <f>IFERROR(MATCH(A245,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <f>IFERROR(MATCH(A245,'WDI values'!A:A,0),0)</f>
+        <v>244</v>
+      </c>
+      <c r="J245" t="str" cm="1">
+        <f t="array" ref="J245">IF(I245,INDEX('WDI values'!A:A,I245),"")</f>
+        <v>Tuvalu</v>
+      </c>
+      <c r="K245" t="str" cm="1">
+        <f t="array" ref="K245">IF(I245,INDEX('WDI values'!D:D,I245),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>163</v>
+      </c>
+      <c r="B246" t="s">
+        <v>563</v>
+      </c>
+      <c r="C246">
+        <v>63.110999999999997</v>
+      </c>
+      <c r="D246">
+        <v>63.844000000000001</v>
+      </c>
+      <c r="E246">
+        <v>64.478999999999999</v>
+      </c>
+      <c r="F246">
+        <v>65.015000000000001</v>
+      </c>
+      <c r="H246">
+        <f>IFERROR(MATCH(A246,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>139</v>
+      </c>
+      <c r="I246">
+        <f>IFERROR(MATCH(A246,'WDI values'!A:A,0),0)</f>
+        <v>245</v>
+      </c>
+      <c r="J246" t="str" cm="1">
+        <f t="array" ref="J246">IF(I246,INDEX('WDI values'!A:A,I246),"")</f>
+        <v>Tanzania</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>145</v>
+      </c>
+      <c r="B247" t="s">
+        <v>564</v>
+      </c>
+      <c r="C247">
+        <v>61.372999999999998</v>
+      </c>
+      <c r="D247">
+        <v>61.985999999999997</v>
+      </c>
+      <c r="E247">
+        <v>62.515999999999998</v>
+      </c>
+      <c r="F247">
+        <v>62.972999999999999</v>
+      </c>
+      <c r="H247">
+        <f>IFERROR(MATCH(A247,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>146</v>
+      </c>
+      <c r="I247">
+        <f>IFERROR(MATCH(A247,'WDI values'!A:A,0),0)</f>
+        <v>246</v>
+      </c>
+      <c r="J247" t="str" cm="1">
+        <f t="array" ref="J247">IF(I247,INDEX('WDI values'!A:A,I247),"")</f>
+        <v>Uganda</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>148</v>
+      </c>
+      <c r="B248" t="s">
+        <v>565</v>
+      </c>
+      <c r="C248">
+        <v>71.189512199999996</v>
+      </c>
+      <c r="D248">
+        <v>71.47634146</v>
+      </c>
+      <c r="E248">
+        <v>71.780975609999999</v>
+      </c>
+      <c r="F248">
+        <v>71.582682930000004</v>
+      </c>
+      <c r="H248">
+        <f>IFERROR(MATCH(A248,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>147</v>
+      </c>
+      <c r="I248">
+        <f>IFERROR(MATCH(A248,'WDI values'!A:A,0),0)</f>
+        <v>247</v>
+      </c>
+      <c r="J248" t="str" cm="1">
+        <f t="array" ref="J248">IF(I248,INDEX('WDI values'!A:A,I248),"")</f>
+        <v>Ukraine</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>282</v>
+      </c>
+      <c r="B249" t="s">
+        <v>566</v>
+      </c>
+      <c r="C249">
+        <v>74.597243930000005</v>
+      </c>
+      <c r="D249">
+        <v>74.858383529999998</v>
+      </c>
+      <c r="E249">
+        <v>75.118495480000007</v>
+      </c>
+      <c r="F249">
+        <v>75.328977210000005</v>
+      </c>
+      <c r="H249">
+        <f>IFERROR(MATCH(A249,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <f>IFERROR(MATCH(A249,'WDI values'!A:A,0),0)</f>
+        <v>248</v>
+      </c>
+      <c r="J249" t="str" cm="1">
+        <f t="array" ref="J249">IF(I249,INDEX('WDI values'!A:A,I249),"")</f>
+        <v>Upper middle income</v>
+      </c>
+      <c r="K249" t="str" cm="1">
+        <f t="array" ref="K249">IF(I249,INDEX('WDI values'!D:D,I249),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>41</v>
+      </c>
+      <c r="B250" t="s">
+        <v>567</v>
+      </c>
+      <c r="C250">
+        <v>77.369</v>
+      </c>
+      <c r="D250">
+        <v>77.498000000000005</v>
+      </c>
+      <c r="E250">
+        <v>77.632000000000005</v>
+      </c>
+      <c r="F250">
+        <v>77.77</v>
+      </c>
+      <c r="H250">
+        <f>IFERROR(MATCH(A250,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>151</v>
+      </c>
+      <c r="I250">
+        <f>IFERROR(MATCH(A250,'WDI values'!A:A,0),0)</f>
+        <v>249</v>
+      </c>
+      <c r="J250" t="str" cm="1">
+        <f t="array" ref="J250">IF(I250,INDEX('WDI values'!A:A,I250),"")</f>
+        <v>Uruguay</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>27</v>
+      </c>
+      <c r="B251" t="s">
+        <v>568</v>
+      </c>
+      <c r="C251">
+        <v>78.690243899999999</v>
+      </c>
+      <c r="D251">
+        <v>78.539024389999994</v>
+      </c>
+      <c r="E251">
+        <v>78.539024389999994</v>
+      </c>
+      <c r="F251">
+        <v>78.539024389999994</v>
+      </c>
+      <c r="H251">
+        <f>IFERROR(MATCH(A251,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>150</v>
+      </c>
+      <c r="I251">
+        <f>IFERROR(MATCH(A251,'WDI values'!A:A,0),0)</f>
+        <v>250</v>
+      </c>
+      <c r="J251" t="str" cm="1">
+        <f t="array" ref="J251">IF(I251,INDEX('WDI values'!A:A,I251),"")</f>
+        <v>United States</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>54</v>
+      </c>
+      <c r="B252" t="s">
+        <v>569</v>
+      </c>
+      <c r="C252">
+        <v>70.927999999999997</v>
+      </c>
+      <c r="D252">
+        <v>71.171000000000006</v>
+      </c>
+      <c r="E252">
+        <v>71.388000000000005</v>
+      </c>
+      <c r="F252">
+        <v>71.572999999999993</v>
+      </c>
+      <c r="H252">
+        <f>IFERROR(MATCH(A252,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>152</v>
+      </c>
+      <c r="I252">
+        <f>IFERROR(MATCH(A252,'WDI values'!A:A,0),0)</f>
+        <v>251</v>
+      </c>
+      <c r="J252" t="str" cm="1">
+        <f t="array" ref="J252">IF(I252,INDEX('WDI values'!A:A,I252),"")</f>
+        <v>Uzbekistan</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>283</v>
+      </c>
+      <c r="B253" t="s">
+        <v>570</v>
+      </c>
+      <c r="C253">
+        <v>72.094999999999999</v>
+      </c>
+      <c r="D253">
+        <v>72.192999999999998</v>
+      </c>
+      <c r="E253">
+        <v>72.3</v>
+      </c>
+      <c r="F253">
+        <v>72.415000000000006</v>
+      </c>
+      <c r="H253">
+        <f>IFERROR(MATCH(A253,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <f>IFERROR(MATCH(A253,'WDI values'!A:A,0),0)</f>
+        <v>252</v>
+      </c>
+      <c r="J253" t="str" cm="1">
+        <f t="array" ref="J253">IF(I253,INDEX('WDI values'!A:A,I253),"")</f>
+        <v>St. Vincent and the Grenadines</v>
+      </c>
+      <c r="K253" t="str" cm="1">
+        <f t="array" ref="K253">IF(I253,INDEX('WDI values'!D:D,I253),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A254" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C254" s="3">
+        <v>72.584000000000003</v>
+      </c>
+      <c r="D254" s="3">
+        <v>72.405000000000001</v>
+      </c>
+      <c r="E254" s="3">
+        <v>72.245999999999995</v>
+      </c>
+      <c r="F254" s="3">
+        <v>72.128</v>
+      </c>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3">
+        <f>IFERROR(MATCH(A254,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I254" s="3">
+        <f>IFERROR(MATCH(A254,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J254" s="3" t="str" cm="1">
+        <f t="array" ref="J254">IF(I254,INDEX('WDI values'!A:A,I254),"")</f>
+        <v/>
+      </c>
+      <c r="K254" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L254" s="3"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>284</v>
+      </c>
+      <c r="B255" t="s">
+        <v>573</v>
+      </c>
+      <c r="H255">
+        <f>IFERROR(MATCH(A255,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <f>IFERROR(MATCH(A255,'WDI values'!A:A,0),0)</f>
+        <v>254</v>
+      </c>
+      <c r="J255" t="str" cm="1">
+        <f t="array" ref="J255">IF(I255,INDEX('WDI values'!A:A,I255),"")</f>
+        <v>British Virgin Islands</v>
+      </c>
+      <c r="K255" t="str" cm="1">
+        <f t="array" ref="K255">IF(I255,INDEX('WDI values'!D:D,I255),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>574</v>
+      </c>
+      <c r="B256" t="s">
+        <v>575</v>
+      </c>
+      <c r="C256">
+        <v>79.168292679999993</v>
+      </c>
+      <c r="D256">
+        <v>79.268292680000002</v>
+      </c>
+      <c r="E256">
+        <v>79.4195122</v>
+      </c>
+      <c r="F256">
+        <v>79.568292679999999</v>
+      </c>
+      <c r="H256">
+        <f>IFERROR(MATCH(A256,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <f>IFERROR(MATCH(A256,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J256" t="str" cm="1">
+        <f t="array" ref="J256">IF(I256,INDEX('WDI values'!A:A,I256),"")</f>
+        <v/>
+      </c>
+      <c r="K256" t="str" cm="1">
+        <f t="array" ref="K256">IF(I256,INDEX('WDI values'!D:D,I256),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>105</v>
+      </c>
+      <c r="B257" t="s">
+        <v>576</v>
+      </c>
+      <c r="C257">
+        <v>75.11</v>
+      </c>
+      <c r="D257">
+        <v>75.171999999999997</v>
+      </c>
+      <c r="E257">
+        <v>75.241</v>
+      </c>
+      <c r="F257">
+        <v>75.316999999999993</v>
+      </c>
+      <c r="H257">
+        <f>IFERROR(MATCH(A257,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>154</v>
+      </c>
+      <c r="I257">
+        <f>IFERROR(MATCH(A257,'WDI values'!A:A,0),0)</f>
+        <v>256</v>
+      </c>
+      <c r="J257" t="str" cm="1">
+        <f t="array" ref="J257">IF(I257,INDEX('WDI values'!A:A,I257),"")</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>286</v>
+      </c>
+      <c r="B258" t="s">
+        <v>577</v>
+      </c>
+      <c r="C258">
+        <v>69.869</v>
+      </c>
+      <c r="D258">
+        <v>70.021000000000001</v>
+      </c>
+      <c r="E258">
+        <v>70.171999999999997</v>
+      </c>
+      <c r="F258">
+        <v>70.322999999999993</v>
+      </c>
+      <c r="H258">
+        <f>IFERROR(MATCH(A258,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <f>IFERROR(MATCH(A258,'WDI values'!A:A,0),0)</f>
+        <v>257</v>
+      </c>
+      <c r="J258" t="str" cm="1">
+        <f t="array" ref="J258">IF(I258,INDEX('WDI values'!A:A,I258),"")</f>
+        <v>Vanuatu</v>
+      </c>
+      <c r="K258" t="str" cm="1">
+        <f t="array" ref="K258">IF(I258,INDEX('WDI values'!D:D,I258),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>287</v>
+      </c>
+      <c r="B259" t="s">
+        <v>578</v>
+      </c>
+      <c r="C259">
+        <v>71.947402920000002</v>
+      </c>
+      <c r="D259">
+        <v>72.18075838</v>
+      </c>
+      <c r="E259">
+        <v>72.385575320000001</v>
+      </c>
+      <c r="F259">
+        <v>72.563274480000004</v>
+      </c>
+      <c r="H259">
+        <f>IFERROR(MATCH(A259,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I259">
+        <f>IFERROR(MATCH(A259,'WDI values'!A:A,0),0)</f>
+        <v>258</v>
+      </c>
+      <c r="J259" t="str" cm="1">
+        <f t="array" ref="J259">IF(I259,INDEX('WDI values'!A:A,I259),"")</f>
+        <v>World</v>
+      </c>
+      <c r="K259" t="str" cm="1">
+        <f t="array" ref="K259">IF(I259,INDEX('WDI values'!D:D,I259),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>288</v>
+      </c>
+      <c r="B260" t="s">
+        <v>579</v>
+      </c>
+      <c r="C260">
+        <v>72.73</v>
+      </c>
+      <c r="D260">
+        <v>72.894999999999996</v>
+      </c>
+      <c r="E260">
+        <v>73.046000000000006</v>
+      </c>
+      <c r="F260">
+        <v>73.186999999999998</v>
+      </c>
+      <c r="H260">
+        <f>IFERROR(MATCH(A260,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <f>IFERROR(MATCH(A260,'WDI values'!A:A,0),0)</f>
+        <v>259</v>
+      </c>
+      <c r="J260" t="str" cm="1">
+        <f t="array" ref="J260">IF(I260,INDEX('WDI values'!A:A,I260),"")</f>
+        <v>Samoa</v>
+      </c>
+      <c r="K260" t="str" cm="1">
+        <f t="array" ref="K260">IF(I260,INDEX('WDI values'!D:D,I260),"")</f>
+        <v>Not in Happiness</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>76</v>
+      </c>
+      <c r="B261" t="s">
+        <v>580</v>
+      </c>
+      <c r="C261">
+        <v>71.346341460000005</v>
+      </c>
+      <c r="D261">
+        <v>71.646341460000002</v>
+      </c>
+      <c r="E261">
+        <v>71.946341459999999</v>
+      </c>
+      <c r="F261">
+        <v>72.195121950000001</v>
+      </c>
+      <c r="H261">
+        <f>IFERROR(MATCH(A261,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>73</v>
+      </c>
+      <c r="I261">
+        <f>IFERROR(MATCH(A261,'WDI values'!A:A,0),0)</f>
+        <v>260</v>
+      </c>
+      <c r="J261" t="str" cm="1">
+        <f t="array" ref="J261">IF(I261,INDEX('WDI values'!A:A,I261),"")</f>
+        <v>Kosovo</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C262" s="3">
+        <v>66.084999999999994</v>
+      </c>
+      <c r="D262" s="3">
+        <v>66.087000000000003</v>
+      </c>
+      <c r="E262" s="3">
+        <v>66.085999999999999</v>
+      </c>
+      <c r="F262" s="3">
+        <v>66.096000000000004</v>
+      </c>
+      <c r="G262" s="3"/>
+      <c r="H262" s="3">
+        <f>IFERROR(MATCH(A262,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I262" s="3">
+        <f>IFERROR(MATCH(A262,'WDI values'!A:A,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J262" s="3" t="str" cm="1">
+        <f t="array" ref="J262">IF(I262,INDEX('WDI values'!A:A,I262),"")</f>
+        <v/>
+      </c>
+      <c r="K262" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L262" s="3"/>
+    </row>
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>115</v>
+      </c>
+      <c r="B263" t="s">
+        <v>583</v>
+      </c>
+      <c r="C263">
+        <v>62.649000000000001</v>
+      </c>
+      <c r="D263">
+        <v>63.152999999999999</v>
+      </c>
+      <c r="E263">
+        <v>63.537999999999997</v>
+      </c>
+      <c r="F263">
+        <v>63.856999999999999</v>
+      </c>
+      <c r="H263">
+        <f>IFERROR(MATCH(A263,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>128</v>
+      </c>
+      <c r="I263">
+        <f>IFERROR(MATCH(A263,'WDI values'!A:A,0),0)</f>
+        <v>262</v>
+      </c>
+      <c r="J263" t="str" cm="1">
+        <f t="array" ref="J263">IF(I263,INDEX('WDI values'!A:A,I263),"")</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>135</v>
+      </c>
+      <c r="B264" t="s">
+        <v>584</v>
+      </c>
+      <c r="C264">
+        <v>61.737000000000002</v>
+      </c>
+      <c r="D264">
+        <v>62.463999999999999</v>
+      </c>
+      <c r="E264">
+        <v>63.042999999999999</v>
+      </c>
+      <c r="F264">
+        <v>63.51</v>
+      </c>
+      <c r="H264">
+        <f>IFERROR(MATCH(A264,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>156</v>
+      </c>
+      <c r="I264">
+        <f>IFERROR(MATCH(A264,'WDI values'!A:A,0),0)</f>
+        <v>263</v>
+      </c>
+      <c r="J264" t="str" cm="1">
+        <f t="array" ref="J264">IF(I264,INDEX('WDI values'!A:A,I264),"")</f>
+        <v>Zambia</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>154</v>
+      </c>
+      <c r="B265" t="s">
+        <v>585</v>
+      </c>
+      <c r="C265">
+        <v>59.533999999999999</v>
+      </c>
+      <c r="D265">
+        <v>60.293999999999997</v>
+      </c>
+      <c r="E265">
+        <v>60.811999999999998</v>
+      </c>
+      <c r="F265">
+        <v>61.195</v>
+      </c>
+      <c r="H265">
+        <f>IFERROR(MATCH(A265,'WorldHappinessIndex2018 (Kaggle'!B:B,0),0)</f>
+        <v>157</v>
+      </c>
+      <c r="I265">
+        <f>IFERROR(MATCH(A265,'WDI values'!A:A,0),0)</f>
+        <v>264</v>
+      </c>
+      <c r="J265" t="str" cm="1">
+        <f t="array" ref="J265">IF(I265,INDEX('WDI values'!A:A,I265),"")</f>
+        <v>Zimbabwe</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="H1:K265" xr:uid="{0B3BC2BB-0414-4E8E-BE95-47A6655EADF5}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>